--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13691" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="426">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7120,6 +7120,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -7145,6 +7152,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'll </t>
     </r>
     <r>
@@ -7203,7 +7217,17 @@
     </r>
   </si>
   <si>
-    <r>
+    <t>一弹山水苍苍，一弹天下汤汤</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He really lives up to his reputation as “ a </t>
     </r>
     <r>
@@ -7229,6 +7253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他真是名副其实的“活字典”。代指那些</t>
     </r>
     <r>
@@ -7253,6 +7284,9 @@
     </r>
   </si>
   <si>
+    <t>滚滚长江东逝水，浪花淘尽英雄</t>
+  </si>
+  <si>
     <t>You can ask him about it. He is a walking dictionary.</t>
   </si>
   <si>
@@ -7320,6 +7354,578 @@
   </si>
   <si>
     <t>在数量上超过</t>
+  </si>
+  <si>
+    <r>
+      <t>CNY：人民币（Chinese Yuan）简称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也是ISO认定的用来表示中国货币的符号，目前是人民币在世界贸易交流中被唯一认定的符号。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>in the money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一个含义是“有钱的，富有的”，
+另外一层含义是“在比赛中出于优胜地位，领先”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, what will be the first thing that you mostly want to do?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果你突然间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴富</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起来，你最想做的第一件事是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have full assurance that he is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我充分相信他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处于优胜地位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Money talks.</t>
+  </si>
+  <si>
+    <t>金钱万能。中国有一句谚语，叫做“有钱能使鬼推磨”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don't suppose that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>money talks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>钱不是万能的。</t>
+  </si>
+  <si>
+    <t>Can you lend me 10 yuan？</t>
+  </si>
+  <si>
+    <t>借我10元？</t>
+  </si>
+  <si>
+    <t>Can I borrow 10 yuan？</t>
+  </si>
+  <si>
+    <t>Ten-four</t>
+  </si>
+  <si>
+    <r>
+      <t>通讯行业的专用术语。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>收到，立即执行。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不怎么常用了，不是"十四"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">在美国，信仰佛教的人没有信仰基督教的人多。
+因此，美国人会认为，福报是“上帝”赐予的，单词blessing的意思就是“上帝的恩赐，祝福”，如果用作动词，还可以表示“赞美上帝，祈福”。
+</t>
+  </si>
+  <si>
+    <t>God send me to blessing you.</t>
+  </si>
+  <si>
+    <t>我是上帝派来给你福报的。</t>
+  </si>
+  <si>
+    <t>it's a blessing</t>
+  </si>
+  <si>
+    <t>这是一种福报。</t>
+  </si>
+  <si>
+    <t>Work overtime is a blessing.</t>
+  </si>
+  <si>
+    <t>加班是一种福报。</t>
+  </si>
+  <si>
+    <t>“996”work schedule is a blessing.</t>
+  </si>
+  <si>
+    <t>996是修来的福报。</t>
+  </si>
+  <si>
+    <t>karma：[ˈkɑ:mə] 因缘，报应
+pay the price：付出代价
+karma是一个宗教词汇，来源于佛教，它本身的意思是“业”，即可以表达“善报”也可以表达“恶报”。</t>
+  </si>
+  <si>
+    <t>This is what we call karma: good karma and bad karma.</t>
+  </si>
+  <si>
+    <t>这就是我们称之为的报：福报和恶报。</t>
+  </si>
+  <si>
+    <t>That's why karma's punishing me.</t>
+  </si>
+  <si>
+    <t>那就是为什么总有恶报在纠缠我。</t>
+  </si>
+  <si>
+    <t>美国社交APP：</t>
+  </si>
+  <si>
+    <t>Coffee meets bagel类似于‘探探’；Bumble，女生才能主动发消息</t>
+  </si>
+  <si>
+    <t>play with me</t>
+  </si>
+  <si>
+    <t>小孩子：‘跟我玩耍’；成年人：‘愚弄，耍我’，某些情况下还有‘污污’的意思</t>
+  </si>
+  <si>
+    <r>
+      <t>nickname ['nɪkneɪm] n. 绰号；昵称
+其实，nickname本写做ekename，这里的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本身就是个单词，意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，后来在使用过程中，an ekename的冠词an中的n被错误分到了ekename中，慢慢的就演变成了nickame。nickname的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>感情色彩是中性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不仅可以指外号，而且还可以指“昵称”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To this he owed his </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> of “ Fatty ”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他由此得了一个“大块头”的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Jess is just my nickname-my real name is jessica.</t>
+  </si>
+  <si>
+    <t>杰西只是我的昵称，我的真名是杰西卡。</t>
+  </si>
+  <si>
+    <t>在有写外国网站注册账号的时候，如果输入的名称足够简单，网站可能会有这样的提示。在这里，quickname也可以表示你在该网站的“用户名”，类似于常见的user name.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You have entered a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that is already in use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>您输入的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”已经有人使用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Quickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains reserved or ineligible word.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中包含了保留的或不恰当的词汇。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Queen has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bestowed a knighthood on him</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>女王会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>授予他爵士头衔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在英语中，头衔有两种，一种是授予的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正式头衔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”如博士，公爵等，这种头衔的首字母在名字面前时，需要大写，还有一种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职业头衔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比如“财务”“设计”等，这种头衔不需要大写哦~</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>头衔的英语可不是nickname，一般而言，人们会用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title来表示“头衔”</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7328,9 +7934,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -7350,14 +7956,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8" tint="-0.25"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF595959"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0070C0"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color theme="8" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7369,18 +7987,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF0070C0"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF595959"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -7398,89 +8004,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7494,11 +8025,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7509,9 +8039,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7527,7 +8071,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7535,7 +8079,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7591,7 +8197,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7609,7 +8269,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7621,97 +8341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7723,31 +8359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7759,19 +8377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7782,6 +8388,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7800,17 +8435,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7830,54 +8474,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7890,10 +8496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7902,127 +8508,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8031,12 +8634,12 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8048,29 +8651,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -8451,74 +9063,69 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="1"/>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="1"/>
     <row r="8" ht="72" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="1"/>
     <row r="10" ht="57.6" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="1"/>
     <row r="12" ht="86.4" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="1"/>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
@@ -8527,7 +9134,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="1"/>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
@@ -8536,52 +9142,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="1"/>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="1"/>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="1"/>
     <row r="22" ht="43.2" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" customFormat="1"/>
     <row r="24" ht="57.6" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="1"/>
     <row r="26" ht="86.4" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="1"/>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
@@ -8590,21 +9190,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" customFormat="1"/>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" customFormat="1"/>
     <row r="32" ht="28.8" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8620,7 +9218,7 @@
   <sheetPr/>
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -8633,7 +9231,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8649,13 +9247,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -8685,13 +9283,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -8699,7 +9297,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -8713,13 +9311,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -8727,7 +9325,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -8744,7 +9342,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -8769,13 +9367,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -8789,7 +9387,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -8797,13 +9395,13 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -8814,7 +9412,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -8825,10 +9423,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -8845,7 +9443,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -8856,10 +9454,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -8870,7 +9468,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -8884,7 +9482,7 @@
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C20" t="s">
@@ -8898,10 +9496,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -8909,13 +9507,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -8923,13 +9521,13 @@
       </c>
     </row>
     <row r="23" ht="57.6" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -8937,24 +9535,24 @@
       </c>
     </row>
     <row r="24" ht="72" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8984,15 +9582,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -9003,21 +9601,21 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C31" t="s">
@@ -9031,15 +9629,15 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C33" t="s">
@@ -9050,7 +9648,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -9058,35 +9656,35 @@
       </c>
     </row>
     <row r="35" ht="129.6" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" ht="57.6" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9096,7 +9694,7 @@
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B39" t="s">
@@ -9107,18 +9705,18 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B41" t="s">
@@ -9129,53 +9727,53 @@
       </c>
     </row>
     <row r="42" ht="115.2" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="43" ht="57.6" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" ht="43.2" spans="1:2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="47" ht="115.2" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9188,23 +9786,23 @@
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="11" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -9212,39 +9810,39 @@
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B56" t="s">
@@ -9252,42 +9850,42 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9300,47 +9898,47 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="11" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -9348,34 +9946,34 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="3" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9383,138 +9981,138 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="76" ht="28.8" spans="1:2">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="11"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" ht="100.8" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="80" ht="72" spans="1:2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="81" ht="57.6" spans="1:2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="82" ht="72" spans="1:2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="83" ht="158.4" spans="1:2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="84" ht="72" spans="1:2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="85" ht="72" spans="1:2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="86" ht="57.6" spans="1:2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="87" ht="57.6" spans="1:2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="88" ht="57.6" spans="1:2">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="89" ht="72" spans="1:2">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B90" t="s">
@@ -9522,28 +10120,28 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="92" ht="28.8" spans="1:2">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B94" t="s">
@@ -9551,23 +10149,23 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B97" t="s">
@@ -9575,71 +10173,71 @@
       </c>
     </row>
     <row r="98" ht="72" spans="1:2">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="11" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="11" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9652,18 +10250,18 @@
       </c>
     </row>
     <row r="108" ht="72" spans="1:2">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="109" ht="86.4" spans="1:2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="3" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9671,7 +10269,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="11" t="s">
         <v>309</v>
       </c>
     </row>
@@ -9697,7 +10295,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="11" t="s">
         <v>315</v>
       </c>
     </row>
@@ -9705,15 +10303,15 @@
       <c r="A115" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="3" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9721,15 +10319,15 @@
       <c r="A117" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="3" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9737,23 +10335,23 @@
       <c r="A119" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="6" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9766,28 +10364,28 @@
       </c>
     </row>
     <row r="123" ht="43.2" spans="1:2">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="3" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="124" ht="43.2" spans="1:2">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="125" ht="28.8" spans="1:1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B126" t="s">
@@ -9795,7 +10393,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B127" t="s">
@@ -9803,20 +10401,20 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="11" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="11" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9830,24 +10428,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="52.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="58.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="25.8" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -9858,7 +10457,7 @@
       <c r="A2" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D2" t="s">
@@ -9866,7 +10465,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B3" t="s">
@@ -9876,113 +10475,325 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="D4" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>357</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" ht="28.8" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" ht="86.4" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" ht="72" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:2">
+      <c r="A34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" ht="100.8" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" ht="43.2" spans="1:1">
+      <c r="A40" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" ht="15.6" spans="1:2">
+      <c r="A42" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" ht="57.6" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="441">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7193,6 +7193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>walk you的意思是“</t>
     </r>
     <r>
@@ -7299,6 +7306,9 @@
     <t>秘密地带走。 说明主人公“被带到”一个神秘的世界 spirit 精神</t>
   </si>
   <si>
+    <t>兴来每独往，胜事空自如</t>
+  </si>
+  <si>
     <t>on the juice</t>
   </si>
   <si>
@@ -7357,6 +7367,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CNY：人民币（Chinese Yuan）简称</t>
     </r>
     <r>
@@ -7372,6 +7389,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>in the money</t>
     </r>
     <r>
@@ -7388,6 +7412,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you are </t>
     </r>
     <r>
@@ -7413,6 +7444,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果你突然间</t>
     </r>
     <r>
@@ -7438,6 +7476,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I have full assurance that he is </t>
     </r>
     <r>
@@ -7463,6 +7508,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我充分相信他</t>
     </r>
     <r>
@@ -7494,6 +7546,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I don't suppose that </t>
     </r>
     <r>
@@ -7534,6 +7593,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通讯行业的专用术语。</t>
     </r>
     <r>
@@ -7617,6 +7683,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>nickname ['nɪkneɪm] n. 绰号；昵称
 其实，nickname本写做ekename，这里的</t>
     </r>
@@ -7682,18 +7755,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To this he owed his </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>nickname</t>
-    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -7701,111 +7762,16 @@
         <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> of “ Fatty ”.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>他由此得了一个“大块头”的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>Jess is just my nickname-my real name is jessica.</t>
-  </si>
-  <si>
-    <t>杰西只是我的昵称，我的真名是杰西卡。</t>
-  </si>
-  <si>
-    <t>在有写外国网站注册账号的时候，如果输入的名称足够简单，网站可能会有这样的提示。在这里，quickname也可以表示你在该网站的“用户名”，类似于常见的user name.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You have entered a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that is already in use.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>您输入的“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>昵称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”已经有人使用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Quickname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> contains reserved or ineligible word.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>昵称</t>
+      <t xml:space="preserve">To this he owed his </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nickname</t>
     </r>
     <r>
       <rPr>
@@ -7814,11 +7780,165 @@
         <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> of “ Fatty ”.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他由此得了一个“大块头”的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Jess is just my nickname-my real name is jessica.</t>
+  </si>
+  <si>
+    <t>杰西只是我的昵称，我的真名是杰西卡。</t>
+  </si>
+  <si>
+    <t>在有写外国网站注册账号的时候，如果输入的名称足够简单，网站可能会有这样的提示。在这里，quickname也可以表示你在该网站的“用户名”，类似于常见的user name.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You have entered a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that is already in use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>您输入的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”已经有人使用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains reserved or ineligible word.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>中包含了保留的或不恰当的词汇。</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Queen has </t>
     </r>
     <r>
@@ -7844,6 +7964,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>女王会</t>
     </r>
     <r>
@@ -7869,6 +7996,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在英语中，头衔有两种，一种是授予的“</t>
     </r>
     <r>
@@ -7914,6 +8048,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>头衔的英语可不是nickname，一般而言，人们会用</t>
     </r>
     <r>
@@ -7926,6 +8067,104 @@
       </rPr>
       <t>title来表示“头衔”</t>
     </r>
+  </si>
+  <si>
+    <t>I don't know nothing</t>
+  </si>
+  <si>
+    <t>我什么都不知道</t>
+  </si>
+  <si>
+    <t>Sorry，WC</t>
+  </si>
+  <si>
+    <r>
+      <t>不好意思，发错人了。 WC是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wrong chat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的缩写，也就是我们说的“发错人了”。</t>
+    </r>
+  </si>
+  <si>
+    <t>man`s man</t>
+  </si>
+  <si>
+    <r>
+      <t>更受男人欢迎的男人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如球星，体育明星等。</t>
+    </r>
+  </si>
+  <si>
+    <t>B1 P1</t>
+  </si>
+  <si>
+    <t>都可以表示地下一楼</t>
+  </si>
+  <si>
+    <t>quite good</t>
+  </si>
+  <si>
+    <r>
+      <t>英国人的quite good的意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a bit disappointing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，有点失望。</t>
+    </r>
+  </si>
+  <si>
+    <t>I got/bought a new phone.</t>
+  </si>
+  <si>
+    <t>我换新手机了</t>
+  </si>
+  <si>
+    <t>change a phone</t>
+  </si>
+  <si>
+    <t>老外只会认为你换了手机号码</t>
   </si>
 </sst>
 </file>
@@ -7933,12 +8172,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8018,6 +8257,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -8033,39 +8287,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8079,37 +8303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8123,9 +8317,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8140,10 +8350,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8197,6 +8443,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8209,13 +8479,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8227,31 +8557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8263,25 +8575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8299,25 +8593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8329,55 +8605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8393,8 +8639,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8403,19 +8651,53 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8435,21 +8717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -8459,32 +8726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8496,10 +8742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8508,16 +8754,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8526,119 +8772,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8654,9 +8900,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8666,23 +8909,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -9063,10 +9297,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9077,12 +9311,12 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9095,10 +9329,10 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9114,7 +9348,7 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9122,7 +9356,7 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9146,7 +9380,7 @@
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9162,7 +9396,7 @@
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9170,7 +9404,7 @@
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9178,7 +9412,7 @@
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9202,7 +9436,7 @@
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9247,13 +9481,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -9283,13 +9517,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -9297,7 +9531,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -9311,13 +9545,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -9325,7 +9559,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -9342,7 +9576,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -9367,13 +9601,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -9387,7 +9621,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -9401,7 +9635,7 @@
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -9412,7 +9646,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -9423,10 +9657,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -9443,7 +9677,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -9454,10 +9688,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -9468,7 +9702,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -9496,10 +9730,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -9507,13 +9741,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -9527,7 +9761,7 @@
       <c r="B23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -9541,18 +9775,18 @@
       <c r="B24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9582,15 +9816,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -9601,18 +9835,18 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -9629,7 +9863,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -9648,7 +9882,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -9662,7 +9896,7 @@
       <c r="B35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -9673,7 +9907,7 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -9684,7 +9918,7 @@
       <c r="B37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9705,10 +9939,10 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -9733,7 +9967,7 @@
       <c r="B42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9749,7 +9983,7 @@
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9757,7 +9991,7 @@
       <c r="A45" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9765,7 +9999,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9794,15 +10028,15 @@
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -9850,7 +10084,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="15" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -9877,7 +10111,7 @@
       <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9885,7 +10119,7 @@
       <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9898,23 +10132,23 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -9922,7 +10156,7 @@
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -9930,7 +10164,7 @@
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -9938,7 +10172,7 @@
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -9946,26 +10180,26 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9981,7 +10215,7 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10005,15 +10239,15 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
@@ -10075,7 +10309,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10083,7 +10317,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10120,10 +10354,10 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -10136,7 +10370,7 @@
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10176,7 +10410,7 @@
       <c r="A98" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10197,12 +10431,12 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -10210,23 +10444,23 @@
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -10234,10 +10468,10 @@
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -10269,7 +10503,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -10295,7 +10529,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>315</v>
       </c>
     </row>
@@ -10343,7 +10577,7 @@
       <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -10401,7 +10635,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="16" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -10409,12 +10643,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -10428,10 +10662,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -10508,292 +10742,351 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>359</v>
       </c>
+      <c r="D7" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="B20" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>386</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" t="s">
         <v>391</v>
-      </c>
-      <c r="B25" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>394</v>
+      <c r="A27" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>400</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>403</v>
+      <c r="A32" s="6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>406</v>
-      </c>
-      <c r="B34" s="8" t="s">
         <v>407</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
-      <c r="A37" s="5" t="s">
-        <v>412</v>
+      <c r="A37" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="9" t="s">
-        <v>413</v>
+      <c r="A38" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B39" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>417</v>
+      <c r="A40" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="5" t="s">
         <v>421</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>425</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>435</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>439</v>
+      </c>
+      <c r="B51" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="16008" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="517">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7315,25 +7315,40 @@
     <t>酗酒</t>
   </si>
   <si>
+    <t>劝君更尽一杯酒，西出阳关无故人</t>
+  </si>
+  <si>
     <t>“英语急转弯：”</t>
   </si>
   <si>
+    <t>名花倾国两相欢，长得君王带笑看</t>
+  </si>
+  <si>
     <t>The tube</t>
   </si>
   <si>
     <t>伦敦地铁</t>
   </si>
   <si>
+    <t>解释春风无限恨，沉香亭北倚阑干</t>
+  </si>
+  <si>
     <t>00PM</t>
   </si>
   <si>
     <t>中午12点</t>
   </si>
   <si>
+    <t>冲天香阵透长安，满城尽带黄金甲</t>
+  </si>
+  <si>
     <t>have legs</t>
   </si>
   <si>
     <t>经久不衰的</t>
+  </si>
+  <si>
+    <t>欲戴王冠，必承其重</t>
   </si>
   <si>
     <t>get lost</t>
@@ -8079,6 +8094,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不好意思，发错人了。 WC是</t>
     </r>
     <r>
@@ -8107,6 +8129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>更受男人欢迎的男人</t>
     </r>
     <r>
@@ -8131,6 +8160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>英国人的quite good的意思是</t>
     </r>
     <r>
@@ -8165,6 +8201,818 @@
   </si>
   <si>
     <t>老外只会认为你换了手机号码</t>
+  </si>
+  <si>
+    <t>wash up</t>
+  </si>
+  <si>
+    <t>洗漱</t>
+  </si>
+  <si>
+    <t>clean one`s face</t>
+  </si>
+  <si>
+    <t>洗脸</t>
+  </si>
+  <si>
+    <t>Hard cheese today！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>今天太倒霉了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard cheese 是一个英国俚语原意是硬质奶酪，经常用来表示太倒霉了，太不幸了</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">在英文中，I'm through通常表示“凉凉”。
+Through这个词不仅有“通过”的意思，也有 “彻底，完了，结束了”的意思。I'm through在口语中也可以表达“我完蛋了”“我凉凉了”。
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm through</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with everything here.</t>
+    </r>
+  </si>
+  <si>
+    <t>我在这里的一切都已成了泡影。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be through with sb/sth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与某人/某事的关系彻底结束</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>跟男朋友分手就可以说be through with my boy friend，</t>
+  </si>
+  <si>
+    <t>I'm through with you! How many times do I have to tell you?</t>
+  </si>
+  <si>
+    <t>我们之间已经完了！要我跟你说几次呢？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果想要表达“完蛋，扑街”，除了I'm through外，be toast也是一个很好的选择。
+Toast这个单词大家都认识，作名词有“吐司”的意思，作动词还有“烘烤，加热”的意思。
+而Be toast就是“烤糊了”，委婉的指“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没戏了，完蛋了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”！与中文中的“凉凉”异曲同工。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If you lose these data，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>we're toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你要是弄丢这些资料，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我们就完蛋了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Go down the toilet的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>付诸东流，白费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，意指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有的努力都像泡沫一样被冲进了马桶里，化为泡影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果觉得toilet比较不雅，可以用pan（平底锅）来代替，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go down the pan也是“惨败，无用”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We don't want to see our business </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go down the toilet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我们不想看到我们的生意付诸东流。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sophia has just</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> passed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> his driving test.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>索菲亚刚刚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驾照考试。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">She was ashamed at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>being unable to pass the exam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>考试不及格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，感觉很羞愧。</t>
+    </r>
+  </si>
+  <si>
+    <t>He excels in painting。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擅长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绘画。 excel做动词，擅长、突出、超过</t>
+    </r>
+  </si>
+  <si>
+    <t>《陈情令》这部剧改编自耽美小说《魔道祖师》，英文名：</t>
+  </si>
+  <si>
+    <t>The Untamed. 未调教的，无拘无束的，野性的</t>
+  </si>
+  <si>
+    <t>众所周知，国产剧在起英文名的时候，要么是放飞自我，要么是比较随意，比如《睡在我上铺的兄弟》的英文名居然是Who Sleeps My Bro，谁睡了我的兄弟，引起一阵腐女的公然好评。</t>
+  </si>
+  <si>
+    <t>To live a life untamed and unafraid.</t>
+  </si>
+  <si>
+    <t>活得不受拘束并无所畏惧。</t>
+  </si>
+  <si>
+    <r>
+      <t>《霸王别姬》，你能想象它的英文名字叫做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Farewell My Concubine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？直译过来就是“再见了我的小妾”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">《唐伯虎点秋香》的英文名，就更加露骨了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flirting Scholar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Flirting的意思是“调情，打情骂俏”，结合起来就是“调情的学者”。倒是挺传神的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>郭大导演的《小时代》，英文名是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tiny Times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，“时代”一词，用的是times，而不是era或者epoch，大概是向狄更斯《双城记》的开篇致敬？</t>
+    </r>
+  </si>
+  <si>
+    <t>It was the best of times，
+it was the worst of times.</t>
+  </si>
+  <si>
+    <r>
+      <t>The Longest Day in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Chang`an</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是一部古装悬疑剧</t>
+    </r>
+  </si>
+  <si>
+    <t>counter-terrorism thriller 悬疑剧，长安的正确说法要有分隔符</t>
+  </si>
+  <si>
+    <t>the time it takes to burn an incense</t>
+  </si>
+  <si>
+    <t>一炷香的时间</t>
+  </si>
+  <si>
+    <t>The time it takes to drink a cup of tea</t>
+  </si>
+  <si>
+    <t>一盏茶的时间</t>
+  </si>
+  <si>
+    <t>the time it takes to have a meal</t>
+  </si>
+  <si>
+    <t>一顿饭的工夫</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mang people would </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that decision.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>许多人可能会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质疑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样的决定。dispute对某事的争议</t>
+    </r>
+  </si>
+  <si>
+    <t>The one trying to wear the crown must withstand the weight.</t>
+  </si>
+  <si>
+    <t>欲戴王冠，必承其重。</t>
+  </si>
+  <si>
+    <t>bad luck、bad break、hard cheese</t>
+  </si>
+  <si>
+    <t>运势不佳</t>
+  </si>
+  <si>
+    <t>水逆怎么说？‘水星逆行’导致的运势不佳</t>
+  </si>
+  <si>
+    <t>Mercury Retrograde 听起来太复杂，外国人活用上述表达</t>
+  </si>
+  <si>
+    <t>Keep the change</t>
+  </si>
+  <si>
+    <r>
+      <t>不用找了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。change也有零钱的意思</t>
+    </r>
+  </si>
+  <si>
+    <t>green paper</t>
+  </si>
+  <si>
+    <t>绿皮书，多指政府提案文件。</t>
+  </si>
+  <si>
+    <t>business card</t>
+  </si>
+  <si>
+    <t>名片。name card多指“工牌”</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>中英电视台；监控系统</t>
+  </si>
+  <si>
+    <t>choose your finish</t>
+  </si>
+  <si>
+    <t>购买手机时选择你想要的颜色，finish有“烤漆，漆面”的意思</t>
+  </si>
+  <si>
+    <t>old thing</t>
+  </si>
+  <si>
+    <t>俚语中 老伙计</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>称呼老板很没有礼貌。用职业或头衔来称呼别人是没礼貌的，尤其是对老板。</t>
+  </si>
+  <si>
+    <t>dirty work</t>
+  </si>
+  <si>
+    <t>“卑鄙的勾当”“背黑锅的工作”“无用的工作”</t>
+  </si>
+  <si>
+    <t>面试官不会说pass表示通过或淘汰</t>
+  </si>
+  <si>
+    <r>
+      <t>正规公司面试不会说pass这种中式表达，但可以说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pass the interview</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm game</t>
+  </si>
+  <si>
+    <r>
+      <t>我可以，我愿意。game除了游戏，还有“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>甘愿尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”的意思。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -8172,12 +9020,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8213,6 +9061,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.25"/>
       <name val="宋体"/>
@@ -8243,21 +9096,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -8265,7 +9103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8287,7 +9132,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8295,7 +9154,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8309,6 +9184,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8317,25 +9215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8350,37 +9232,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8388,6 +9241,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8403,12 +9262,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8443,19 +9296,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8467,19 +9356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8491,55 +9380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8557,19 +9410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8581,49 +9470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8639,10 +9492,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8651,38 +9502,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8717,20 +9547,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8745,7 +9598,7 @@
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8754,137 +9607,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8912,22 +9765,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -9297,10 +10159,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9311,7 +10173,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9517,7 +10379,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -9559,7 +10421,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -9601,10 +10463,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9657,10 +10519,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -10084,7 +10946,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -10244,7 +11106,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -10635,7 +11497,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -10662,10 +11524,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -10753,340 +11615,644 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="D8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>364</v>
+      </c>
+      <c r="D9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B35" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B39" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s">
-        <v>440</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>448</v>
+      </c>
+      <c r="B53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" ht="86.4" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>457</v>
+      </c>
+      <c r="B58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" ht="115.2" spans="1:1">
+      <c r="A59" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" ht="57.6" spans="1:1">
+      <c r="A67" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>475</v>
+      </c>
+      <c r="B68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" ht="28.8" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" ht="57.6" spans="1:1">
+      <c r="A70" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" ht="43.2" spans="1:2">
+      <c r="A71" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B72" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>483</v>
+      </c>
+      <c r="B73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>487</v>
+      </c>
+      <c r="B75" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" ht="28.8" spans="1:2">
+      <c r="A77" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B77" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>493</v>
+      </c>
+      <c r="B78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" ht="15.6" spans="1:2">
+      <c r="A81" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B81" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>501</v>
+      </c>
+      <c r="B82" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>503</v>
+      </c>
+      <c r="B83" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>505</v>
+      </c>
+      <c r="B84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>507</v>
+      </c>
+      <c r="B85" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>509</v>
+      </c>
+      <c r="B86" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>513</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>515</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16008" windowHeight="8484" activeTab="2"/>
+    <workbookView windowWidth="16008" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="532">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7357,6 +7357,12 @@
     <t>滚开</t>
   </si>
   <si>
+    <t>日月光华，旦复旦兮</t>
+  </si>
+  <si>
+    <t>卿云歌</t>
+  </si>
+  <si>
     <t>shanghai</t>
   </si>
   <si>
@@ -8716,6 +8722,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>《霸王别姬》，你能想象它的英文名字叫做</t>
     </r>
     <r>
@@ -8741,6 +8754,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">《唐伯虎点秋香》的英文名，就更加露骨了。
 </t>
     </r>
@@ -8767,6 +8787,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>郭大导演的《小时代》，英文名是</t>
     </r>
     <r>
@@ -8796,6 +8823,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The Longest Day in</t>
     </r>
     <r>
@@ -8842,6 +8876,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Mang people would </t>
     </r>
     <r>
@@ -8867,6 +8908,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>许多人可能会</t>
     </r>
     <r>
@@ -8913,6 +8961,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不用找了</t>
     </r>
     <r>
@@ -8973,6 +9028,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>正规公司面试不会说pass这种中式表达，但可以说</t>
     </r>
     <r>
@@ -8991,6 +9053,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我可以，我愿意。game除了游戏，还有“</t>
     </r>
     <r>
@@ -9013,6 +9082,249 @@
       </rPr>
       <t>”的意思。</t>
     </r>
+  </si>
+  <si>
+    <t>Html five  全称HyperText Mark-up Language 5.0</t>
+  </si>
+  <si>
+    <t>外国人会这么读。H5是中国工程师的省略叫法。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's not just hot. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It's Africa hot!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This weather is terrible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不只是热，而是非洲热！这样的天气太可怕了！                                              众所周知，非洲是很热的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于是“It's Africa hot”就成了天热的地道表达。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+不过据说，非洲同学来过中国后，就表示这个锅他们从此以后不背了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果外国人跟你说“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dog days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”或者“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dog days of summer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”,就表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现在天气非常热！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原因很简单，想一想炎热夏天狗狗躲在阴凉里，不停地伸着舌头，是不是非常抢镜？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It's scorching也经常会被用来表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天气极热。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Scorch的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把……烧焦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，scorching在这里做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形容词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，代表“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>酷热的，高温的，能把人烤焦的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”
+用scorching形容三伏天正午的毒太阳，太贴切了！</t>
+    </r>
+  </si>
+  <si>
+    <t>It's hot as hell.</t>
+  </si>
+  <si>
+    <r>
+      <t>类似于我们常说的“热死了！”                                                                        有的美国人喜欢用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hell来形容非常讨厌的东西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或者是愤怒的情绪</t>
+    </r>
+  </si>
+  <si>
+    <t>The sun is roasting us mercilessly!</t>
+  </si>
+  <si>
+    <t>这太阳是想热死我们？</t>
+  </si>
+  <si>
+    <t>It's too hot to think.I need to find some place to coll off.</t>
+  </si>
+  <si>
+    <t>热得我都没法思考了，我需要找个地方凉快凉快。</t>
   </si>
 </sst>
 </file>
@@ -9020,10 +9332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -9096,21 +9408,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9125,14 +9431,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9146,25 +9491,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9192,13 +9536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -9207,33 +9544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9296,19 +9608,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9326,7 +9692,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9344,37 +9734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9386,73 +9764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9470,13 +9788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9490,6 +9802,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -9499,11 +9826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9513,6 +9846,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9547,21 +9889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -9569,21 +9896,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9595,10 +9907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9607,133 +9919,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9765,14 +10077,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11524,13 +11836,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="52.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="58.3333333333333" customWidth="1"/>
@@ -11667,592 +11979,651 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>375</v>
       </c>
       <c r="B13" t="s">
         <v>376</v>
       </c>
+      <c r="D13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B31" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B36" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B45" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B48" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B66" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="9" t="s">
-        <v>474</v>
+      <c r="A67" s="6" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
-      <c r="A69" s="10" t="s">
-        <v>477</v>
+      <c r="A69" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
-      <c r="A70" s="10" t="s">
-        <v>478</v>
+      <c r="A70" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>480</v>
+      <c r="A71" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="9" t="s">
-        <v>491</v>
+      <c r="A77" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="B77" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="11" t="s">
-        <v>499</v>
+      <c r="A81" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="B81" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>519</v>
+      </c>
+      <c r="B90" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="91" ht="72" spans="1:2">
+      <c r="A91" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92" ht="57.6" spans="1:1">
+      <c r="A92" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" ht="57.6" spans="1:2">
+      <c r="A93" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="94" ht="43.2" spans="1:2">
+      <c r="A94" t="s">
+        <v>526</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>528</v>
+      </c>
+      <c r="B95" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="96" ht="28.8" spans="1:2">
+      <c r="A96" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16008" windowHeight="9084" activeTab="2"/>
+    <workbookView windowWidth="16008" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="545">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7369,6 +7369,9 @@
     <t>坑蒙拐骗</t>
   </si>
   <si>
+    <t>三更灯火五更鸡，正是少年读书时</t>
+  </si>
+  <si>
     <t>depeople</t>
   </si>
   <si>
@@ -9091,6 +9094,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It's not just hot. </t>
     </r>
     <r>
@@ -9116,6 +9126,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不只是热，而是非洲热！这样的天气太可怕了！                                              众所周知，非洲是很热的。</t>
     </r>
     <r>
@@ -9142,6 +9159,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果外国人跟你说“</t>
     </r>
     <r>
@@ -9207,6 +9231,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>It's scorching也经常会被用来表示</t>
     </r>
     <r>
@@ -9222,6 +9253,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Scorch的意思是“</t>
     </r>
     <r>
@@ -9291,6 +9329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>类似于我们常说的“热死了！”                                                                        有的美国人喜欢用</t>
     </r>
     <r>
@@ -9325,6 +9370,166 @@
   </si>
   <si>
     <t>热得我都没法思考了，我需要找个地方凉快凉快。</t>
+  </si>
+  <si>
+    <t>为什么我们所说的AA制，在英语中被称为go Dutch呢？
+这要提起一段历史。
+早在16世纪，荷兰是海上贸易的发源地，很多荷兰人以经商为生，因为商人以利益为主，在商业上比较精明斤斤计较，因此喜欢在商业就餐上分开付账。</t>
+  </si>
+  <si>
+    <r>
+      <t>但以绅士风度闻名的英国人，却看不起荷兰人这种“斤斤计较过于精明”的行为，因此编造了go Dutch这个短语来嘲笑荷兰人。
+因为英语的流通，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go Dutch也渐渐成了“分开付款，各自付款”的代名词。</t>
+    </r>
+  </si>
+  <si>
+    <t>They decided to go Dutch.</t>
+  </si>
+  <si>
+    <t>他们决定分开付账。</t>
+  </si>
+  <si>
+    <t>Dutch courage，意思是“蛮干”，这是用来讽刺荷兰人醉酒成性，酒后乱勇。
+Dutch comfort，意思是“苟安”，这是用来讽刺荷兰人不思进取，苟且偷安。
+Dutch gold，意思是“假黄金”，用来讽刺荷兰人的信誉。
+Dutch cap，荷兰帽，就是啪啪啪时用的“套套”。</t>
+  </si>
+  <si>
+    <t>总之，很多褒义词前面加上了Dutch，意味就变得“微妙”了起来。
+当语言成为惯性，荷兰人对此也是无可奈何。</t>
+  </si>
+  <si>
+    <t>It's my treat.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我请客。                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是很常见的一种说法。这的单词，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>treat表示款待</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，既可以作为名词也可以当做动词。                                         我们常见的pay可以用吗？
+理论上来说，pay是可以用的，毕竟在意思上没有错误，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但语气却显得傲慢，好像是在炫耀。</t>
+    </r>
+  </si>
+  <si>
+    <t>I'll cover the bill.</t>
+  </si>
+  <si>
+    <t>我来买单。                                              但是因为听起来太正式了，所以也不怎么样常用，跟朋友这样说的话，会显得比较“见外”。</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <r>
+      <t>在英语中，不管</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军服、工作服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>校服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，通通都用uniform   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.35"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>school cloth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是中式英语，是错误的</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9333,11 +9538,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9408,14 +9613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -9430,47 +9627,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9483,15 +9642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9505,13 +9658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -9520,9 +9666,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9538,7 +9705,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9559,6 +9764,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9608,7 +9820,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9620,91 +9910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9722,13 +9934,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9740,55 +9994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9799,6 +10011,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9819,9 +10049,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9841,24 +10088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9874,28 +10103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9907,10 +10119,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9919,137 +10131,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10080,10 +10292,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10471,10 +10686,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10485,7 +10700,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10691,7 +10906,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -10733,7 +10948,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -10775,10 +10990,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -10831,10 +11046,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -11258,7 +11473,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -11418,7 +11633,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -11809,7 +12024,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="20" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -11836,10 +12051,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -11993,637 +12208,688 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>379</v>
       </c>
       <c r="B14" t="s">
         <v>380</v>
       </c>
+      <c r="D14" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25" t="s">
         <v>399</v>
-      </c>
-      <c r="B25" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
       <c r="A81" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="A91" s="3" t="s">
         <v>522</v>
       </c>
+      <c r="B91" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
-      <c r="A92" s="10" t="s">
-        <v>523</v>
+      <c r="A92" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
-      <c r="A93" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="3" t="s">
         <v>525</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>526</v>
-      </c>
-      <c r="B94" s="10" t="s">
         <v>527</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="11" t="s">
-        <v>530</v>
+      <c r="A96" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="B96" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="97" ht="100.8" spans="1:2">
+      <c r="A97" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>535</v>
+      </c>
+      <c r="B98" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="99" ht="100.8" spans="1:2">
+      <c r="A99" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="100" ht="100.8" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="101" ht="43.2" spans="1:2">
+      <c r="A101" t="s">
+        <v>541</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102" ht="28.8" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16008" windowHeight="8484" activeTab="2"/>
+    <workbookView windowWidth="13260" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -9378,6 +9378,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但以绅士风度闻名的英国人，却看不起荷兰人这种“斤斤计较过于精明”的行为，因此编造了go Dutch这个短语来嘲笑荷兰人。
 因为英语的流通，</t>
     </r>
@@ -9413,6 +9420,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">我请客。                                                   </t>
     </r>
     <r>
@@ -9468,6 +9482,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在英语中，不管</t>
     </r>
     <r>
@@ -9529,6 +9550,47 @@
         <scheme val="minor"/>
       </rPr>
       <t>是中式英语，是错误的</t>
+    </r>
+  </si>
+  <si>
+    <t>《长安十二时辰》翻译</t>
+  </si>
+  <si>
+    <t>靖安司：peacekeeper corps（维和部队）
+不良帅：captain of Sleuth-hound（侦察大队首领）
+坊市：street（街道）
+大案牍术：huge date（大数据）                            李必的头衔“司丞”，则翻译成了chief，
+尚书省六部之首“吏部”，则翻译成了ministry of personnel，人事部。</t>
+  </si>
+  <si>
+    <t>古装剧常见的“公子”，翻译成了master（主人）。Master是一个英美剧经常可以见到的口语表达，尤其是《权力的游戏》中出镜率极高。</t>
+  </si>
+  <si>
+    <t>green with envy</t>
+  </si>
+  <si>
+    <r>
+      <t>英语俚语，嫉妒的发绿，也就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>真酸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。envy原本是个贬义词，如今不再有嫉妒到怨恨的含义</t>
     </r>
   </si>
 </sst>
@@ -9537,10 +9599,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -9612,6 +9674,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -9627,16 +9729,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9650,107 +9811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9820,19 +9882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9844,19 +9906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9868,13 +9918,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9886,25 +9936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9916,55 +9954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9982,25 +9972,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10014,11 +10076,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10049,26 +10117,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10088,26 +10154,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10119,10 +10181,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10131,137 +10193,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10296,9 +10358,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10686,10 +10745,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10700,7 +10759,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10906,7 +10965,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -10948,7 +11007,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -10990,10 +11049,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -11046,10 +11105,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -11473,7 +11532,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -11633,7 +11692,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -12024,7 +12083,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -12051,10 +12110,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -12845,10 +12904,10 @@
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="3" t="s">
         <v>534</v>
       </c>
     </row>
@@ -12861,10 +12920,10 @@
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="6" t="s">
         <v>538</v>
       </c>
     </row>
@@ -12872,7 +12931,7 @@
       <c r="A100" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="4" t="s">
         <v>540</v>
       </c>
     </row>
@@ -12880,7 +12939,7 @@
       <c r="A101" t="s">
         <v>541</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="6" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12888,8 +12947,29 @@
       <c r="A102" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="3" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" ht="100.8" spans="1:2">
+      <c r="A104" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" ht="28.8" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13260" windowHeight="8484" activeTab="2"/>
+    <workbookView windowWidth="13091" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="596">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7378,16 +7378,25 @@
     <t>减少人口</t>
   </si>
   <si>
+    <t>气如兰兮长不改，心若兰兮终不移</t>
+  </si>
+  <si>
     <t>Times table</t>
   </si>
   <si>
     <t>乘法表</t>
   </si>
   <si>
+    <t>帝子降兮北渚，目眇眇兮愁予</t>
+  </si>
+  <si>
     <t>outman</t>
   </si>
   <si>
     <t>在数量上超过</t>
+  </si>
+  <si>
+    <t>晚来天欲雪，能饮一杯无</t>
   </si>
   <si>
     <r>
@@ -9570,6 +9579,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>英语俚语，嫉妒的发绿，也就是</t>
     </r>
     <r>
@@ -9592,6 +9608,308 @@
       </rPr>
       <t>。envy原本是个贬义词，如今不再有嫉妒到怨恨的含义</t>
     </r>
+  </si>
+  <si>
+    <t>orchid</t>
+  </si>
+  <si>
+    <t>兰花  源于希腊语orkhis，因为兰花的球茎是成对的。</t>
+  </si>
+  <si>
+    <t>take a holiday from work == time off(是时候离开了)</t>
+  </si>
+  <si>
+    <t>休假，度假</t>
+  </si>
+  <si>
+    <r>
+      <t>作为陌生人见面的第一句，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What's your name的问法其实是不太礼貌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，尤其是面对刚认识的上司或者商务伙伴。
+那么，我们应该如何礼貌的询问别人的名字呢？</t>
+    </r>
+  </si>
+  <si>
+    <t>May I have your name please？
+Could you tell me your name please？                 例句：
+-May I have your name please？
+-Sure，my name is Lily.</t>
+  </si>
+  <si>
+    <t>与外国人的交流过程中，使用虚拟语气和祈使句可以使语气听起来礼貌一点，比如你遇到一个陌生人，想问一下他叫什么名字，就可以说：</t>
+  </si>
+  <si>
+    <r>
+      <t>Take care的本意是“保重”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通常用在告别的时候。而词组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take care of才是当心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而如果你想提醒你的朋友“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”的话，可以用以下几个短句来代替：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Watch out！
+Be careful！
+Be cautious！</t>
+    </r>
+  </si>
+  <si>
+    <t>'Watch out!' he hollered.</t>
+  </si>
+  <si>
+    <t>“小心！”他大喊道。</t>
+  </si>
+  <si>
+    <t>Oh，that’s too bad！
+That sucks！</t>
+  </si>
+  <si>
+    <r>
+      <t>如果想要表示遗憾，不少中国人会说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what a pity！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事实上，这个说法对于美国人来说是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>十分正式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，日常生活中基本很少有人使用，而最合适的替代，就是：                                      （很多人会认为That sucks是不文明的，其实是很常见的一句表示心情的话）</t>
+    </r>
+  </si>
+  <si>
+    <t>That sucks! We can't go to the party.</t>
+  </si>
+  <si>
+    <t>好惨啊！我们去不成派对啦！</t>
+  </si>
+  <si>
+    <t>I figure it
+I feel that…
+I'm sure that…</t>
+  </si>
+  <si>
+    <t>I think……真的很千篇一律。
+这种表达个人思想的开头，虽然可以用，但是真的毫无特色，在日常口语中，完全可以用下面这几个表达来替代。</t>
+  </si>
+  <si>
+    <t>I'm sure that with the help of Kaka you will learn English well.</t>
+  </si>
+  <si>
+    <t>我相信在卡卡的帮助下，你能很快学好英文。</t>
+  </si>
+  <si>
+    <t>Letter of Admission</t>
+  </si>
+  <si>
+    <r>
+      <t>英美的学生可以被多个学校录取，有多个选择，录取通知书可以说成offer                                               但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高考的录取通知书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>几乎是唯一选择。</t>
+    </r>
+  </si>
+  <si>
+    <t>My call</t>
+  </si>
+  <si>
+    <r>
+      <t>我说了算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                  call本身就有decision的含义，                                                  再比如运动场裁判的good calls和bad calls 就是有利裁决和不利裁决</t>
+    </r>
+  </si>
+  <si>
+    <t>instant noodles</t>
+  </si>
+  <si>
+    <t>方便面</t>
+  </si>
+  <si>
+    <t>amber light</t>
+  </si>
+  <si>
+    <t>红绿灯的黄灯。  amber的意思是“琥珀色的”</t>
+  </si>
+  <si>
+    <t>Alma mater</t>
+  </si>
+  <si>
+    <t>母校。  外国人很少说mother school</t>
+  </si>
+  <si>
+    <t>uneasy</t>
+  </si>
+  <si>
+    <t>不稳定，不舒服</t>
+  </si>
+  <si>
+    <t>drink more warm water</t>
+  </si>
+  <si>
+    <t>多喝热水。hot water的意思是“开水”，开水可不能喝</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>不好的英文名。在国外，Candy这种甜甜的名字，听起来会让人联想到夜店女郎。</t>
+  </si>
+  <si>
+    <t>show a leg</t>
+  </si>
+  <si>
+    <t>俚语，起床。</t>
+  </si>
+  <si>
+    <t>All Saints' Day</t>
+  </si>
+  <si>
+    <t>万圣节。Halloween的意思是“万圣节前夜”</t>
+  </si>
+  <si>
+    <t>Normal University</t>
+  </si>
+  <si>
+    <t>中国的师范大学</t>
+  </si>
+  <si>
+    <t>black tea</t>
+  </si>
+  <si>
+    <t>红茶</t>
   </si>
 </sst>
 </file>
@@ -9599,10 +9917,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -9674,40 +9992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9716,49 +10002,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9780,16 +10023,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9804,6 +10068,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -9811,8 +10083,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9882,7 +10200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9894,7 +10218,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9906,7 +10260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9918,7 +10278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9936,19 +10296,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9960,13 +10326,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9978,31 +10350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10014,43 +10368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10077,30 +10395,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -10111,15 +10405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10135,6 +10420,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10158,7 +10467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10173,6 +10482,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10181,10 +10499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10193,137 +10511,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10354,11 +10672,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10745,10 +11069,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10759,7 +11083,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10965,7 +11289,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11007,7 +11331,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -11049,10 +11373,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -11105,10 +11429,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -11532,7 +11856,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -11692,7 +12016,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="16" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -12083,7 +12407,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="21" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -12110,10 +12434,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -12278,698 +12602,880 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>386</v>
+      </c>
+      <c r="D16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B17" t="s">
-        <v>387</v>
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B29" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B33" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B35" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B36" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B56" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
       <c r="A81" s="9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B85" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B98" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" ht="43.2" spans="1:2">
       <c r="A101" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>547</v>
+      <c r="A104" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>549</v>
+        <v>551</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>553</v>
+      </c>
+      <c r="B106" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>555</v>
+      </c>
+      <c r="B107" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" ht="57.6" spans="1:1">
+      <c r="A108" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="109" ht="72" spans="1:2">
+      <c r="A109" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="110" ht="86.4" spans="1:2">
+      <c r="A110" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B111" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" ht="72" spans="1:2">
+      <c r="A112" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="113" ht="15.6" spans="1:2">
+      <c r="A113" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B113" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" ht="57.6" spans="1:2">
+      <c r="A114" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="115" ht="28.8" spans="1:2">
+      <c r="A115" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B115" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="116" ht="43.2" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="117" ht="57.6" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>576</v>
+      </c>
+      <c r="B118" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>578</v>
+      </c>
+      <c r="B119" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>580</v>
+      </c>
+      <c r="B120" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>582</v>
+      </c>
+      <c r="B121" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>584</v>
+      </c>
+      <c r="B122" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" spans="1:2">
+      <c r="A123" t="s">
+        <v>586</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>588</v>
+      </c>
+      <c r="B124" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>590</v>
+      </c>
+      <c r="B125" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>592</v>
+      </c>
+      <c r="B126" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>594</v>
+      </c>
+      <c r="B127" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13091" windowHeight="8484" activeTab="2"/>
+    <workbookView windowWidth="13308" windowHeight="9047" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="622">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7421,6 +7421,9 @@
     </r>
   </si>
   <si>
+    <t>醉看墨花月白，恍疑雪满前村</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -9623,6 +9626,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>作为陌生人见面的第一句，</t>
     </r>
     <r>
@@ -9658,6 +9668,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Take care的本意是“保重”</t>
     </r>
     <r>
@@ -9693,6 +9710,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而如果你想提醒你的朋友“</t>
     </r>
     <r>
@@ -9741,6 +9765,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果想要表示遗憾，不少中国人会说</t>
     </r>
     <r>
@@ -9810,6 +9841,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>英美的学生可以被多个学校录取，有多个选择，录取通知书可以说成offer                                               但是</t>
     </r>
     <r>
@@ -9838,6 +9876,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我说了算</t>
     </r>
     <r>
@@ -9910,6 +9955,304 @@
   </si>
   <si>
     <t>红茶</t>
+  </si>
+  <si>
+    <r>
+      <t>Lemon的一个意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>柠檬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，还有一个很常用的意思就是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便宜货，水货”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+在二手车市场，买家们也经常用lemon代指一辆很烂的车。</t>
+    </r>
+  </si>
+  <si>
+    <t>He took a little test drive and agreed the car was a lemon.</t>
+  </si>
+  <si>
+    <t>他试驾了一下，也认为这车不行。</t>
+  </si>
+  <si>
+    <r>
+      <t>Lemon还有第三个常用的意思，代指“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无用的东西，笨蛋，二货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。
+在美剧中，我们经常可以看到这样的场景，女主人公伸出手指朝着男主人公大骂：</t>
+    </r>
+  </si>
+  <si>
+    <t>You dropped the plates again! You lemon!</t>
+  </si>
+  <si>
+    <t>你又把盘子打破了，你这个蠢货！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I just stood there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>like a lemon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我就傻乎乎地站在那儿。                                                       柠檬不仅可以用来骂别人，也可以用来骂自己。
+有的时候，歪果仁也会用like a lemon来自嘲，</t>
+  </si>
+  <si>
+    <t>When life gives you a lemon, make lemonade.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当生活给你扔了一个柠檬的时候，把它做成柠檬汁。                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lemon还可以代指生活很糟糕。意思就是再酸的柠檬都可以变成美味的柠檬汁，告诉我们不管在生活中遇到怎么糟的情况，都是可以解决的，不要灰心，不要丧气，总会有苦尽甘来的时刻。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They really </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>went bananas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the party.</t>
+    </r>
+  </si>
+  <si>
+    <t>他们在派对中玩疯了。                                                Go banana 发疯，抓狂，歇斯底</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wow look at those </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>melons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>哇喔！看看她的大胸部。                                          Melon  甜瓜。可以代指女性的胸部（慎用，不太礼貌）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jack you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, you forgot to lock the door again!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">杰克你这个傻瓜，你又忘记锁门了！！！！                           Plums  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梅子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，又指“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理想之物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，也可以表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>充满爱意的说人傻，笨</t>
+    </r>
+  </si>
+  <si>
+    <t>computer、communication、consumer electronic</t>
+  </si>
+  <si>
+    <t>数码3C。电脑、手机、消费类电子产品</t>
+  </si>
+  <si>
+    <t>《亲爱的，热爱的》这部剧改编自墨宝非宝的小说，原名《蜜汁炖鱿鱼》。Go Go Squid：去吧小鱿鱼！</t>
+  </si>
+  <si>
+    <t>如果说一部剧“够甜”，我们通常会用sweet来表示。
+但其实，sweet不仅仅只有“甜”的意思，还可以表示贴心、糖果、好听，还可以表示“亲爱的”。</t>
+  </si>
+  <si>
+    <t>You are so sweet.你真好。
+My sweet.亲爱的。
+Would you like some more sweet?你想要再吃点糖果吗？
+A sweet voice甜美的声音。</t>
+  </si>
+  <si>
+    <t>current boyfriend：现男友
+ex-boyfriend：前男友</t>
+  </si>
+  <si>
+    <t>LiXian is my current boyfriend.
+我的现男友是李现。</t>
+  </si>
+  <si>
+    <t>sweetbread</t>
+  </si>
+  <si>
+    <t>杂碎，是一道菜。小牛小羊的胰脏或胸腺</t>
   </si>
 </sst>
 </file>
@@ -9917,10 +10260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -9993,23 +10336,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10024,7 +10365,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10038,22 +10395,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10068,38 +10419,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -10108,7 +10427,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10122,15 +10449,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10200,7 +10543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10212,43 +10585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10266,37 +10615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10314,19 +10663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10338,7 +10675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10350,37 +10711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10427,23 +10770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10472,6 +10800,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -10486,8 +10829,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10499,10 +10842,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10511,137 +10854,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10680,9 +11023,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11069,10 +11409,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11083,7 +11423,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11289,7 +11629,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11331,7 +11671,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -11373,10 +11713,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -11429,10 +11769,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -11856,7 +12196,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -12016,7 +12356,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -12407,7 +12747,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -12434,10 +12774,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -12635,847 +12975,953 @@
         <v>390</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="1:2">
+    <row r="18" ht="43.2" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B18" s="4"/>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="19" ht="28.8" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" t="s">
         <v>403</v>
-      </c>
-      <c r="B25" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" ht="86.4" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
       <c r="A67" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B79" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
       <c r="A81" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B84" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B95" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B98" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
       <c r="A99" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
       <c r="A100" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" ht="43.2" spans="1:2">
       <c r="A101" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
       <c r="A102" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
       <c r="A105" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B106" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B107" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
-      <c r="A108" s="10" t="s">
-        <v>557</v>
+      <c r="A108" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B109" s="11" t="s">
+      <c r="A109" s="6" t="s">
         <v>559</v>
       </c>
+      <c r="B109" s="6" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="4" t="s">
         <v>561</v>
       </c>
+      <c r="B110" s="3" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="11" t="s">
-        <v>562</v>
+      <c r="A111" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="B111" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="6" t="s">
         <v>565</v>
       </c>
+      <c r="B112" s="3" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="13" t="s">
-        <v>566</v>
+      <c r="A113" s="7" t="s">
+        <v>567</v>
       </c>
       <c r="B113" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>569</v>
       </c>
+      <c r="B114" s="6" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="11" t="s">
-        <v>570</v>
+      <c r="A115" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="B115" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
       <c r="A116" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="B116" s="10" t="s">
         <v>573</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
       <c r="A117" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B117" s="12" t="s">
         <v>575</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B118" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B119" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B120" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B122" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
       <c r="A123" t="s">
-        <v>586</v>
-      </c>
-      <c r="B123" s="11" t="s">
         <v>587</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B124" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B125" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B127" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="128" ht="57.6" spans="1:1">
+      <c r="A128" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" ht="28.8" spans="1:2">
+      <c r="A129" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" ht="72" spans="1:1">
+      <c r="A130" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>601</v>
+      </c>
+      <c r="B131" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="132" ht="57.6" spans="1:2">
+      <c r="A132" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="133" ht="57.6" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" ht="28.8" spans="1:2">
+      <c r="A134" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="135" ht="28.8" spans="1:2">
+      <c r="A135" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="136" ht="43.2" spans="1:2">
+      <c r="A136" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>613</v>
+      </c>
+      <c r="B137" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="138" ht="28.8" spans="1:1">
+      <c r="A138" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="139" ht="57.6" spans="1:2">
+      <c r="A139" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="140" ht="28.8" spans="1:2">
+      <c r="A140" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>620</v>
+      </c>
+      <c r="B141" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13308" windowHeight="9047" activeTab="2"/>
+    <workbookView windowWidth="13524" windowHeight="9612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="638">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -9958,6 +9958,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Lemon的一个意思是</t>
     </r>
     <r>
@@ -10010,6 +10017,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Lemon还有第三个常用的意思，代指“</t>
     </r>
     <r>
@@ -10041,18 +10055,6 @@
     <t>你又把盘子打破了，你这个蠢货！</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I just stood there </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>like a lemon</t>
-    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -10060,6 +10062,24 @@
         <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">I just stood there </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>like a lemon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -10072,6 +10092,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">当生活给你扔了一个柠檬的时候，把它做成柠檬汁。                  </t>
     </r>
     <r>
@@ -10087,6 +10114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">They really </t>
     </r>
     <r>
@@ -10115,6 +10149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Wow look at those </t>
     </r>
     <r>
@@ -10143,6 +10184,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Jack you </t>
     </r>
     <r>
@@ -10168,6 +10216,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">杰克你这个傻瓜，你又忘记锁门了！！！！                           Plums  </t>
     </r>
     <r>
@@ -10253,6 +10308,244 @@
   </si>
   <si>
     <t>杂碎，是一道菜。小牛小羊的胰脏或胸腺</t>
+  </si>
+  <si>
+    <t>Show a leg：起床
+Show leg：逃跑
+Shake a leg：跳舞，赶紧，赶快</t>
+  </si>
+  <si>
+    <t>Break a leg！祝好运！
+My leg is falling asleep！我的腿快麻了！
+You're pulling my leg！你在愚弄我！</t>
+  </si>
+  <si>
+    <r>
+      <t>据说在航海时代，船长在叫大家起床的时候，会要求船员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show a leg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果是妹子的腿的话，就可以继续睡觉，如果是汉子的腿的话，就必须起床工作了！</t>
+    </r>
+  </si>
+  <si>
+    <t>Come on , you lazy bones, show a leg！</t>
+  </si>
+  <si>
+    <t>快起床了，你个懒猪！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When he tried to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show leg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I got him by the neck.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当他想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逃跑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，我一把将他抓住！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>shake a leg 意思是“赶快，赶紧"， 也就是我们经常说的hurry up，是用来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>催促旁人加快行动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。它是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非正式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的语言，常用在家人和老朋友之间。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Let's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shake a leg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> there, you guys!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，伙计们！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Whenever he hears music he is eager to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shake a leg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>只要一听见音乐，他就很想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳舞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>No good</t>
+  </si>
+  <si>
+    <t>无可取之处，无利用价值，强调不好而且没有变好的可能</t>
+  </si>
+  <si>
+    <t>not good</t>
+  </si>
+  <si>
+    <t>不好，但是却有可改变性</t>
   </si>
 </sst>
 </file>
@@ -10261,9 +10554,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -10343,6 +10636,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -10350,7 +10650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10358,14 +10658,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10387,71 +10704,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10474,6 +10729,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10543,7 +10836,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10555,13 +10998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10573,157 +11010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10734,45 +11027,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10795,7 +11049,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10826,11 +11113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10842,10 +11135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10854,137 +11147,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11015,13 +11308,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11409,10 +11699,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11423,7 +11713,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11629,7 +11919,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -11671,7 +11961,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -11713,10 +12003,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -11769,10 +12059,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -12196,7 +12486,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -12356,7 +12646,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="6"/>
@@ -12747,7 +13037,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -12774,10 +13064,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -13822,12 +14112,12 @@
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="3" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="6" t="s">
         <v>598</v>
       </c>
       <c r="B129" t="s">
@@ -13835,7 +14125,7 @@
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="3" t="s">
         <v>600</v>
       </c>
     </row>
@@ -13851,7 +14141,7 @@
       <c r="A132" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -13859,7 +14149,7 @@
       <c r="A133" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="4" t="s">
         <v>606</v>
       </c>
     </row>
@@ -13867,7 +14157,7 @@
       <c r="A134" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="6" t="s">
         <v>608</v>
       </c>
     </row>
@@ -13875,7 +14165,7 @@
       <c r="A135" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="6" t="s">
         <v>610</v>
       </c>
     </row>
@@ -13883,7 +14173,7 @@
       <c r="A136" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="3" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13896,23 +14186,23 @@
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="6" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="6" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="6" t="s">
         <v>619</v>
       </c>
     </row>
@@ -13922,6 +14212,72 @@
       </c>
       <c r="B141" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="142" ht="43.2" spans="1:2">
+      <c r="A142" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="143" ht="43.2" spans="1:1">
+      <c r="A143" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>625</v>
+      </c>
+      <c r="B144" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="146" ht="43.2" spans="1:1">
+      <c r="A146" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>634</v>
+      </c>
+      <c r="B149" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>636</v>
+      </c>
+      <c r="B150" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13524" windowHeight="9612" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="657">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7116,6 +7116,9 @@
     <t>Iris  绪任克斯（Syrinx）：山林女神，为潘所追求，化为芦苇。塞勒涅（Selene）：月女神，泰坦海泼里恩和西亚的女儿。 伊俄（Io）：是地中海地区某国公主，为宙斯所爱，将他变成小母牛，被赫拉派牛氓追逐，后在普罗米修斯的指引下逃脱。最后成为埃及的女神伊西丝（Isis）。赫卡忒（Hecate）：夜之女神，也是幽灵和魔法的女神；最早出现的神，世界的缔造者之一，创造了地狱。代表了世界的黑暗面。 该亚（Gaea）：大地女神，紧随夜之女神出现的神，世界的缔造者之一，创造了大地，海洋和天空。赫柏（Hebe）：宙斯和赫拉之女；青春女神，是俄林波斯山的斟酒女郎。后嫁给赫拉克剌斯为妻。</t>
   </si>
   <si>
+    <t>常用口语</t>
+  </si>
+  <si>
     <t>walk the dog</t>
   </si>
   <si>
@@ -7358,9 +7361,6 @@
   </si>
   <si>
     <t>日月光华，旦复旦兮</t>
-  </si>
-  <si>
-    <t>卿云歌</t>
   </si>
   <si>
     <t>shanghai</t>
@@ -7447,6 +7447,9 @@
     </r>
   </si>
   <si>
+    <t>一枕清风梦绿萝，人间随处是南柯</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7625,6 +7628,12 @@
     <t>Can I borrow 10 yuan？</t>
   </si>
   <si>
+    <t>I have been running since I was a child.</t>
+  </si>
+  <si>
+    <t>我从小就一直跑步。                      I have been doing something完成进行时，表示一直持续并不代表现在正在做。                               I have been secretly loving you.我一直偷偷地爱着你。</t>
+  </si>
+  <si>
     <t>Ten-four</t>
   </si>
   <si>
@@ -7656,13 +7665,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不怎么常用了，不是"十四"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">在美国，信仰佛教的人没有信仰基督教的人多。
-因此，美国人会认为，福报是“上帝”赐予的，单词blessing的意思就是“上帝的恩赐，祝福”，如果用作动词，还可以表示“赞美上帝，祈福”。
-</t>
+      <t>不怎么常用了，不是"十四"的意思</t>
+    </r>
+  </si>
+  <si>
+    <t>I can't help sweating.Because,I run too fast</t>
+  </si>
+  <si>
+    <t>我跑的太快了，所以情不自禁的忍不住的流汗。                       I can't help doing something.情不自禁忍不住的做某事</t>
+  </si>
+  <si>
+    <t>在美国，信仰佛教的人没有信仰基督教的人多。
+因此，美国人会认为，福报是“上帝”赐予的，单词blessing的意思就是“上帝的恩赐，祝福”，如果用作动词，还可以表示“赞美上帝，祈福”。</t>
+  </si>
+  <si>
+    <t>Why don't you do something?</t>
+  </si>
+  <si>
+    <t>Why don't you lose weight with me?你为什么不和我一起减肥呀？Why don't you go running with me?你为什么不和我一起跑？</t>
   </si>
   <si>
     <t>God send me to blessing you.</t>
@@ -10321,6 +10341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>据说在航海时代，船长在叫大家起床的时候，会要求船员</t>
     </r>
     <r>
@@ -10352,6 +10379,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">When he tried to </t>
     </r>
     <r>
@@ -10377,6 +10411,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当他想</t>
     </r>
     <r>
@@ -10402,6 +10443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>shake a leg 意思是“赶快，赶紧"， 也就是我们经常说的hurry up，是用来</t>
     </r>
     <r>
@@ -10447,6 +10495,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Let's </t>
     </r>
     <r>
@@ -10472,6 +10527,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>快点</t>
     </r>
     <r>
@@ -10487,6 +10549,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Whenever he hears music he is eager to</t>
     </r>
     <r>
@@ -10512,6 +10581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>只要一听见音乐，他就很想</t>
     </r>
     <r>
@@ -10546,6 +10622,270 @@
   </si>
   <si>
     <t>不好，但是却有可改变性</t>
+  </si>
+  <si>
+    <t>French window</t>
+  </si>
+  <si>
+    <t>通透优雅的窗户，落地窗</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LiXian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stood in the center of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the stage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在舞台的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>the first public appearance of an entertainer, sports player etc or of something new and important</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">初次登台，首次亮相                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叫debut，常用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make a debut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，注意发音[deɪˈbjuː]</t>
+    </r>
+  </si>
+  <si>
+    <t>He dreams of making his debut as a leader.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">他梦想有一天能够C位出道                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make a debut as leader of … C位出道</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">That performer is a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has-been</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>那位演员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。 形容过气，很专业的词叫做Has-been                                           
+在娱乐圈，flop的意思就是人气“凉了，糊了，过气了”的意思</t>
+    </r>
+  </si>
+  <si>
+    <t>I Airbnbed this summer.</t>
+  </si>
+  <si>
+    <r>
+      <t>我今年夏天用了Airbnb。                                    
+Airbnb虽然是平台的名字，但现在也常被人们当动词来使用。  外出旅行，住宿也是必不可少的。我们常常希望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>travel like a local</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以现在除了住酒店以外，还有一种住宿方式也非常受欢迎，那就是Airbnb 。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10554,9 +10894,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -10635,8 +10975,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10650,15 +11006,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10673,6 +11035,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -10683,14 +11061,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10713,43 +11083,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -10758,7 +11091,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10766,7 +11099,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10836,7 +11176,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10848,25 +11314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10878,49 +11332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10932,91 +11356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11030,41 +11370,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11087,6 +11399,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -11102,13 +11423,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11135,10 +11475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11147,133 +11487,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11288,6 +11628,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11307,9 +11650,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -11688,7 +12028,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -11718,7 +12058,7 @@
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -11731,10 +12071,10 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11750,7 +12090,7 @@
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11758,7 +12098,7 @@
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11782,7 +12122,7 @@
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11798,7 +12138,7 @@
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11806,7 +12146,7 @@
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11814,7 +12154,7 @@
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11838,7 +12178,7 @@
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11854,7 +12194,7 @@
   <sheetPr/>
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -11883,13 +12223,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -11922,10 +12262,10 @@
       <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -11933,7 +12273,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -11947,13 +12287,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -11978,7 +12318,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -12009,7 +12349,7 @@
       <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -12023,7 +12363,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -12037,7 +12377,7 @@
       <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -12048,7 +12388,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -12079,7 +12419,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -12090,10 +12430,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -12104,7 +12444,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -12132,10 +12472,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -12143,13 +12483,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -12163,7 +12503,7 @@
       <c r="B23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -12177,18 +12517,18 @@
       <c r="B24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12218,15 +12558,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -12237,18 +12577,18 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -12265,7 +12605,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -12284,7 +12624,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -12298,7 +12638,7 @@
       <c r="B35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -12309,7 +12649,7 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -12320,7 +12660,7 @@
       <c r="B37" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -12341,10 +12681,10 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -12369,7 +12709,7 @@
       <c r="B42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12385,7 +12725,7 @@
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12393,7 +12733,7 @@
       <c r="A45" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12401,7 +12741,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -12430,15 +12770,15 @@
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -12513,7 +12853,7 @@
       <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -12521,7 +12861,7 @@
       <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12534,23 +12874,23 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -12558,7 +12898,7 @@
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -12566,7 +12906,7 @@
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -12574,7 +12914,7 @@
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -12582,26 +12922,26 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -12617,7 +12957,7 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -12641,7 +12981,7 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -12649,7 +12989,7 @@
       <c r="A77" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
@@ -12711,7 +13051,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -12719,7 +13059,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -12756,10 +13096,10 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -12772,7 +13112,7 @@
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -12812,7 +13152,7 @@
       <c r="A98" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12833,12 +13173,12 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="6" t="s">
         <v>292</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -12846,23 +13186,23 @@
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -12870,10 +13210,10 @@
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="4" t="s">
         <v>301</v>
       </c>
     </row>
@@ -12905,7 +13245,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="4" t="s">
         <v>309</v>
       </c>
     </row>
@@ -12931,7 +13271,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="4" t="s">
         <v>315</v>
       </c>
     </row>
@@ -12979,7 +13319,7 @@
       <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>327</v>
       </c>
     </row>
@@ -13045,12 +13385,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="4" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="4" t="s">
         <v>344</v>
       </c>
     </row>
@@ -13064,1220 +13404,1293 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="52.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="58.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="34.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="26.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="46.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="31.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.8" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="25.8" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
+      <c r="E4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="28.8" spans="1:5">
       <c r="A7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" t="s">
         <v>359</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D11" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" t="s">
         <v>374</v>
+      </c>
+      <c r="E12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" t="s">
         <v>377</v>
       </c>
       <c r="E13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>379</v>
       </c>
       <c r="B14" t="s">
         <v>380</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>383</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>385</v>
       </c>
       <c r="B16" t="s">
         <v>386</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>388</v>
       </c>
       <c r="B17" t="s">
         <v>389</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="1:4">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="43.2" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" t="s">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:2">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="28.8" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" ht="86.4" spans="1:4">
       <c r="A25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" t="s">
         <v>404</v>
       </c>
-      <c r="B25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" ht="57.6" spans="1:4">
       <c r="A26" t="s">
-        <v>405</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" ht="86.4" spans="1:1">
-      <c r="A27" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" ht="72" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B29" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>413</v>
+      <c r="A30" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="6" t="s">
-        <v>416</v>
+      <c r="A32" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>426</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:2">
       <c r="A35" t="s">
-        <v>421</v>
-      </c>
-      <c r="B35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>428</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:2">
       <c r="A36" t="s">
-        <v>423</v>
-      </c>
-      <c r="B36" t="s">
-        <v>424</v>
+        <v>430</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="7" t="s">
-        <v>426</v>
+      <c r="A38" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="6" t="s">
-        <v>430</v>
+      <c r="A40" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>434</v>
+      <c r="A42" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="1:2">
       <c r="A46" t="s">
-        <v>441</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>444</v>
+      <c r="A47" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B48" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B50" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>454</v>
+      <c r="A52" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
-      <c r="A54" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>458</v>
+      <c r="A54" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
-      <c r="A55" s="6" t="s">
-        <v>459</v>
+      <c r="A55" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>460</v>
+      <c r="A56" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="B56" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="4" t="s">
-        <v>462</v>
+      <c r="A57" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="B57" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="6" t="s">
-        <v>481</v>
+      <c r="A67" s="4" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B68" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>487</v>
+        <v>493</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B73" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B74" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="6" t="s">
-        <v>498</v>
+      <c r="A77" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B79" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>505</v>
+      <c r="A80" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="9" t="s">
-        <v>506</v>
+      <c r="A81" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="B81" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B82" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B84" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="86" ht="28.8" spans="1:2">
       <c r="A86" t="s">
-        <v>516</v>
-      </c>
-      <c r="B86" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B95" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="6" t="s">
-        <v>535</v>
+      <c r="A96" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="6" t="s">
-        <v>537</v>
+      <c r="A97" s="4" t="s">
+        <v>544</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>542</v>
+      <c r="A99" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
-      <c r="A100" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>544</v>
+      <c r="A100" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="101" ht="43.2" spans="1:2">
       <c r="A101" t="s">
-        <v>545</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>546</v>
+        <v>552</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
-      <c r="A102" s="5" t="s">
-        <v>547</v>
+      <c r="A102" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>551</v>
+      <c r="A104" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
-      <c r="A105" s="5" t="s">
-        <v>552</v>
+      <c r="A105" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B107" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>560</v>
+      <c r="A109" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="4" t="s">
-        <v>561</v>
+      <c r="A110" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6" t="s">
-        <v>563</v>
+      <c r="A111" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="B111" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="6" t="s">
-        <v>565</v>
+      <c r="A112" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="7" t="s">
-        <v>567</v>
+      <c r="A113" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="B113" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>570</v>
+      <c r="A114" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>571</v>
+      <c r="A115" s="4" t="s">
+        <v>578</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
-      <c r="A116" s="5" t="s">
-        <v>573</v>
+      <c r="A116" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
-      <c r="A117" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>576</v>
+      <c r="A117" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B118" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B119" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B120" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B121" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B122" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
       <c r="A123" t="s">
-        <v>587</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>588</v>
+        <v>594</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B125" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B126" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B127" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="6" t="s">
-        <v>598</v>
+      <c r="A129" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="B129" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B131" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>604</v>
+      <c r="A132" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="133" ht="57.6" spans="1:2">
-      <c r="A133" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>606</v>
+      <c r="A133" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="134" ht="28.8" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>608</v>
+        <v>614</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="135" ht="28.8" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>610</v>
+        <v>616</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="136" ht="43.2" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B137" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="6" t="s">
-        <v>615</v>
+      <c r="A138" s="4" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>617</v>
+      <c r="A139" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>619</v>
+      <c r="A140" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B141" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
-      <c r="A142" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>623</v>
+      <c r="A142" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="143" ht="43.2" spans="1:1">
-      <c r="A143" s="11" t="s">
-        <v>624</v>
+      <c r="A143" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B144" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146" ht="43.2" spans="1:1">
-      <c r="A146" s="11" t="s">
-        <v>629</v>
+      <c r="A146" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>631</v>
+        <v>637</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B149" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B150" t="s">
-        <v>637</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>645</v>
+      </c>
+      <c r="B151" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153" ht="28.8" spans="1:2">
+      <c r="A153" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" ht="28.8" spans="1:2">
+      <c r="A154" t="s">
+        <v>651</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="155" ht="28.8" spans="1:2">
+      <c r="A155" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="156" ht="72" spans="1:2">
+      <c r="A156" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="21216" windowHeight="9647" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="679">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7514,6 +7514,9 @@
     </r>
   </si>
   <si>
+    <t>吴丝蜀桐张高秋，空山凝云颓不流</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7576,6 +7579,9 @@
       </rPr>
       <t>。</t>
     </r>
+  </si>
+  <si>
+    <t>似此星辰非昨夜，为谁风露立中宵</t>
   </si>
   <si>
     <t>Money talks.</t>
@@ -10341,13 +10347,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>据说在航海时代，船长在叫大家起床的时候，会要求船员</t>
     </r>
     <r>
@@ -10368,8 +10367,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，如果是妹子的腿的话，就可以继续睡觉，如果是汉子的腿的话，就必须起床工作了！</t>
-    </r>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>如果是妹子的腿的话，就可以继续睡觉，如果是汉子的腿的话，就必须起床工作了！</t>
   </si>
   <si>
     <t>Come on , you lazy bones, show a leg！</t>
@@ -10443,55 +10445,21 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shake a leg 意思是“赶快，赶紧"， 也就是我们经常说的hurry up，是用来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>催促旁人加快行动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的。它是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>非正式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的语言，常用在家人和老朋友之间。</t>
-    </r>
+      <t>shake a leg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 意思是“赶快，赶紧"，</t>
+    </r>
+  </si>
+  <si>
+    <t>也就是我们经常说的hurry up，是用来催促旁人加快行动的。它是非正式的语言，常用在家人和老朋友之间。</t>
   </si>
   <si>
     <r>
@@ -10863,6 +10831,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我今年夏天用了Airbnb。                                    
 Airbnb虽然是平台的名字，但现在也常被人们当动词来使用。  外出旅行，住宿也是必不可少的。我们常常希望</t>
     </r>
@@ -10885,6 +10860,327 @@
         <scheme val="minor"/>
       </rPr>
       <t>，所以现在除了住酒店以外，还有一种住宿方式也非常受欢迎，那就是Airbnb 。</t>
+    </r>
+  </si>
+  <si>
+    <t>slay全场</t>
+  </si>
+  <si>
+    <t>slay是‘杀，杀死，残害’。在娱乐圈是‘迷住，深深打动’</t>
+  </si>
+  <si>
+    <t>video game</t>
+  </si>
+  <si>
+    <r>
+      <t>video game是个古老词汇。多指上个世纪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>街头的电子游戏，也可指手游、端游</t>
+    </r>
+  </si>
+  <si>
+    <t>Double Buns 也称作 space-buns</t>
+  </si>
+  <si>
+    <t>哪吒的发型</t>
+  </si>
+  <si>
+    <r>
+      <t>1，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Big banana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大佬，大人物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，其他两项two-timer和playboy都可以表示渣男。
+2，low tea的意思是正统的下午茶，因上流人群会坐在低矮的茶台前品茶而得名。
+3，white一般用来形容人种。不适合说肤色。
+4，cooker，厨具，灶具。
+5，French window的意思是“落地窗”，很浪漫的一个词汇。
+6，单词sweetbread，牛羊胰脏，杂碎。</t>
+    </r>
+  </si>
+  <si>
+    <t>7，不可以称呼自己，people是一个复数单词。
+8，不可以不给小费，美国服务行业工资很低，小费是收入主要途径，如果不给小费就走，服务员会生气并很有可能追出来问你要。
+9，PIN是一个英文缩写，全称是personal identification number，意思是个人识别码。只有数字，不含其它字母或者符号。
+10，二维码英文中叫做QR code，也就是quick response code，翻译为“快速响应码”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You`re </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all wet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">你完全想错了！                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+all wet 非常实用的口语，意思是大错特错。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He denied that he was her </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>他否认是她的情夫。                                                虽然在字典上，lover的意思是“爱人，情人”。
+但这个词，却并非你想象的那么纯洁，在英美等国，这个lover很容易让人产生过多的遐想，不能随便使用。
+原因在于这个词被用“坏”了，如今多指哪些发生身体关系的“情人”。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hush, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my love</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it's all right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>嘘，宝贝，没事了。                                         那么，如何浪漫的称呼自己女朋友呢？
+Honey？有点油腻。
+Girlfriend？又太土了！
+热恋中的情侣在面对面交谈的时候，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my love是一个很常见的对彼此的爱称，类似于我们所说的“亲爱的”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它简单但又深情，不失为一种极好的秀恩爱称呼。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sweetheart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, she and I may be divorced.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">亲爱的，我俩真的离婚了。                                          还有一个非常甜腻的称呼，很适合哪些热恋中的情侣。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亲爱的、可爱的、喜欢的都可以成为sweetheart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，另外口语上表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>友善的称呼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也可以用sweetheart。就像现在很多闺蜜之间喜欢互称“亲爱的”。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hey </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sweetie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, see, I made lunch for you!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>喂，小甜甜，看我给你做的午饭！                            同时，Sweetie和Sweetums都可以表示“亲爱的”，不仅仅是情侣之间的爱称，也适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长辈称呼晚辈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的情况。</t>
     </r>
   </si>
 </sst>
@@ -10893,10 +11189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -10968,8 +11264,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10992,114 +11395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11176,7 +11472,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11188,175 +11652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11370,22 +11666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11399,26 +11690,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11438,32 +11729,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11475,10 +11771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11487,137 +11783,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11639,9 +11935,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -11651,7 +11944,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12039,10 +12338,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12053,7 +12352,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -12259,7 +12558,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -12301,7 +12600,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -12343,10 +12642,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -12399,10 +12698,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -12826,7 +13125,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -12986,7 +13285,7 @@
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>245</v>
       </c>
       <c r="B77" s="4"/>
@@ -13194,7 +13493,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -13202,7 +13501,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -13377,7 +13676,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="20" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -13404,10 +13703,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -13627,7 +13926,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:3">
+    <row r="20" ht="28.8" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>395</v>
       </c>
@@ -13635,1062 +13934,1146 @@
         <v>396</v>
       </c>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C21" s="2"/>
+      <c r="E21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" ht="86.4" spans="1:4">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" ht="57.6" spans="1:4">
       <c r="A26" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B28" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B31" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>426</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="35" ht="28.8" spans="1:2">
       <c r="A35" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:2">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="8" t="s">
-        <v>433</v>
+      <c r="A38" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:2">
       <c r="A46" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B50" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B58" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B68" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B72" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B77" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B78" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="10" t="s">
-        <v>513</v>
+      <c r="A81" s="9" t="s">
+        <v>515</v>
       </c>
       <c r="B81" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B83" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B84" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" ht="28.8" spans="1:2">
       <c r="A86" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B87" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B95" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B96" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B98" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" ht="43.2" spans="1:2">
       <c r="A101" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>574</v>
+      <c r="A113" s="7" t="s">
+        <v>576</v>
       </c>
       <c r="B113" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B118" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B119" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B120" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B121" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B122" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
       <c r="A123" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B125" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B126" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B127" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
       <c r="A129" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B129" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B131" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="8" t="s">
-        <v>610</v>
+      <c r="A132" s="7" t="s">
+        <v>612</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" ht="57.6" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="134" ht="28.8" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="135" ht="28.8" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="136" ht="43.2" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B137" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
       <c r="A139" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
       <c r="A140" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B141" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
       <c r="A142" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="143" ht="43.2" spans="1:1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="143" ht="28.8" spans="1:2">
       <c r="A143" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B144" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="146" ht="43.2" spans="1:1">
-      <c r="A146" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="146" ht="28.8" spans="1:2">
+      <c r="A146" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B149" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B150" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B151" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
       <c r="A153" s="4" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" ht="28.8" spans="1:2">
       <c r="A154" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" ht="28.8" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
-      <c r="A156" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>656</v>
+      <c r="A156" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>661</v>
+      </c>
+      <c r="B157" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="158" ht="28.8" spans="1:2">
+      <c r="A158" t="s">
+        <v>663</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>665</v>
+      </c>
+      <c r="B159" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="160" ht="129.6" spans="1:2">
+      <c r="A160" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="161" ht="28.8" spans="1:2">
+      <c r="A161" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="162" ht="115.2" spans="1:2">
+      <c r="A162" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="163" ht="129.6" spans="1:2">
+      <c r="A163" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="164" ht="86.4" spans="1:2">
+      <c r="A164" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="165" ht="43.2" spans="1:2">
+      <c r="A165" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9647" activeTab="2"/>
+    <workbookView windowWidth="23016" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="696">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -7590,6 +7590,9 @@
     <t>金钱万能。中国有一句谚语，叫做“有钱能使鬼推磨”</t>
   </si>
   <si>
+    <t>脚登风轮起在空，千元道术妙无穷</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -10347,6 +10350,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>据说在航海时代，船长在叫大家起床的时候，会要求船员</t>
     </r>
     <r>
@@ -10445,6 +10455,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>shake a leg</t>
     </r>
     <r>
@@ -10873,6 +10890,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>video game是个古老词汇。多指上个世纪</t>
     </r>
     <r>
@@ -10894,6 +10918,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1，</t>
     </r>
     <r>
@@ -10950,6 +10981,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You`re </t>
     </r>
     <r>
@@ -10975,6 +11013,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">你完全想错了！                                            </t>
     </r>
     <r>
@@ -10991,6 +11036,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He denied that he was her </t>
     </r>
     <r>
@@ -11021,6 +11073,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Hush, </t>
     </r>
     <r>
@@ -11046,6 +11105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>嘘，宝贝，没事了。                                         那么，如何浪漫的称呼自己女朋友呢？
 Honey？有点油腻。
 Girlfriend？又太土了！
@@ -11074,6 +11140,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Sweetheart</t>
     </r>
     <r>
@@ -11089,6 +11162,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">亲爱的，我俩真的离婚了。                                          还有一个非常甜腻的称呼，很适合哪些热恋中的情侣。
 </t>
     </r>
@@ -11135,6 +11215,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Hey </t>
     </r>
     <r>
@@ -11160,6 +11247,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>喂，小甜甜，看我给你做的午饭！                            同时，Sweetie和Sweetums都可以表示“亲爱的”，不仅仅是情侣之间的爱称，也适用于</t>
     </r>
     <r>
@@ -11182,6 +11276,163 @@
       </rPr>
       <t>的情况。</t>
     </r>
+  </si>
+  <si>
+    <t>comics and animation 或直接说animation</t>
+  </si>
+  <si>
+    <t>动漫  cartoon卡通，一般比较低龄化</t>
+  </si>
+  <si>
+    <t>I hope you break a leg</t>
+  </si>
+  <si>
+    <t>比如说在一场晚会前夕，演员们就会收到I hope you break a leg的祝福。
+这句话听起来像是诅咒，但其实是很常见的祝福，起源于迷信时代人们经常会说的“反话”。</t>
+  </si>
+  <si>
+    <t>Best of luck on your finals!</t>
+  </si>
+  <si>
+    <r>
+      <t>在这个短句子中，best是名词的用法，意思是最好的人或者事物，比如你想祝福你的伙伴期末考试能取得好成绩，就可以这么说：                                                         同样的，很多美国人在信的结尾也会附加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All the best</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就是祝一切顺利的意思。</t>
+    </r>
+  </si>
+  <si>
+    <t>Wishing you lots of luck!</t>
+  </si>
+  <si>
+    <r>
+      <t>通常简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I wish you luck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就可以表达出祝福的意思，但如果两个人关系特别好，祝福的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语气更加强烈一点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以说wishing you lots of luck。</t>
+    </r>
+  </si>
+  <si>
+    <t>Keep my finger crossed for you!</t>
+  </si>
+  <si>
+    <t>在美剧中，我们会经常看到这样的场景：主人公将中指叠在食指上，并说上一句"Keep my finger crossed for you!"这是什么意思呢？在美英法等国，这一手势表示祈愿，祝你好运，因为人们相信这个手势类似十字架，会带给人好运</t>
+  </si>
+  <si>
+    <t>I will keep my fingers crossed for you today.</t>
+  </si>
+  <si>
+    <t>我希望今天幸运之神眷顾你。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'll have a test tomorrow. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knock on wood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>美国人敲木头是在祈求好运，意思就是老天保佑，这种做法来源于宗教信仰，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Knock on wood也就演变成了上帝保佑的意思，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经常看美剧的小伙伴们想必十分熟悉。如果你明天有一场考试，你就可以这样说：</t>
+    </r>
+  </si>
+  <si>
+    <t>Better luck next time！</t>
+  </si>
+  <si>
+    <t>如果你的朋友这次运气不好，遇到了糟糕的事情，你可以说Better luck next time来安慰她，就是下次会好运的，一切都会好起来的。</t>
   </si>
 </sst>
 </file>
@@ -11190,11 +11441,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11235,6 +11486,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFF9B943"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="8" tint="-0.25"/>
       <name val="宋体"/>
@@ -11266,14 +11524,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11282,6 +11533,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11296,6 +11562,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11303,10 +11591,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11318,9 +11620,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11335,52 +11637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11394,15 +11651,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11472,6 +11730,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11484,7 +11766,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11496,109 +11892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11610,49 +11910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11663,6 +11921,62 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -11684,23 +11998,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11713,56 +12021,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11771,10 +12029,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11783,133 +12041,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11950,25 +12208,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -12327,8 +12585,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -12493,7 +12751,7 @@
   <sheetPr/>
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -13703,10 +13961,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -13950,7 +14208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" s="6" t="s">
         <v>401</v>
       </c>
@@ -13958,1122 +14216,1189 @@
         <v>402</v>
       </c>
       <c r="C22" s="5"/>
+      <c r="E22" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" ht="86.4" spans="1:4">
       <c r="A25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" t="s">
         <v>407</v>
       </c>
-      <c r="B25" t="s">
-        <v>406</v>
-      </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" ht="57.6" spans="1:4">
       <c r="A26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B31" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:2">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" ht="28.8" spans="1:2">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="1:2">
       <c r="A36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B45" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" ht="28.8" spans="1:2">
       <c r="A46" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B50" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B51" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
       <c r="A67" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
       <c r="A81" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B81" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B83" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B85" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" ht="28.8" spans="1:2">
       <c r="A86" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B87" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
       <c r="A93" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" ht="43.2" spans="1:2">
       <c r="A94" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B95" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B98" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
       <c r="A100" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" ht="43.2" spans="1:2">
       <c r="A101" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
       <c r="A105" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B107" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
       <c r="A110" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B111" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
       <c r="A113" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B113" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B118" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B119" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B120" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B121" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B122" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
       <c r="A123" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B125" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B126" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B127" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
       <c r="A128" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
       <c r="A129" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B129" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
       <c r="A130" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B131" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
       <c r="A132" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="133" ht="57.6" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" ht="28.8" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" ht="28.8" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" ht="43.2" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
       <c r="A138" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
       <c r="A139" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
       <c r="A140" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B141" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
       <c r="A142" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" ht="28.8" spans="1:2">
       <c r="A143" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="B143" s="10" t="s">
         <v>634</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="146" ht="28.8" spans="1:2">
       <c r="A146" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B146" s="10" t="s">
         <v>640</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B149" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B150" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B151" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
       <c r="A153" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" ht="28.8" spans="1:2">
       <c r="A154" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="155" ht="28.8" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
       <c r="A156" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B157" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="158" ht="28.8" spans="1:2">
       <c r="A158" t="s">
-        <v>663</v>
-      </c>
-      <c r="B158" s="11" t="s">
         <v>664</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B159" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" ht="129.6" spans="1:2">
-      <c r="A160" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="B160" s="10" t="s">
+      <c r="A160" s="3" t="s">
         <v>668</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="161" ht="28.8" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B161" s="12" t="s">
         <v>670</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="162" ht="115.2" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B162" s="11" t="s">
         <v>672</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="163" ht="129.6" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B163" s="11" t="s">
         <v>674</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="164" ht="86.4" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="B164" s="11" t="s">
         <v>676</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="165" ht="43.2" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B165" s="11" t="s">
         <v>678</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>680</v>
+      </c>
+      <c r="B166" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="167" ht="72" spans="1:2">
+      <c r="A167" t="s">
+        <v>682</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="168" ht="72" spans="1:2">
+      <c r="A168" t="s">
+        <v>684</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="169" ht="43.2" spans="1:2">
+      <c r="A169" t="s">
+        <v>686</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="170" ht="60" customHeight="1" spans="1:2">
+      <c r="A170" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>690</v>
+      </c>
+      <c r="B171" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="172" ht="57.6" spans="1:2">
+      <c r="A172" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="173" ht="43.2" spans="1:2">
+      <c r="A173" t="s">
+        <v>694</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23016" windowHeight="9060"/>
+    <workbookView windowWidth="16560" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
     <sheet name="6月" sheetId="1" r:id="rId2"/>
     <sheet name="7月" sheetId="3" r:id="rId3"/>
+    <sheet name="8月" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="734">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11295,6 +11296,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在这个短句子中，best是名词的用法，意思是最好的人或者事物，比如你想祝福你的伙伴期末考试能取得好成绩，就可以这么说：                                                         同样的，很多美国人在信的结尾也会附加上</t>
     </r>
     <r>
@@ -11323,6 +11331,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通常简单的</t>
     </r>
     <r>
@@ -11380,6 +11395,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'll have a test tomorrow. </t>
     </r>
     <r>
@@ -11405,6 +11427,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美国人敲木头是在祈求好运，意思就是老天保佑，这种做法来源于宗教信仰，而</t>
     </r>
     <r>
@@ -11433,6 +11462,424 @@
   </si>
   <si>
     <t>如果你的朋友这次运气不好，遇到了糟糕的事情，你可以说Better luck next time来安慰她，就是下次会好运的，一切都会好起来的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Did you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>catch the sun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on your holidays？</t>
+    </r>
+  </si>
+  <si>
+    <t>晒黑了</t>
+  </si>
+  <si>
+    <t>意气凌霄不知愁，愿上玉京十二楼</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He was still hanging around, swigging the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> out of the can.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他还在闲逛，拿着一罐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大口大口地喝着。                        coke  [koʊk] 焦炭
+coke在字典中只有一个意思，那就是“焦炭”，但随着上个世纪可口可乐在全世界风靡，这种颜色类似于焦炭一般的饮料，也被native speaker们称之为coke.如今，coke已经成了可乐的代名词，很少有人用它表示原本的意思了。                                            老外虽然爱喝可乐，但其实，以可口可乐为例，虽然它的名字叫做coca-cola，但老外在口语中不会这样说。同样的，也不会有人去说cola，尽管它是可乐的正式译名。</t>
+    </r>
+  </si>
+  <si>
+    <t>梦醒人间看微雨，江山还似旧温柔</t>
+  </si>
+  <si>
+    <r>
+      <t>-Steve, what do you want?
+-Coke,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pepsi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it doesn't matter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-史蒂夫，你要喝点什么。
+-可口可乐，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，随便啦。                                     如果你是一名百事可乐的爱好者，当你在国外买可乐的时候，可不能说你要买一杯coke.
+请使用Pepsi这个词。
+据说在英国，人们对待可乐的态度非常认真，如果你要买Pepsi，而售货员给你拿了Coke，你是可以投诉他的。</t>
+    </r>
+  </si>
+  <si>
+    <t>I'd like a straight-up Coke. 我要来一杯常温可乐。
+Coke straight up. 可乐不加冰。</t>
+  </si>
+  <si>
+    <t>Straight up是不加冰，on the rocks 是加冰。当然也可以直接说coke with ice.</t>
+  </si>
+  <si>
+    <r>
+      <t>I'd like some</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diet coke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with ice.</t>
+    </r>
+  </si>
+  <si>
+    <t>我想要加冰块的健怡可乐。    Diet coke：无糖可乐</t>
+  </si>
+  <si>
+    <t>best friend forever 的缩写Bff</t>
+  </si>
+  <si>
+    <t>老铁  表达美丽而又永不凋谢的钢铁友谊</t>
+  </si>
+  <si>
+    <t>脏话怎么说：</t>
+  </si>
+  <si>
+    <t>美国人经常用到的一些脏话主要有：
+fuck; shit; damn; goddamn; ass；
+但因为时刻需要保持职场人的体面，这些脏话卡卡不建议大家说         Stupid，idiot，foolish，silly，这些基本词汇想必你都认识了。
+这几个词的攻击性太强，不够体面，卡卡不推荐小仙女们使用</t>
+  </si>
+  <si>
+    <t>骂人蠢：</t>
+  </si>
+  <si>
+    <t>Slow：这个很好理解了，迟钝，也就是蠢。                     Thick：其实说的是thick skull，脑壳太厚，榆木疙瘩。            All fingers and thumbs：很形象的一个短语，笨手笨脚。
+Wise up：放机灵点好吗?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You're not usually so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the uptake.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你们平时可不是这么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迟钝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>How could she have been so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>她怎么能蠢到那个地步？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">all fingers and thumbs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this morning.</t>
+    </r>
+  </si>
+  <si>
+    <t>今天上午你怎么笨手笨脚的！</t>
+  </si>
+  <si>
+    <t>Wise up, please.</t>
+  </si>
+  <si>
+    <r>
+      <t>放聪明点好吗？                                                 当别人做了什么愚蠢的事，直接说stupid或者是silly是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不礼貌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，客气点的说法是wise up，please，如果想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>突出嘲讽意味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以把please的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尾音拉长一点</t>
+    </r>
+  </si>
+  <si>
+    <t>骂人作：</t>
+  </si>
+  <si>
+    <t>BS：美国的小仙女们是不喜欢说 shit 这个不雅的词的，所以她们会用shoot或者是BS（bull shit）来彰显自己还是很有气质和气度的。      Cut the crap，相当于中文中的“少说废话多做事”，“请停止你的表演”。                                                        尤其是遇到类似这种情况：“诶呀，这个logo能不能在放大的同时缩小一点呢？”你就可以说：Put up or shut up！</t>
+  </si>
+  <si>
+    <r>
+      <t>I'm so fed up with your BS.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cut the crap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>我受够你的废话了，可以停止了吗？</t>
+  </si>
+  <si>
+    <t>Put up or shut up.</t>
+  </si>
+  <si>
+    <t>要么你就去做，不然就请闭嘴。</t>
+  </si>
+  <si>
+    <t>回怼：</t>
+  </si>
+  <si>
+    <t>那么，如果被别人diss了，该如何优雅反击呢？可以尝试一下“以不变应万变”来一句：</t>
+  </si>
+  <si>
+    <t>You are another.</t>
+  </si>
+  <si>
+    <t>你还不是一样。</t>
+  </si>
+  <si>
+    <t>If I am a fool, you are another.</t>
+  </si>
+  <si>
+    <t>如果我是一个傻子，你还不是一样？</t>
   </si>
 </sst>
 </file>
@@ -11442,8 +11889,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -11455,7 +11902,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -11473,6 +11920,14 @@
       <color rgb="FF595959"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -11501,14 +11956,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -11522,9 +11969,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11539,38 +12054,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11578,28 +12062,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11614,28 +12076,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -11651,18 +12098,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11730,13 +12177,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11748,7 +12219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11760,13 +12243,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11778,97 +12285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11886,31 +12315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11921,86 +12368,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12021,6 +12388,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12029,10 +12476,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12041,137 +12488,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12179,6 +12626,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12190,32 +12652,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -12231,6 +12681,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12585,7 +13038,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -12596,10 +13049,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12610,12 +13063,12 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12628,15 +13081,15 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -12644,18 +13097,18 @@
       </c>
     </row>
     <row r="10" ht="57.6" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="86.4" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12676,15 +13129,15 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -12692,26 +13145,26 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="57.6" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="86.4" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12732,10 +13185,10 @@
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12764,7 +13217,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -12780,13 +13233,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -12816,13 +13269,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -12830,7 +13283,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -12844,13 +13297,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -12858,7 +13311,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -12875,7 +13328,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -12900,13 +13353,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -12920,7 +13373,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -12928,13 +13381,13 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -12945,7 +13398,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -12956,10 +13409,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -12976,7 +13429,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -12987,10 +13440,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -13001,7 +13454,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -13015,7 +13468,7 @@
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C20" t="s">
@@ -13029,10 +13482,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -13040,13 +13493,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="9" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -13057,10 +13510,10 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -13071,21 +13524,21 @@
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13115,15 +13568,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -13134,21 +13587,21 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C31" t="s">
@@ -13162,7 +13615,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="9" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13181,7 +13634,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -13192,10 +13645,10 @@
       <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="9" t="s">
         <v>157</v>
       </c>
     </row>
@@ -13206,18 +13659,18 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="10" t="s">
         <v>163</v>
       </c>
     </row>
@@ -13227,7 +13680,7 @@
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B39" t="s">
@@ -13238,18 +13691,18 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>171</v>
       </c>
       <c r="B41" t="s">
@@ -13263,10 +13716,10 @@
       <c r="A42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13277,20 +13730,20 @@
       <c r="B43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="9" t="s">
         <v>182</v>
       </c>
     </row>
@@ -13298,7 +13751,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13306,7 +13759,7 @@
       <c r="A47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -13319,23 +13772,23 @@
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -13343,18 +13796,18 @@
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13362,7 +13815,7 @@
       <c r="A54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="8" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13383,7 +13836,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -13410,7 +13863,7 @@
       <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>212</v>
       </c>
     </row>
@@ -13418,7 +13871,7 @@
       <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="3" t="s">
         <v>214</v>
       </c>
     </row>
@@ -13431,47 +13884,47 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="9" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="8" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="9" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -13479,34 +13932,34 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="9" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="9" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13514,23 +13967,23 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="9" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="8" t="s">
         <v>242</v>
       </c>
     </row>
@@ -13538,29 +13991,29 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="77" ht="41" customHeight="1" spans="1:2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" ht="100.8" spans="1:2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -13568,7 +14021,7 @@
       <c r="A80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -13576,7 +14029,7 @@
       <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>253</v>
       </c>
     </row>
@@ -13584,7 +14037,7 @@
       <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -13592,7 +14045,7 @@
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -13600,7 +14053,7 @@
       <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="8" t="s">
         <v>259</v>
       </c>
     </row>
@@ -13608,7 +14061,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -13616,7 +14069,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>263</v>
       </c>
     </row>
@@ -13624,7 +14077,7 @@
       <c r="A87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="8" t="s">
         <v>265</v>
       </c>
     </row>
@@ -13632,7 +14085,7 @@
       <c r="A88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="8" t="s">
         <v>267</v>
       </c>
     </row>
@@ -13640,12 +14093,12 @@
       <c r="A89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="8" t="s">
         <v>270</v>
       </c>
       <c r="B90" t="s">
@@ -13653,10 +14106,10 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -13664,17 +14117,17 @@
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="8" t="s">
         <v>277</v>
       </c>
       <c r="B94" t="s">
@@ -13682,7 +14135,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -13706,10 +14159,10 @@
       </c>
     </row>
     <row r="98" ht="72" spans="1:2">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="9" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13730,36 +14183,36 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="8" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="9" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -13767,10 +14220,10 @@
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -13786,15 +14239,15 @@
       <c r="A108" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="8" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="109" ht="86.4" spans="1:2">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -13802,7 +14255,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="9" t="s">
         <v>309</v>
       </c>
     </row>
@@ -13828,7 +14281,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="9" t="s">
         <v>315</v>
       </c>
     </row>
@@ -13836,7 +14289,7 @@
       <c r="A115" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -13852,7 +14305,7 @@
       <c r="A117" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -13868,7 +14321,7 @@
       <c r="A119" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="8" t="s">
         <v>325</v>
       </c>
     </row>
@@ -13876,7 +14329,7 @@
       <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="3" t="s">
         <v>327</v>
       </c>
     </row>
@@ -13900,7 +14353,7 @@
       <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="8" t="s">
         <v>333</v>
       </c>
     </row>
@@ -13908,12 +14361,12 @@
       <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="8" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="125" ht="28.8" spans="1:1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="8" t="s">
         <v>336</v>
       </c>
     </row>
@@ -13934,7 +14387,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="21" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -13942,12 +14395,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="9" t="s">
         <v>344</v>
       </c>
     </row>
@@ -13963,8 +14416,8 @@
   <sheetPr/>
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -13976,20 +14429,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14027,10 +14480,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>355</v>
       </c>
       <c r="E5" t="s">
@@ -14052,7 +14505,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E7" t="s">
@@ -14167,31 +14620,31 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="10"/>
       <c r="E18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="10"/>
       <c r="E19" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="8"/>
       <c r="E20" t="s">
         <v>397</v>
       </c>
@@ -14209,13 +14662,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
       <c r="E22" t="s">
         <v>403</v>
       </c>
@@ -14246,7 +14699,7 @@
       <c r="C25" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>410</v>
       </c>
     </row>
@@ -14254,24 +14707,24 @@
       <c r="A26" t="s">
         <v>411</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>415</v>
       </c>
       <c r="C27" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14292,10 +14745,10 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>423</v>
       </c>
     </row>
@@ -14308,7 +14761,7 @@
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14324,7 +14777,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="11" t="s">
         <v>430</v>
       </c>
     </row>
@@ -14332,7 +14785,7 @@
       <c r="A35" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="9" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14340,17 +14793,17 @@
       <c r="A36" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -14366,7 +14819,7 @@
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="9" t="s">
         <v>440</v>
       </c>
     </row>
@@ -14379,10 +14832,10 @@
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="12" t="s">
         <v>444</v>
       </c>
     </row>
@@ -14395,10 +14848,10 @@
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="8" t="s">
         <v>448</v>
       </c>
     </row>
@@ -14414,15 +14867,15 @@
       <c r="A46" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>454</v>
       </c>
     </row>
@@ -14459,10 +14912,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>464</v>
       </c>
     </row>
@@ -14475,20 +14928,20 @@
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="10" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="9" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B56" t="s">
@@ -14496,7 +14949,7 @@
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="10" t="s">
         <v>472</v>
       </c>
       <c r="B57" t="s">
@@ -14512,7 +14965,7 @@
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>476</v>
       </c>
     </row>
@@ -14525,10 +14978,10 @@
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="8" t="s">
         <v>480</v>
       </c>
     </row>
@@ -14573,7 +15026,7 @@
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="9" t="s">
         <v>491</v>
       </c>
     </row>
@@ -14586,20 +15039,20 @@
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="8" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="8" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="9" t="s">
         <v>497</v>
       </c>
     </row>
@@ -14644,7 +15097,7 @@
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="9" t="s">
         <v>508</v>
       </c>
       <c r="B77" t="s">
@@ -14668,15 +15121,15 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -14719,7 +15172,7 @@
       <c r="A86" t="s">
         <v>526</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -14756,23 +15209,23 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="8" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="8" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="8" t="s">
         <v>540</v>
       </c>
     </row>
@@ -14780,7 +15233,7 @@
       <c r="A94" t="s">
         <v>541</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="8" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14793,7 +15246,7 @@
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="9" t="s">
         <v>545</v>
       </c>
       <c r="B96" t="s">
@@ -14801,10 +15254,10 @@
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="8" t="s">
         <v>548</v>
       </c>
     </row>
@@ -14817,18 +15270,18 @@
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="9" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="10" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14836,15 +15289,15 @@
       <c r="A101" t="s">
         <v>555</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="9" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="8" t="s">
         <v>558</v>
       </c>
     </row>
@@ -14854,18 +15307,18 @@
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="9" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="8" t="s">
         <v>563</v>
       </c>
     </row>
@@ -14886,28 +15339,28 @@
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="8" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="9" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="8" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="9" t="s">
         <v>573</v>
       </c>
       <c r="B111" t="s">
@@ -14915,15 +15368,15 @@
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="8" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="11" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -14931,15 +15384,15 @@
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="9" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="9" t="s">
         <v>581</v>
       </c>
       <c r="B115" t="s">
@@ -14947,18 +15400,18 @@
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="8" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="10" t="s">
         <v>586</v>
       </c>
     </row>
@@ -15006,7 +15459,7 @@
       <c r="A123" t="s">
         <v>597</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="9" t="s">
         <v>598</v>
       </c>
     </row>
@@ -15043,12 +15496,12 @@
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="8" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="9" t="s">
         <v>608</v>
       </c>
       <c r="B129" t="s">
@@ -15056,7 +15509,7 @@
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="8" t="s">
         <v>610</v>
       </c>
     </row>
@@ -15069,18 +15522,18 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="9" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="133" ht="57.6" spans="1:2">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="10" t="s">
         <v>616</v>
       </c>
     </row>
@@ -15088,7 +15541,7 @@
       <c r="A134" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="9" t="s">
         <v>618</v>
       </c>
     </row>
@@ -15096,7 +15549,7 @@
       <c r="A135" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="9" t="s">
         <v>620</v>
       </c>
     </row>
@@ -15104,7 +15557,7 @@
       <c r="A136" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="8" t="s">
         <v>622</v>
       </c>
     </row>
@@ -15117,23 +15570,23 @@
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="9" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="9" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="9" t="s">
         <v>629</v>
       </c>
     </row>
@@ -15146,18 +15599,18 @@
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="9" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="143" ht="28.8" spans="1:2">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="9" t="s">
         <v>635</v>
       </c>
     </row>
@@ -15178,10 +15631,10 @@
       </c>
     </row>
     <row r="146" ht="28.8" spans="1:2">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="9" t="s">
         <v>641</v>
       </c>
     </row>
@@ -15189,7 +15642,7 @@
       <c r="A147" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="3" t="s">
         <v>643</v>
       </c>
     </row>
@@ -15234,10 +15687,10 @@
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="8" t="s">
         <v>655</v>
       </c>
     </row>
@@ -15245,7 +15698,7 @@
       <c r="A154" t="s">
         <v>656</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="8" t="s">
         <v>657</v>
       </c>
     </row>
@@ -15253,15 +15706,15 @@
       <c r="A155" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="8" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="8" t="s">
         <v>661</v>
       </c>
     </row>
@@ -15277,7 +15730,7 @@
       <c r="A158" t="s">
         <v>664</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="8" t="s">
         <v>665</v>
       </c>
     </row>
@@ -15290,10 +15743,10 @@
       </c>
     </row>
     <row r="160" ht="129.6" spans="1:2">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="9" t="s">
         <v>669</v>
       </c>
     </row>
@@ -15301,7 +15754,7 @@
       <c r="A161" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="10" t="s">
         <v>671</v>
       </c>
     </row>
@@ -15309,7 +15762,7 @@
       <c r="A162" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="8" t="s">
         <v>673</v>
       </c>
     </row>
@@ -15317,15 +15770,15 @@
       <c r="A163" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="8" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="164" ht="86.4" spans="1:2">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="8" t="s">
         <v>677</v>
       </c>
     </row>
@@ -15333,7 +15786,7 @@
       <c r="A165" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="8" t="s">
         <v>679</v>
       </c>
     </row>
@@ -15349,7 +15802,7 @@
       <c r="A167" t="s">
         <v>682</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="9" t="s">
         <v>683</v>
       </c>
     </row>
@@ -15357,7 +15810,7 @@
       <c r="A168" t="s">
         <v>684</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="8" t="s">
         <v>685</v>
       </c>
     </row>
@@ -15365,15 +15818,15 @@
       <c r="A169" t="s">
         <v>686</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="8" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="9" t="s">
         <v>689</v>
       </c>
     </row>
@@ -15386,10 +15839,10 @@
       </c>
     </row>
     <row r="172" ht="57.6" spans="1:2">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="8" t="s">
         <v>693</v>
       </c>
     </row>
@@ -15397,7 +15850,7 @@
       <c r="A173" t="s">
         <v>694</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="9" t="s">
         <v>695</v>
       </c>
     </row>
@@ -15406,4 +15859,187 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="43.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="63.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" ht="129.6" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" ht="129.6" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" ht="72" spans="1:2">
+      <c r="A8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="1:2">
+      <c r="A9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B12" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" spans="1:2">
+      <c r="A13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:2">
+      <c r="A14" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:2">
+      <c r="A17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>732</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/2019.xlsx
+++ b/2019.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="752">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11465,6 +11465,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Did you </t>
     </r>
     <r>
@@ -11496,6 +11503,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He was still hanging around, swigging the </t>
     </r>
     <r>
@@ -11521,6 +11535,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他还在闲逛，拿着一罐</t>
     </r>
     <r>
@@ -11550,6 +11571,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-Steve, what do you want?
 -Coke,</t>
     </r>
@@ -11576,6 +11604,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-史蒂夫，你要喝点什么。
 -可口可乐，</t>
     </r>
@@ -11611,6 +11646,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I'd like some</t>
     </r>
     <r>
@@ -11661,6 +11703,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You're not usually so </t>
     </r>
     <r>
@@ -11686,6 +11735,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你们平时可不是这么</t>
     </r>
     <r>
@@ -11711,6 +11767,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>How could she have been so</t>
     </r>
     <r>
@@ -11739,6 +11802,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You are </t>
     </r>
     <r>
@@ -11770,6 +11840,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>放聪明点好吗？                                                 当别人做了什么愚蠢的事，直接说stupid或者是silly是</t>
     </r>
     <r>
@@ -11831,6 +11908,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I'm so fed up with your BS.</t>
     </r>
     <r>
@@ -11880,6 +11964,117 @@
   </si>
   <si>
     <t>如果我是一个傻子，你还不是一样？</t>
+  </si>
+  <si>
+    <t>I'm off.走啦                               
+Take care！/You take care！拜拜~            
+See you soon下次见</t>
+  </si>
+  <si>
+    <t>good bye有点正式 日常再见可以这么说</t>
+  </si>
+  <si>
+    <t>Do bird == to spend time in prison</t>
+  </si>
+  <si>
+    <t>坐牢  像鸟儿一样被关在笼子里</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>本身就是一个强烈的形容词。very delicious 加个very就多余了</t>
+  </si>
+  <si>
+    <t>结婚的表达：</t>
+  </si>
+  <si>
+    <r>
+      <t>说起结婚，很多人都会想到marry这个词。
+但在英语中，老外结婚从不单讲marry这个词，“我要结婚”更不能说成I will marry，因为单讲marry是表示嫁或娶的意思，这是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及物动词，必须要跟宾语。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+像I want to marry这类的中式英语，真的很不地道哦~</t>
+    </r>
+  </si>
+  <si>
+    <t>I will get married.</t>
+  </si>
+  <si>
+    <t>我会结婚。(将来)</t>
+  </si>
+  <si>
+    <t>I absolutely refuse to get married.</t>
+  </si>
+  <si>
+    <t>我决不结婚。</t>
+  </si>
+  <si>
+    <t>I'm going to get married.</t>
+  </si>
+  <si>
+    <t>表示一切都在筹备中了，大喜之日马上就要来临了。</t>
+  </si>
+  <si>
+    <t>Xianxian married me！                       
+Kunkun get married to me！</t>
+  </si>
+  <si>
+    <t>在英文中没有“嫁”或者“娶”的概念，marry本身就表示嫁给谁或者娶了谁，再加上with就有点多余了哦~    LiXian married with me.（错误示范）</t>
+  </si>
+  <si>
+    <r>
+      <t>科普一些西方婚礼上的习俗以及习语~
+wedding gown：婚纱
+maid of honor：伴娘
+best man：伴郎
+婚礼通常会有一系列的仪式ceremony ritual，由一名牧师主持，首先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交换戒指exchange rings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后交换誓言。</t>
+    </r>
+  </si>
+  <si>
+    <t>最常见的誓言：
+I XX, take you, XX, to be my husband/wife, to have and to hold from this day forward; for better,for worse, for richer, for poorer, in sickness and in health, to love and to cherish, till death us do part; according to God’s holy law. In the presence of God I make this vow.
+在上帝的见证下、神的律法的指引下，我，愿意嫁给/娶你，作为我的丈夫/妻子。从此刻到永远，无论顺境或逆境、富有或贫穷、健康或疾病，我都将爱着你、珍惜你，直到死亡将我们分开。
+婚礼仪式之后就是办酒席，一般bestman还会做一个演讲，爆料一些新郎的黑历史。
+最后大家去拍照，新人们去登记结婚。然后一场浪漫的婚礼就结束了。</t>
   </si>
 </sst>
 </file>
@@ -11889,8 +12084,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -11970,16 +12165,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11992,7 +12188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12000,14 +12196,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12022,16 +12210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12045,16 +12234,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12076,40 +12302,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12177,13 +12372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12195,19 +12396,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12219,73 +12456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12303,19 +12486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12327,25 +12498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12357,7 +12540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12376,56 +12571,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12449,7 +12594,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12468,6 +12643,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12476,10 +12671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12488,16 +12683,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12506,119 +12701,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12640,20 +12835,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -12681,9 +12873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -13049,10 +13238,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13063,7 +13252,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13089,7 +13278,7 @@
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -13097,18 +13286,18 @@
       </c>
     </row>
     <row r="10" ht="57.6" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="86.4" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13129,15 +13318,15 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -13145,26 +13334,26 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="57.6" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="86.4" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13185,10 +13374,10 @@
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13217,7 +13406,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13233,13 +13422,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -13269,13 +13458,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -13283,7 +13472,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -13297,13 +13486,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -13311,7 +13500,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -13328,7 +13517,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -13353,13 +13542,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -13373,7 +13562,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -13381,13 +13570,13 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -13398,7 +13587,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -13409,10 +13598,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -13429,7 +13618,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -13440,10 +13629,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -13454,7 +13643,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -13468,7 +13657,7 @@
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C20" t="s">
@@ -13482,10 +13671,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -13493,13 +13682,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -13510,10 +13699,10 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -13524,21 +13713,21 @@
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13568,15 +13757,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -13587,13 +13776,13 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13601,7 +13790,7 @@
       <c r="A31" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C31" t="s">
@@ -13615,7 +13804,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13634,7 +13823,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -13645,10 +13834,10 @@
       <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -13659,15 +13848,15 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -13680,7 +13869,7 @@
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B39" t="s">
@@ -13691,18 +13880,18 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B41" t="s">
@@ -13716,10 +13905,10 @@
       <c r="A42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13730,20 +13919,20 @@
       <c r="B43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>182</v>
       </c>
     </row>
@@ -13751,7 +13940,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13759,7 +13948,7 @@
       <c r="A47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -13772,10 +13961,10 @@
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13788,7 +13977,7 @@
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -13796,18 +13985,18 @@
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13815,7 +14004,7 @@
       <c r="A54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -13836,7 +14025,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -13884,47 +14073,47 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -13932,23 +14121,23 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="5" t="s">
         <v>233</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -13956,10 +14145,10 @@
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13967,23 +14156,23 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -13991,7 +14180,7 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="5" t="s">
         <v>244</v>
       </c>
     </row>
@@ -13999,21 +14188,21 @@
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" ht="100.8" spans="1:2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="4" t="s">
         <v>249</v>
       </c>
     </row>
@@ -14021,7 +14210,7 @@
       <c r="A80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -14029,7 +14218,7 @@
       <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="4" t="s">
         <v>253</v>
       </c>
     </row>
@@ -14037,7 +14226,7 @@
       <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -14045,7 +14234,7 @@
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -14053,7 +14242,7 @@
       <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -14061,7 +14250,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="5" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14069,7 +14258,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -14077,7 +14266,7 @@
       <c r="A87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -14085,7 +14274,7 @@
       <c r="A88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -14093,12 +14282,12 @@
       <c r="A89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="4" t="s">
         <v>270</v>
       </c>
       <c r="B90" t="s">
@@ -14117,17 +14306,17 @@
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="4" t="s">
         <v>277</v>
       </c>
       <c r="B94" t="s">
@@ -14135,7 +14324,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -14159,10 +14348,10 @@
       </c>
     </row>
     <row r="98" ht="72" spans="1:2">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -14183,7 +14372,7 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="5" t="s">
         <v>291</v>
       </c>
     </row>
@@ -14191,20 +14380,20 @@
       <c r="A102" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -14212,7 +14401,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -14223,7 +14412,7 @@
       <c r="A106" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -14239,15 +14428,15 @@
       <c r="A108" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="4" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="109" ht="86.4" spans="1:2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -14255,7 +14444,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="5" t="s">
         <v>309</v>
       </c>
     </row>
@@ -14281,7 +14470,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -14289,7 +14478,7 @@
       <c r="A115" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="4" t="s">
         <v>317</v>
       </c>
     </row>
@@ -14305,7 +14494,7 @@
       <c r="A117" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="4" t="s">
         <v>321</v>
       </c>
     </row>
@@ -14321,7 +14510,7 @@
       <c r="A119" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="4" t="s">
         <v>325</v>
       </c>
     </row>
@@ -14353,7 +14542,7 @@
       <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -14361,12 +14550,12 @@
       <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="125" ht="28.8" spans="1:1">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="4" t="s">
         <v>336</v>
       </c>
     </row>
@@ -14387,7 +14576,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -14395,12 +14584,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="5" t="s">
         <v>344</v>
       </c>
     </row>
@@ -14429,20 +14618,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="9" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14480,10 +14669,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E5" t="s">
@@ -14505,7 +14694,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E7" t="s">
@@ -14638,13 +14827,13 @@
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="4"/>
       <c r="E20" t="s">
         <v>397</v>
       </c>
@@ -14699,7 +14888,7 @@
       <c r="C25" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>410</v>
       </c>
     </row>
@@ -14707,24 +14896,24 @@
       <c r="A26" t="s">
         <v>411</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C27" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="5" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14761,7 +14950,7 @@
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14777,7 +14966,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>430</v>
       </c>
     </row>
@@ -14785,7 +14974,7 @@
       <c r="A35" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14793,17 +14982,17 @@
       <c r="A36" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -14819,7 +15008,7 @@
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="5" t="s">
         <v>440</v>
       </c>
     </row>
@@ -14835,7 +15024,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>444</v>
       </c>
     </row>
@@ -14848,10 +15037,10 @@
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="4" t="s">
         <v>448</v>
       </c>
     </row>
@@ -14867,7 +15056,7 @@
       <c r="A46" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="4" t="s">
         <v>452</v>
       </c>
     </row>
@@ -14936,7 +15125,7 @@
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="5" t="s">
         <v>469</v>
       </c>
     </row>
@@ -14965,7 +15154,7 @@
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="4" t="s">
         <v>476</v>
       </c>
     </row>
@@ -14978,10 +15167,10 @@
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="4" t="s">
         <v>480</v>
       </c>
     </row>
@@ -15026,7 +15215,7 @@
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="5" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15039,20 +15228,20 @@
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="4" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="5" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15097,7 +15286,7 @@
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="5" t="s">
         <v>508</v>
       </c>
       <c r="B77" t="s">
@@ -15129,7 +15318,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -15172,7 +15361,7 @@
       <c r="A86" t="s">
         <v>526</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="5" t="s">
         <v>527</v>
       </c>
     </row>
@@ -15209,23 +15398,23 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="4" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="4" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="4" t="s">
         <v>540</v>
       </c>
     </row>
@@ -15233,7 +15422,7 @@
       <c r="A94" t="s">
         <v>541</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="4" t="s">
         <v>542</v>
       </c>
     </row>
@@ -15246,7 +15435,7 @@
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B96" t="s">
@@ -15254,10 +15443,10 @@
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="4" t="s">
         <v>548</v>
       </c>
     </row>
@@ -15270,10 +15459,10 @@
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="5" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15289,7 +15478,7 @@
       <c r="A101" t="s">
         <v>555</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="5" t="s">
         <v>556</v>
       </c>
     </row>
@@ -15297,7 +15486,7 @@
       <c r="A102" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="4" t="s">
         <v>558</v>
       </c>
     </row>
@@ -15307,10 +15496,10 @@
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="5" t="s">
         <v>561</v>
       </c>
     </row>
@@ -15318,7 +15507,7 @@
       <c r="A105" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="4" t="s">
         <v>563</v>
       </c>
     </row>
@@ -15339,15 +15528,15 @@
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="4" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="5" t="s">
         <v>570</v>
       </c>
     </row>
@@ -15355,12 +15544,12 @@
       <c r="A110" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="4" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="5" t="s">
         <v>573</v>
       </c>
       <c r="B111" t="s">
@@ -15368,15 +15557,15 @@
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="6" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -15384,15 +15573,15 @@
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="5" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="5" t="s">
         <v>581</v>
       </c>
       <c r="B115" t="s">
@@ -15403,7 +15592,7 @@
       <c r="A116" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="4" t="s">
         <v>584</v>
       </c>
     </row>
@@ -15459,7 +15648,7 @@
       <c r="A123" t="s">
         <v>597</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="5" t="s">
         <v>598</v>
       </c>
     </row>
@@ -15496,12 +15685,12 @@
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="4" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="5" t="s">
         <v>608</v>
       </c>
       <c r="B129" t="s">
@@ -15509,7 +15698,7 @@
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="4" t="s">
         <v>610</v>
       </c>
     </row>
@@ -15522,10 +15711,10 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="5" t="s">
         <v>614</v>
       </c>
     </row>
@@ -15541,7 +15730,7 @@
       <c r="A134" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="5" t="s">
         <v>618</v>
       </c>
     </row>
@@ -15549,7 +15738,7 @@
       <c r="A135" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="5" t="s">
         <v>620</v>
       </c>
     </row>
@@ -15557,7 +15746,7 @@
       <c r="A136" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="4" t="s">
         <v>622</v>
       </c>
     </row>
@@ -15570,23 +15759,23 @@
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="5" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="5" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="5" t="s">
         <v>629</v>
       </c>
     </row>
@@ -15599,18 +15788,18 @@
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="5" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="143" ht="28.8" spans="1:2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="5" t="s">
         <v>635</v>
       </c>
     </row>
@@ -15634,7 +15823,7 @@
       <c r="A146" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="5" t="s">
         <v>641</v>
       </c>
     </row>
@@ -15687,10 +15876,10 @@
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="4" t="s">
         <v>655</v>
       </c>
     </row>
@@ -15698,7 +15887,7 @@
       <c r="A154" t="s">
         <v>656</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="4" t="s">
         <v>657</v>
       </c>
     </row>
@@ -15706,15 +15895,15 @@
       <c r="A155" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="4" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="4" t="s">
         <v>661</v>
       </c>
     </row>
@@ -15730,7 +15919,7 @@
       <c r="A158" t="s">
         <v>664</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="4" t="s">
         <v>665</v>
       </c>
     </row>
@@ -15743,10 +15932,10 @@
       </c>
     </row>
     <row r="160" ht="129.6" spans="1:2">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="5" t="s">
         <v>669</v>
       </c>
     </row>
@@ -15762,7 +15951,7 @@
       <c r="A162" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="4" t="s">
         <v>673</v>
       </c>
     </row>
@@ -15770,7 +15959,7 @@
       <c r="A163" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="4" t="s">
         <v>675</v>
       </c>
     </row>
@@ -15778,7 +15967,7 @@
       <c r="A164" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="4" t="s">
         <v>677</v>
       </c>
     </row>
@@ -15786,7 +15975,7 @@
       <c r="A165" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="4" t="s">
         <v>679</v>
       </c>
     </row>
@@ -15802,7 +15991,7 @@
       <c r="A167" t="s">
         <v>682</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="5" t="s">
         <v>683</v>
       </c>
     </row>
@@ -15810,7 +15999,7 @@
       <c r="A168" t="s">
         <v>684</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="4" t="s">
         <v>685</v>
       </c>
     </row>
@@ -15818,15 +16007,15 @@
       <c r="A169" t="s">
         <v>686</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="4" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="5" t="s">
         <v>689</v>
       </c>
     </row>
@@ -15839,10 +16028,10 @@
       </c>
     </row>
     <row r="172" ht="57.6" spans="1:2">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="4" t="s">
         <v>693</v>
       </c>
     </row>
@@ -15850,7 +16039,7 @@
       <c r="A173" t="s">
         <v>694</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="5" t="s">
         <v>695</v>
       </c>
     </row>
@@ -15864,10 +16053,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -15910,12 +16099,15 @@
         <v>701</v>
       </c>
     </row>
-    <row r="4" ht="129.6" spans="1:2">
-      <c r="A4" s="22" t="s">
+    <row r="4" ht="129.6" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>703</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:2">
@@ -16036,6 +16228,78 @@
       </c>
       <c r="B19" s="5" t="s">
         <v>733</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>738</v>
+      </c>
+      <c r="B22" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" ht="100.8" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>742</v>
+      </c>
+      <c r="B24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B25" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" ht="230.4" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16560" windowHeight="9060" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="759">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11464,6 +11464,9 @@
     <t>如果你的朋友这次运气不好，遇到了糟糕的事情，你可以说Better luck next time来安慰她，就是下次会好运的，一切都会好起来的。</t>
   </si>
   <si>
+    <t>天天口语，每日一句 工作日</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11497,6 +11500,36 @@
   </si>
   <si>
     <t>晒黑了</t>
+  </si>
+  <si>
+    <r>
+      <t>I am getting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strong/stronger.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我变得越来越</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...+形容词或比较级</t>
+    </r>
   </si>
   <si>
     <t>意气凌霄不知愁，愿上玉京十二楼</t>
@@ -11564,6 +11597,35 @@
       </rPr>
       <t>大口大口地喝着。                        coke  [koʊk] 焦炭
 coke在字典中只有一个意思，那就是“焦炭”，但随着上个世纪可口可乐在全世界风靡，这种颜色类似于焦炭一般的饮料，也被native speaker们称之为coke.如今，coke已经成了可乐的代名词，很少有人用它表示原本的意思了。                                            老外虽然爱喝可乐，但其实，以可口可乐为例，虽然它的名字叫做coca-cola，但老外在口语中不会这样说。同样的，也不会有人去说cola，尽管它是可乐的正式译名。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I have no idea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> what to teach you guys.  
+You have no idea how tired I am .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我不知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...+完整的话</t>
     </r>
   </si>
   <si>
@@ -11635,6 +11697,36 @@
       <t>，随便啦。                                     如果你是一名百事可乐的爱好者，当你在国外买可乐的时候，可不能说你要买一杯coke.
 请使用Pepsi这个词。
 据说在英国，人们对待可乐的态度非常认真，如果你要买Pepsi，而售货员给你拿了Coke，你是可以投诉他的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You can't imagine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how hard he works.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你无法想象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…+完整句子</t>
     </r>
   </si>
   <si>
@@ -11990,6 +12082,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>说起结婚，很多人都会想到marry这个词。
 但在英语中，老外结婚从不单讲marry这个词，“我要结婚”更不能说成I will marry，因为单讲marry是表示嫁或娶的意思，这是一个</t>
     </r>
@@ -12042,6 +12141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>科普一些西方婚礼上的习俗以及习语~
 wedding gown：婚纱
 maid of honor：伴娘
@@ -12165,70 +12271,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12243,16 +12294,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12270,7 +12330,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -12286,36 +12406,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12372,7 +12478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12384,7 +12514,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12396,13 +12556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12414,7 +12610,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12426,133 +12658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12563,15 +12669,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12594,7 +12691,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12614,17 +12746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12643,26 +12769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12671,10 +12777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12683,137 +12789,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12829,17 +12935,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -13238,10 +13341,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13252,7 +13355,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13270,10 +13373,10 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13289,7 +13392,7 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13297,7 +13400,7 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13321,7 +13424,7 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13337,7 +13440,7 @@
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13345,7 +13448,7 @@
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13353,7 +13456,7 @@
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13377,7 +13480,7 @@
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13406,7 +13509,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13422,13 +13525,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -13458,13 +13561,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -13472,7 +13575,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -13486,13 +13589,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -13500,7 +13603,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -13517,7 +13620,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -13542,13 +13645,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -13562,7 +13665,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -13576,7 +13679,7 @@
       <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -13587,7 +13690,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -13598,10 +13701,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -13618,7 +13721,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -13629,10 +13732,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -13643,7 +13746,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -13671,10 +13774,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -13682,13 +13785,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -13702,7 +13805,7 @@
       <c r="B23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -13716,18 +13819,18 @@
       <c r="B24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13757,15 +13860,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -13776,13 +13879,13 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13804,7 +13907,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13823,7 +13926,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -13837,7 +13940,7 @@
       <c r="B35" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -13848,7 +13951,7 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>160</v>
       </c>
     </row>
@@ -13859,7 +13962,7 @@
       <c r="B37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -13880,10 +13983,10 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -13908,7 +14011,7 @@
       <c r="B42" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13924,7 +14027,7 @@
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>180</v>
       </c>
     </row>
@@ -13932,7 +14035,7 @@
       <c r="A45" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -13940,7 +14043,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13972,12 +14075,12 @@
       <c r="A50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -14025,7 +14128,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -14073,23 +14176,23 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -14097,7 +14200,7 @@
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -14105,7 +14208,7 @@
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -14113,7 +14216,7 @@
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -14121,26 +14224,26 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>234</v>
       </c>
     </row>
@@ -14156,7 +14259,7 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>238</v>
       </c>
     </row>
@@ -14180,7 +14283,7 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>244</v>
       </c>
     </row>
@@ -14188,7 +14291,7 @@
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
@@ -14250,7 +14353,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14258,7 +14361,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -14298,7 +14401,7 @@
       <c r="A91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="9" t="s">
         <v>273</v>
       </c>
     </row>
@@ -14311,7 +14414,7 @@
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -14351,7 +14454,7 @@
       <c r="A98" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>286</v>
       </c>
     </row>
@@ -14372,7 +14475,7 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>291</v>
       </c>
     </row>
@@ -14385,15 +14488,15 @@
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -14401,7 +14504,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -14412,7 +14515,7 @@
       <c r="A106" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -14444,7 +14547,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>309</v>
       </c>
     </row>
@@ -14470,7 +14573,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="6" t="s">
         <v>315</v>
       </c>
     </row>
@@ -14576,7 +14679,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -14584,12 +14687,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="6" t="s">
         <v>344</v>
       </c>
     </row>
@@ -14618,20 +14721,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="8" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14694,7 +14797,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>360</v>
       </c>
       <c r="E7" t="s">
@@ -14809,19 +14912,19 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="E18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
       <c r="E19" t="s">
         <v>394</v>
       </c>
@@ -14857,7 +14960,7 @@
       <c r="B22" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="E22" t="s">
         <v>403</v>
       </c>
@@ -14888,7 +14991,7 @@
       <c r="C25" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>410</v>
       </c>
     </row>
@@ -14902,18 +15005,18 @@
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>415</v>
       </c>
       <c r="C27" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14950,7 +15053,7 @@
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14966,7 +15069,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>430</v>
       </c>
     </row>
@@ -14974,7 +15077,7 @@
       <c r="A35" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14982,7 +15085,7 @@
       <c r="A36" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>434</v>
       </c>
     </row>
@@ -14992,7 +15095,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -15008,7 +15111,7 @@
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>440</v>
       </c>
     </row>
@@ -15024,7 +15127,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15120,12 +15223,12 @@
       <c r="A54" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>469</v>
       </c>
     </row>
@@ -15138,7 +15241,7 @@
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>472</v>
       </c>
       <c r="B57" t="s">
@@ -15215,7 +15318,7 @@
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>491</v>
       </c>
     </row>
@@ -15241,7 +15344,7 @@
       <c r="A71" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>497</v>
       </c>
     </row>
@@ -15286,7 +15389,7 @@
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>508</v>
       </c>
       <c r="B77" t="s">
@@ -15318,7 +15421,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -15361,7 +15464,7 @@
       <c r="A86" t="s">
         <v>526</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>527</v>
       </c>
     </row>
@@ -15435,7 +15538,7 @@
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B96" t="s">
@@ -15443,7 +15546,7 @@
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>547</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -15459,10 +15562,10 @@
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>552</v>
       </c>
     </row>
@@ -15470,7 +15573,7 @@
       <c r="A100" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>554</v>
       </c>
     </row>
@@ -15478,7 +15581,7 @@
       <c r="A101" t="s">
         <v>555</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>556</v>
       </c>
     </row>
@@ -15496,10 +15599,10 @@
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>561</v>
       </c>
     </row>
@@ -15533,15 +15636,15 @@
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="9" t="s">
         <v>571</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -15549,7 +15652,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="6" t="s">
         <v>573</v>
       </c>
       <c r="B111" t="s">
@@ -15557,7 +15660,7 @@
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>575</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -15565,7 +15668,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="7" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -15573,15 +15676,15 @@
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="6" t="s">
         <v>581</v>
       </c>
       <c r="B115" t="s">
@@ -15600,7 +15703,7 @@
       <c r="A117" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>586</v>
       </c>
     </row>
@@ -15648,7 +15751,7 @@
       <c r="A123" t="s">
         <v>597</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
         <v>598</v>
       </c>
     </row>
@@ -15690,7 +15793,7 @@
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="6" t="s">
         <v>608</v>
       </c>
       <c r="B129" t="s">
@@ -15711,10 +15814,10 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>614</v>
       </c>
     </row>
@@ -15722,7 +15825,7 @@
       <c r="A133" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>616</v>
       </c>
     </row>
@@ -15730,7 +15833,7 @@
       <c r="A134" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>618</v>
       </c>
     </row>
@@ -15738,7 +15841,7 @@
       <c r="A135" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>620</v>
       </c>
     </row>
@@ -15759,23 +15862,23 @@
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>629</v>
       </c>
     </row>
@@ -15788,10 +15891,10 @@
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>633</v>
       </c>
     </row>
@@ -15799,7 +15902,7 @@
       <c r="A143" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="6" t="s">
         <v>635</v>
       </c>
     </row>
@@ -15820,10 +15923,10 @@
       </c>
     </row>
     <row r="146" ht="28.8" spans="1:2">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>641</v>
       </c>
     </row>
@@ -15876,7 +15979,7 @@
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="6" t="s">
         <v>654</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -15900,7 +16003,7 @@
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="6" t="s">
         <v>660</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -15935,7 +16038,7 @@
       <c r="A160" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="6" t="s">
         <v>669</v>
       </c>
     </row>
@@ -15943,7 +16046,7 @@
       <c r="A161" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>671</v>
       </c>
     </row>
@@ -15991,7 +16094,7 @@
       <c r="A167" t="s">
         <v>682</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>683</v>
       </c>
     </row>
@@ -16012,10 +16115,10 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>689</v>
       </c>
     </row>
@@ -16039,7 +16142,7 @@
       <c r="A173" t="s">
         <v>694</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>695</v>
       </c>
     </row>
@@ -16055,14 +16158,17 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="43.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="63.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="40.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="8.77777777777778" customWidth="1"/>
     <col min="6" max="6" width="33.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16073,233 +16179,256 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>696</v>
+      </c>
       <c r="F1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="F2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>703</v>
+      <c r="A4" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>705</v>
-      </c>
+    <row r="5" ht="43.2" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>710</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>711</v>
+        <v>717</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>712</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B11" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B12" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>722</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>725</v>
+        <v>731</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B16" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>728</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>729</v>
+        <v>735</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>732</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>733</v>
+        <v>739</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="7" t="s">
-        <v>734</v>
+      <c r="A20" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="B20" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B22" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>741</v>
+        <v>747</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="B24" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B26" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>749</v>
+      <c r="A27" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
-      <c r="A28" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>751</v>
+      <c r="A28" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="13511" windowHeight="9624" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="789">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11503,6 +11503,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I am getting</t>
     </r>
     <r>
@@ -11518,6 +11525,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我变得越来越</t>
     </r>
     <r>
@@ -11601,6 +11615,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I have no idea</t>
     </r>
     <r>
@@ -11616,6 +11637,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我不知道</t>
     </r>
     <r>
@@ -11735,6 +11763,9 @@
   </si>
   <si>
     <t>Straight up是不加冰，on the rocks 是加冰。当然也可以直接说coke with ice.</t>
+  </si>
+  <si>
+    <t>捧月华如胧，拾芬芳其中</t>
   </si>
   <si>
     <r>
@@ -12181,6 +12212,333 @@
 在上帝的见证下、神的律法的指引下，我，愿意嫁给/娶你，作为我的丈夫/妻子。从此刻到永远，无论顺境或逆境、富有或贫穷、健康或疾病，我都将爱着你、珍惜你，直到死亡将我们分开。
 婚礼仪式之后就是办酒席，一般bestman还会做一个演讲，爆料一些新郎的黑历史。
 最后大家去拍照，新人们去登记结婚。然后一场浪漫的婚礼就结束了。</t>
+  </si>
+  <si>
+    <t>夸人的表达：</t>
+  </si>
+  <si>
+    <t>Well done！</t>
+  </si>
+  <si>
+    <t>做得好！
+依然是比较初级的一种夸奖说法，但是会比very good稍微真诚一点。</t>
+  </si>
+  <si>
+    <t>That’s the way.</t>
+  </si>
+  <si>
+    <t>对，就是这个节奏！
+比较适合夸奖队友或者下属，会给人一种仿佛看到了新大陆一般的感觉，是一种春风化雨般的表扬。</t>
+  </si>
+  <si>
+    <t>You’re a genius！</t>
+  </si>
+  <si>
+    <t>你真是个天才！
+天才是一种极高的评价了！当别人做了某件事让你极为激动，就可以这么说，但一定要注意语气，不要阴阳怪气的说出这句话，要不别人会认为你在反讽。</t>
+  </si>
+  <si>
+    <t>You are a go-getter！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">你真能干！                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Go-getter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的意思本来是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实干家，精力充沛的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，在这句话的语境中表示“能干的人”，可以用来夸奖某个人在事业或者商业积极上进有能力！</t>
+    </r>
+  </si>
+  <si>
+    <t>Superb！
+棒极了
+Bravo！
+好极了！
+Nice going!
+干得好！</t>
+  </si>
+  <si>
+    <r>
+      <t>非常非常地道的三种夸奖人的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>口语说法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，能够表现出突如其来的激动欣喜，很有感染力！而且还能不经意间展现出自己口语的地道，非常棒！</t>
+    </r>
+  </si>
+  <si>
+    <t>Your are very professional！</t>
+  </si>
+  <si>
+    <t>你非常专业！
+夸专业的人，要有专业的夸法，如果不知道怎么专业的夸，Your are very professional就看起来很专业。</t>
+  </si>
+  <si>
+    <t>You have a good taste.</t>
+  </si>
+  <si>
+    <t>对于一些层级比较高的精英来说，自身的“高品味”是他们极为自豪的。
+同样的，他们会对水平低的马屁不屑一顾，但一般会对“You have a good taste”这句话非常受用。</t>
+  </si>
+  <si>
+    <t>Hot air</t>
+  </si>
+  <si>
+    <r>
+      <t>因为热空气往上走，吹牛皮也是越吹越大往上飘。不仅可以指“热空气”，还有“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吹牛，说大话，夸夸其谈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”的意思。</t>
+    </r>
+  </si>
+  <si>
+    <t>七夕节的说法：</t>
+  </si>
+  <si>
+    <t>Qixi Festival 七夕节
+Double Seventh Festival 双七节
+Magpie Festival 喜鹊节
+The Begging Festival 乞巧节                                       比较常见的是the Chinese Saint Valentine's Day，翻译为“中国圣瓦伦丁节”（圣瓦伦丁节就是每年的2.14情人节）。               lunar month 农历月
+Lunar calendar 阴历
+Matchmaker temples 月老庙
+A bridge of magpies 鹊桥
+The Milky Way 银河
+Vega 织女星
+Altair 牛郎星/牵牛星</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think she's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hitting on me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我觉得她在撩我呢~                                               
+Hit on sb，意思是通过一系列的行动，试图让对方喜欢上你，比方说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>撩汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就可以说是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hit on a guy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Who is that pretty girl you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chat up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> last night.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">昨晚你与之谈笑风生的那个漂亮姑娘是谁。                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chat up 搭讪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，勾搭小姐姐小哥哥的第一步，通常都是chat up~</t>
+    </r>
+  </si>
+  <si>
+    <t>Rose英文名不要用</t>
+  </si>
+  <si>
+    <t>容易让人联想到夜店女郎</t>
+  </si>
+  <si>
+    <t>剧名翻译：</t>
+  </si>
+  <si>
+    <t>1、《睡在我上铺的兄弟》-&gt; Who sleeps my bro？谁睡了我的兄弟？  2、《流星花园》 -&gt; Meteor Garden                              Meteor：陨石 Shooting star：流星                               3、《海上牧云记》-&gt; Tribes and Empires 直译过来就是：为了部落！《宫锁连城》：The Lost Daughter：丢失的女儿
+《寂寞空庭春欲晚》Chronicle Of Life：今生缘已尽
+《延禧攻略》Story of Yanxi Palace：延禧宫的故事
+《秦时丽人明月心》The King's Woman：王的女人                  《招摇》：The Legends
+《古剑奇谭》：Swords of Legends
+《皓镧传》：The Legend of Haolan
+《扶摇》：Legend Of Fu Yao                                          这么说来，以后卡卡拍电影，名字是不是可以叫做The Legend Of Kaka或者The Legend Of Acadsoc呢？听起来倒颇有些史诗感。</t>
+  </si>
+  <si>
+    <t>封杀和拉黑：</t>
+  </si>
+  <si>
+    <r>
+      <t>ban或strangle 封杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">乔碧萝   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defriend拉黑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，朋友圈里友尽</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12188,12 +12546,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12221,6 +12579,13 @@
       <color rgb="FF595959"/>
       <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -12271,7 +12636,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12285,16 +12755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12309,108 +12772,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12478,13 +12843,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12496,13 +12891,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12514,31 +12927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12556,73 +12963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12640,25 +12993,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12669,6 +13034,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -12690,8 +13079,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12700,7 +13104,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12730,45 +13134,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12777,10 +13142,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12789,137 +13154,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12944,11 +13309,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -12959,19 +13327,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -13341,10 +13712,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13355,7 +13726,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13373,10 +13744,10 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13509,7 +13880,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13561,7 +13932,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -13603,7 +13974,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -13645,10 +14016,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -13701,10 +14072,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -13962,7 +14333,7 @@
       <c r="B37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -14075,7 +14446,7 @@
       <c r="A50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -14128,7 +14499,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="20" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -14243,7 +14614,7 @@
       <c r="A71" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -14401,7 +14772,7 @@
       <c r="A91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -14496,7 +14867,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="12" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -14679,7 +15050,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="21" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -14721,20 +15092,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="11" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14912,19 +15283,19 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="5"/>
       <c r="E18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="5"/>
       <c r="E19" t="s">
         <v>394</v>
       </c>
@@ -14960,7 +15331,7 @@
       <c r="B22" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="5"/>
       <c r="E22" t="s">
         <v>403</v>
       </c>
@@ -15127,7 +15498,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15223,7 +15594,7 @@
       <c r="A54" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="5" t="s">
         <v>468</v>
       </c>
     </row>
@@ -15241,7 +15612,7 @@
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B57" t="s">
@@ -15421,7 +15792,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="13" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -15573,7 +15944,7 @@
       <c r="A100" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -15644,7 +16015,7 @@
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="5" t="s">
         <v>571</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -15703,7 +16074,7 @@
       <c r="A117" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="5" t="s">
         <v>586</v>
       </c>
     </row>
@@ -15825,7 +16196,7 @@
       <c r="A133" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="5" t="s">
         <v>616</v>
       </c>
     </row>
@@ -15923,7 +16294,7 @@
       </c>
     </row>
     <row r="146" ht="28.8" spans="1:2">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="5" t="s">
         <v>640</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -16046,7 +16417,7 @@
       <c r="A161" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="5" t="s">
         <v>671</v>
       </c>
     </row>
@@ -16115,7 +16486,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="14" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -16156,10 +16527,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -16221,10 +16592,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -16237,7 +16608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:4">
+    <row r="5" ht="43.2" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>711</v>
       </c>
@@ -16246,189 +16617,309 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="F5" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B20" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B22" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B24" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B26" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="30" ht="43.2" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" ht="57.6" spans="1:2">
+      <c r="A31" t="s">
+        <v>763</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" ht="72" spans="1:2">
+      <c r="A32" t="s">
+        <v>765</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="33" ht="57.6" spans="1:2">
+      <c r="A33" t="s">
+        <v>767</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="34" ht="115.2" spans="1:2">
+      <c r="A34" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="35" ht="57.6" spans="1:2">
+      <c r="A35" t="s">
+        <v>771</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="36" ht="72" spans="1:2">
+      <c r="A36" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:2">
+      <c r="A37" t="s">
+        <v>775</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="38" ht="201.6" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>783</v>
+      </c>
+      <c r="B41" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="42" ht="201.6" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13511" windowHeight="9624" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="795">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11729,6 +11729,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>You can't imagine</t>
     </r>
     <r>
@@ -11744,6 +11751,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你无法想象</t>
     </r>
     <r>
@@ -11765,6 +11779,52 @@
     <t>Straight up是不加冰，on the rocks 是加冰。当然也可以直接说coke with ice.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hungry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reach the top.</t>
+    </r>
+  </si>
+  <si>
+    <t>太...而不能...                 我太饿了以至于不能爬到山顶。</t>
+  </si>
+  <si>
     <t>捧月华如胧，拾芬芳其中</t>
   </si>
   <si>
@@ -11803,10 +11863,56 @@
     <t>我想要加冰块的健怡可乐。    Diet coke：无糖可乐</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">You </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">must be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>happy.You must be tired！</t>
+    </r>
+  </si>
+  <si>
+    <t>must+动词  表示强烈的推测</t>
+  </si>
+  <si>
     <t>best friend forever 的缩写Bff</t>
   </si>
   <si>
     <t>老铁  表达美丽而又永不凋谢的钢铁友谊</t>
+  </si>
+  <si>
+    <r>
+      <t>There's no need to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> say thankyou to me.</t>
+    </r>
+  </si>
+  <si>
+    <t>There's no need to do something.不用...              不用还我钱了：There's no need to pay back the money to me? There's no need to pay me back?</t>
   </si>
   <si>
     <t>脏话怎么说：</t>
@@ -12242,6 +12348,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">你真能干！                                                      </t>
     </r>
     <r>
@@ -12295,6 +12408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>非常非常地道的三种夸奖人的</t>
     </r>
     <r>
@@ -12337,6 +12457,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>因为热空气往上走，吹牛皮也是越吹越大往上飘。不仅可以指“热空气”，还有“</t>
     </r>
     <r>
@@ -12377,6 +12504,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I think she's </t>
     </r>
     <r>
@@ -12402,6 +12536,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我觉得她在撩我呢~                                               
 Hit on sb，意思是通过一系列的行动，试图让对方喜欢上你，比方说</t>
     </r>
@@ -12437,18 +12578,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Who is that pretty girl you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>chat up</t>
-    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -12456,11 +12585,36 @@
         <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">Who is that pretty girl you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chat up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> last night.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">昨晚你与之谈笑风生的那个漂亮姑娘是谁。                           </t>
     </r>
     <r>
@@ -12507,6 +12661,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ban或strangle 封杀</t>
     </r>
     <r>
@@ -12547,11 +12708,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12570,6 +12731,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12635,6 +12802,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -12646,6 +12860,44 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12672,54 +12924,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12732,14 +12939,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -12747,39 +12946,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12843,13 +13011,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12861,49 +13089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12915,61 +13101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12987,7 +13125,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12999,31 +13167,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13037,17 +13205,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13086,25 +13263,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13119,21 +13302,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13142,10 +13310,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13154,137 +13322,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13309,10 +13477,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -13330,19 +13498,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -13712,10 +13883,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13726,7 +13897,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -13880,7 +14051,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13932,7 +14103,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -13974,7 +14145,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -14016,10 +14187,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -14072,10 +14243,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -14499,7 +14670,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -14867,7 +15038,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -14875,7 +15046,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -15050,7 +15221,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -15092,20 +15263,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15440,7 +15611,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15466,7 +15637,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="10" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -15498,7 +15669,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15792,7 +15963,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -16039,7 +16210,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="10" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -16185,7 +16356,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -16486,7 +16657,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -16529,8 +16700,8 @@
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -16592,10 +16763,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -16615,311 +16786,327 @@
       <c r="B5" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>714</v>
+      </c>
       <c r="F5" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>717</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" ht="86.4" spans="1:4">
       <c r="A7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B7" t="s">
-        <v>717</v>
+        <v>721</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
       <c r="A8" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B12" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B18" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B22" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B24" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B25" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B26" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
-      <c r="A30" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>762</v>
+      <c r="A30" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>763</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>764</v>
+        <v>769</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>765</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>766</v>
+        <v>771</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>767</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>768</v>
+        <v>773</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>770</v>
+      <c r="A34" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>771</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>772</v>
+        <v>777</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
-      <c r="A36" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>774</v>
+      <c r="A36" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>775</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>776</v>
+        <v>781</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>780</v>
+        <v>785</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>782</v>
+      <c r="A40" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B41" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>786</v>
+        <v>791</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>787</v>
+      <c r="A43" s="11" t="s">
+        <v>793</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="13511" windowHeight="9624" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="801">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11780,6 +11780,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I'm </t>
     </r>
     <r>
@@ -11864,6 +11870,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You </t>
     </r>
     <r>
@@ -11898,6 +11911,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>There's no need to</t>
     </r>
     <r>
@@ -11922,6 +11942,12 @@
 fuck; shit; damn; goddamn; ass；
 但因为时刻需要保持职场人的体面，这些脏话卡卡不建议大家说         Stupid，idiot，foolish，silly，这些基本词汇想必你都认识了。
 这几个词的攻击性太强，不够体面，卡卡不推荐小仙女们使用</t>
+  </si>
+  <si>
+    <t>Please forgive me for doing something.</t>
+  </si>
+  <si>
+    <t>举例：Please forgive me for arriving late.原谅我来晚了。Please forgive me for losing my temper.请原谅我不小心发脾气了(丢失了我的脾气)</t>
   </si>
   <si>
     <t>骂人蠢：</t>
@@ -12701,16 +12727,197 @@
       <t>，朋友圈里友尽</t>
     </r>
   </si>
+  <si>
+    <t>打招呼的正确打开方式：</t>
+  </si>
+  <si>
+    <r>
+      <t>1、同事打招呼：国外的职场人如果在走廊、电梯或者洗手间相遇，一般只会简单地说上一句：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hey！ Hey man！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这种场合，双方都无暇停留，出于职场人的体面，一句简单的招呼即可以表达对于对方的问候。                                            若是遇上了一名许久不见的同事，或者想多说几句，就可以说：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hey，What's going on!你好！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如果是回应的话，可以说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hi！How are you！（你好啊）！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+注意了！这里的How are you是“你好”的意思，并不需要你去再次回应！千万别像教科书上那样：I'm fine，thank you，and you？老外可能会认为你无趣且教条！                                                         2、朋友打招呼：在生活中遇到老熟人，或者你本身就是一个外向活泼的人，就可以这样说：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hey，What's up buddy!哥们好啊！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+假如老外先开腔向你亲切问候，为了避免过于生疏，你可以这样回应：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hey man！哥们好！                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有些美国人会用sup来问候，这是最近几年比较流行的问候语，是What's up的缩写，也是“你好”的意思。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Hey how you doing！你好！
+-Sup！你好！                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、假设你一个人走在路上，对面走过来好几个人，如何一对多的问候呢？这里给大家举几个安全且常用的例子：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Hey. What's going on!  你（们）好！
+-Hi！How are you!  你（们）好！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果是比较熟的人，可以说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hey guys！                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这里再次提醒大家一下，不管是What's going on还是How are you都是“你好”的意思，并不需要再向对方解释“你到底好不好”，一般打完招呼之后双方就擦肩而过了，毕竟若没有什么事，相遇也不过是几秒钟的事情。当然你要是有心搭讪闲聊，自然是另当别论。</t>
+    </r>
+  </si>
+  <si>
+    <t>shortsighted  Tunnel vision</t>
+  </si>
+  <si>
+    <t>见识短浅  井底之蛙</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -12812,14 +13019,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -12827,10 +13026,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12841,18 +13040,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12871,15 +13063,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12888,6 +13087,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12902,14 +13116,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -12917,8 +13123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13011,6 +13218,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13023,31 +13236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13065,19 +13260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13089,13 +13278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13107,19 +13290,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13132,6 +13321,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13155,13 +13356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13173,7 +13374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13185,13 +13386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13206,6 +13413,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -13216,24 +13438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13256,23 +13460,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13310,10 +13517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13322,19 +13529,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13343,116 +13550,116 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13480,7 +13687,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -13883,10 +14093,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -13897,7 +14107,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14051,7 +14261,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14103,7 +14313,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14145,7 +14355,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -14187,10 +14397,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -14243,10 +14453,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -14670,7 +14880,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -15038,7 +15248,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -15046,7 +15256,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -15221,7 +15431,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="23" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -15263,20 +15473,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15611,7 +15821,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15637,7 +15847,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -15669,7 +15879,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>444</v>
       </c>
     </row>
@@ -15963,7 +16173,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -16210,7 +16420,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="11" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -16356,7 +16566,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="11" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -16657,7 +16867,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="16" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -16698,10 +16908,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -16763,10 +16973,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -16820,293 +17030,315 @@
       <c r="C7" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="8" ht="72" spans="1:2">
+    <row r="8" ht="72" spans="1:4">
       <c r="A8" t="s">
         <v>724</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>725</v>
       </c>
+      <c r="C8" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B12" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B16" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B18" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B20" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B22" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B25" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B26" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>787</v>
+      <c r="A40" s="11" t="s">
+        <v>789</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B41" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>793</v>
+      <c r="A43" s="12" t="s">
+        <v>795</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="44" ht="388.8" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>799</v>
+      </c>
+      <c r="B45" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="818">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11904,6 +11904,9 @@
     <t>must+动词  表示强烈的推测</t>
   </si>
   <si>
+    <t>云见日月初生时，照花如火雪如银</t>
+  </si>
+  <si>
     <t>best friend forever 的缩写Bff</t>
   </si>
   <si>
@@ -11933,6 +11936,9 @@
   </si>
   <si>
     <t>There's no need to do something.不用...              不用还我钱了：There's no need to pay back the money to me? There's no need to pay me back?</t>
+  </si>
+  <si>
+    <t>汪汪西步桃花候，去去南峦苍狗云</t>
   </si>
   <si>
     <t>脏话怎么说：</t>
@@ -12732,6 +12738,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1、同事打招呼：国外的职场人如果在走廊、电梯或者洗手间相遇，一般只会简单地说上一句：</t>
     </r>
     <r>
@@ -12907,6 +12920,315 @@
   </si>
   <si>
     <t>见识短浅  井底之蛙</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>原意是“和谐、和睦”，又因发音类似“鸿蒙”，故采用了这个单词</t>
+  </si>
+  <si>
+    <t>不是所有的面包都叫bread</t>
+  </si>
+  <si>
+    <t>热狗外面的面包叫bun，汉堡包外面的面包叫hamburger bun</t>
+  </si>
+  <si>
+    <t>狗狗名字</t>
+  </si>
+  <si>
+    <t>贵宾犬poodle，斗牛犬bulldogs，哈士奇husky，萨摩耶Samoyed，阿拉斯加雪橇犬Alaskan Malamute</t>
+  </si>
+  <si>
+    <t>炫富怎么说：</t>
+  </si>
+  <si>
+    <t>flaunt one’s hot pickled mustard tuber and tea egg：</t>
+  </si>
+  <si>
+    <r>
+      <t>炫耀自己的榨菜和茶叶蛋                                          在英语中，人们常用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flaunt wealth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炫富</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。Flaunt的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炫耀，夸耀，卖弄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They drove around in Rolls-Royces, openly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flaunting their wealth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <t>他们开着劳斯莱斯到处转悠，公开炫耀他们的财富。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If they can afford the hot pickled mustard tuber, they must be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rolling in it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果他们买得起榨菜，那他们一定极其富有。玩笑归玩笑，rolling in it真的是一种很地道的表达富有的方式哦~                         英语词组rolling in it，就形象的展示了“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>富到流油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”的场景，它的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>财源滚滚的，腰缠万贯的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，经常用来形容一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大亨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，或者是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超级富豪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">China has taken another solid step towards the goal of building a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>well-off society</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in an all-round way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中国又向全面建设小康社会的目标迈出了坚实一步。                 如果想要表示国家富有，社会繁荣，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Well-off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是个地道的说法，它不仅可以形容“人有钱”，还可以形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会和国家“国富民强”“繁荣昌盛”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Well-off：国富民强
+Well-off society 小康社会</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12914,10 +13236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13009,9 +13331,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13027,21 +13408,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13049,29 +13446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13086,21 +13461,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -13108,48 +13468,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13218,13 +13540,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13242,7 +13606,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13254,7 +13654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13266,25 +13684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13296,67 +13708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13368,37 +13720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13413,16 +13735,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13443,24 +13765,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -13471,6 +13795,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13498,17 +13831,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13517,10 +13839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13529,133 +13851,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13687,17 +14009,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -15256,7 +15578,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -15821,7 +16143,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15847,7 +16169,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16420,7 +16742,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -16566,7 +16888,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="9" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -16908,10 +17230,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17006,7 +17328,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>716</v>
       </c>
@@ -17019,326 +17341,393 @@
       <c r="D6" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="7" ht="86.4" spans="1:4">
+      <c r="F6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" ht="86.4" spans="1:6">
       <c r="A7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="F7" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:4">
       <c r="A8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="D8" s="10" t="s">
         <v>727</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="9" ht="57.6" spans="1:2">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B11" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B16" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B18" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B20" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B24" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B25" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B26" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="11" t="s">
-        <v>789</v>
+      <c r="A40" s="9" t="s">
+        <v>791</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B41" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>795</v>
+      <c r="A43" s="10" t="s">
+        <v>797</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B45" t="s">
-        <v>800</v>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>803</v>
+      </c>
+      <c r="B46" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>805</v>
+      </c>
+      <c r="B47" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="1:2">
+      <c r="A48" t="s">
+        <v>807</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" ht="43.2" spans="1:2">
+      <c r="A50" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" ht="28.8" spans="1:2">
+      <c r="A51" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B51" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="52" ht="72" spans="1:2">
+      <c r="A52" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="53" ht="86.4" spans="1:2">
+      <c r="A53" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13511" windowHeight="9624" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="820">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11964,6 +11964,56 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Someone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>looks forward to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> something/doing something.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>口语上比较正式，甚至是书面语.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">我期待什么事情/做什么事情 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   I look forward to working with you.                    I look forward to learning English with tiantian.          I look forward to living without you.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -12947,6 +12997,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>炫耀自己的榨菜和茶叶蛋                                          在英语中，人们常用</t>
     </r>
     <r>
@@ -13012,6 +13069,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">They drove around in Rolls-Royces, openly </t>
     </r>
     <r>
@@ -13040,6 +13104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If they can afford the hot pickled mustard tuber, they must be </t>
     </r>
     <r>
@@ -13065,6 +13136,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果他们买得起榨菜，那他们一定极其富有。玩笑归玩笑，rolling in it真的是一种很地道的表达富有的方式哦~                         英语词组rolling in it，就形象的展示了“</t>
     </r>
     <r>
@@ -13150,6 +13228,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">China has taken another solid step towards the goal of building a </t>
     </r>
     <r>
@@ -13175,6 +13260,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>中国又向全面建设小康社会的目标迈出了坚实一步。                 如果想要表示国家富有，社会繁荣，</t>
     </r>
     <r>
@@ -13236,10 +13328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13331,6 +13423,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -13346,45 +13446,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13399,7 +13461,75 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13414,6 +13544,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -13422,56 +13560,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13540,90 +13632,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13636,7 +13644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13648,13 +13668,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13678,7 +13746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13690,37 +13776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13735,16 +13827,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13764,17 +13856,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13798,39 +13923,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -13839,10 +13931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13851,137 +13943,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14009,17 +14101,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -14415,10 +14504,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14429,7 +14518,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14583,7 +14672,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14635,7 +14724,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14677,7 +14766,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -14719,10 +14808,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -14775,10 +14864,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -15202,7 +15291,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -15570,7 +15659,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -15578,7 +15667,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -15753,7 +15842,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -15795,20 +15884,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16143,7 +16232,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16169,7 +16258,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16201,7 +16290,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -16495,7 +16584,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -16742,7 +16831,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -16888,7 +16977,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -17189,7 +17278,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -17232,8 +17321,8 @@
   <sheetPr/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17295,10 +17384,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17376,358 +17465,364 @@
         <v>729</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:2">
+    <row r="9" ht="115.2" spans="1:4">
       <c r="A9" t="s">
         <v>730</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>731</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B12" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B16" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B18" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B21" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B22" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B24" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B25" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B26" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>791</v>
+      <c r="A40" s="10" t="s">
+        <v>793</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B41" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>797</v>
+      <c r="A43" s="11" t="s">
+        <v>799</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B45" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B46" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B47" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>807</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>811</v>
+      <c r="A50" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="12" t="s">
-        <v>812</v>
+      <c r="A51" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="B51" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
-      <c r="A52" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>815</v>
+      <c r="A52" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
-      <c r="A53" s="12" t="s">
-        <v>816</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>817</v>
+      <c r="A53" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="13404" windowHeight="9084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="834">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -11956,6 +11956,9 @@
     <t>举例：Please forgive me for arriving late.原谅我来晚了。Please forgive me for losing my temper.请原谅我不小心发脾气了(丢失了我的脾气)</t>
   </si>
   <si>
+    <t>一眼平生无限事，曾经陌上少年游</t>
+  </si>
+  <si>
     <t>骂人蠢：</t>
   </si>
   <si>
@@ -11964,6 +11967,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Someone </t>
     </r>
     <r>
@@ -11989,6 +11999,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>口语上比较正式，甚至是书面语.</t>
     </r>
     <r>
@@ -12074,6 +12091,46 @@
         <scheme val="minor"/>
       </rPr>
       <t>的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I enjoy running in the rain. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enioy doing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> something)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我很享受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在雨中跑步。</t>
     </r>
   </si>
   <si>
@@ -13322,16 +13379,157 @@
 Well-off society 小康社会</t>
     </r>
   </si>
+  <si>
+    <t>Why are you pulling a long face？</t>
+  </si>
+  <si>
+    <r>
+      <t>你为什么看起来不高兴呢？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a long face不高兴，板着脸</t>
+    </r>
+  </si>
+  <si>
+    <t>口语Here we go的常见含义：</t>
+  </si>
+  <si>
+    <r>
+      <t>Here we go！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edwards, get her to first aid!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>来吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，爱德华兹，把她送到急救室！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here we go. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First, can you tell me something about the ancient Olympics?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我们开始吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，首先，你能告诉我一些关于古代奥运会的事情吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here we go again. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what's the point of talking about it?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>又来了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>谈这个有什么意思。 （抱怨，又来了，又发生了！）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here we go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：1、来吧，我们来了！2、开始吧，我们快开始！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here we go again：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、又来了！又发生了！2、我们重新来吧！重新开始！</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13423,14 +13621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -13446,7 +13636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13454,7 +13644,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13469,15 +13659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13491,7 +13673,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -13499,8 +13687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13514,6 +13703,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -13521,8 +13719,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13536,25 +13743,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13632,7 +13830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13650,7 +13866,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13662,73 +13968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13740,7 +13980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13752,67 +14010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13823,6 +14021,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -13860,65 +14117,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -13931,10 +14129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13943,137 +14141,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14109,6 +14307,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -14504,10 +14705,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14518,7 +14719,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14672,7 +14873,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14724,7 +14925,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14766,7 +14967,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -14808,10 +15009,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -14864,10 +15065,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -15291,7 +15492,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -15659,7 +15860,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -15842,7 +16043,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="23" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -15884,20 +16085,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16290,7 +16491,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>444</v>
       </c>
     </row>
@@ -16584,7 +16785,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -17278,7 +17479,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="16" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -17319,10 +17520,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17384,10 +17585,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17451,7 +17652,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="8" ht="72" spans="1:4">
+    <row r="8" ht="72" spans="1:6">
       <c r="A8" t="s">
         <v>726</v>
       </c>
@@ -17464,365 +17665,419 @@
       <c r="D8" s="4" t="s">
         <v>729</v>
       </c>
+      <c r="F8" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="9" ht="115.2" spans="1:4">
       <c r="A9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="C9" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B12" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B16" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B20" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B21" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B22" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B24" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B25" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B41" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="11" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B45" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B46" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B47" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B51" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>819</v>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>823</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:2">
+      <c r="A57" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:2">
+      <c r="A58" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" ht="28.8" spans="1:2">
+      <c r="A59" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13404" windowHeight="9084" activeTab="3"/>
+    <workbookView windowWidth="11520" windowHeight="8747" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="843">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12030,6 +12030,9 @@
     </r>
   </si>
   <si>
+    <t>蓝桥春雪君归日，秦岭秋风我去时</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12095,6 +12098,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I enjoy running in the rain. (</t>
     </r>
     <r>
@@ -12120,6 +12130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我很享受</t>
     </r>
     <r>
@@ -13384,6 +13401,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你为什么看起来不高兴呢？</t>
     </r>
     <r>
@@ -13402,6 +13426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Here we go！</t>
     </r>
     <r>
@@ -13417,6 +13448,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>来吧</t>
     </r>
     <r>
@@ -13432,6 +13470,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Here we go. </t>
     </r>
     <r>
@@ -13447,6 +13492,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们开始吧</t>
     </r>
     <r>
@@ -13462,6 +13514,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Here we go again. </t>
     </r>
     <r>
@@ -13477,6 +13536,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>又来了。</t>
     </r>
     <r>
@@ -13492,6 +13558,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Here we go</t>
     </r>
     <r>
@@ -13507,6 +13580,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Here we go again：</t>
     </r>
     <r>
@@ -13519,6 +13599,100 @@
       </rPr>
       <t>1、又来了！又发生了！2、我们重新来吧！重新开始！</t>
     </r>
+  </si>
+  <si>
+    <t>Blue blood 贵族血统，高贵血统</t>
+  </si>
+  <si>
+    <t>六大Blue blood：Dior、Chanel、Louis Vuitton、Gucci、Prada、Calvin Klein</t>
+  </si>
+  <si>
+    <t>违约、解约的说法：</t>
+  </si>
+  <si>
+    <t>rescind a contract 解约
+cancel a contract 解约                                      breach ：英 [briːtʃ]  美 [britʃ]
+n. 违背，违反；缺口
+vt. 违反，破坏；打破
+breach of：违反
+breach of contract : 违约</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the seller </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rescind the contract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it may require the buyer to pay a fee for its use of the subject matter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>卖方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解除合同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，可以向买方要求支付该标的物的使用费。           cancel这个词大家都认识，是“解除、删除”的意思，rescind（英 [rɪ'sɪnd]  美 [rɪ'sɪnd]）与之类似，但在商务英语上，rescind a contract用的更加频繁一点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each of the two parties in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breach of contract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shall bear his civil liability.</t>
+    </r>
+  </si>
+  <si>
+    <t>违约双方各承担民事责任。</t>
   </si>
 </sst>
 </file>
@@ -13526,10 +13700,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13622,13 +13796,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -13636,38 +13803,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13681,15 +13824,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13711,35 +13892,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13751,17 +13908,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13830,13 +14004,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13848,7 +14112,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13860,157 +14184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14021,41 +14195,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -14084,6 +14223,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -14098,17 +14252,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14121,6 +14271,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14129,10 +14303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14141,137 +14315,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14299,16 +14473,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -14705,10 +14882,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14719,7 +14896,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -14873,7 +15050,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14925,7 +15102,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -14967,7 +15144,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -15009,10 +15186,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -15065,10 +15242,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -15492,7 +15669,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -15860,7 +16037,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -15868,7 +16045,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -16043,7 +16220,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="24" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -16085,20 +16262,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16433,7 +16610,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16459,7 +16636,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16491,7 +16668,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>444</v>
       </c>
     </row>
@@ -16785,7 +16962,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -17032,7 +17209,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -17178,7 +17355,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -17479,7 +17656,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="17" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -17520,10 +17697,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17585,10 +17762,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17669,7 +17846,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" ht="115.2" spans="1:4">
+    <row r="9" ht="115.2" spans="1:6">
       <c r="A9" t="s">
         <v>731</v>
       </c>
@@ -17682,402 +17859,437 @@
       <c r="D9" s="4" t="s">
         <v>734</v>
       </c>
+      <c r="F9" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C10" s="9" t="s">
         <v>737</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>738</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="B15" s="10" t="s">
         <v>748</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B16" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B20" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B26" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>796</v>
+      <c r="A40" s="9" t="s">
+        <v>797</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B41" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>802</v>
+      <c r="A43" s="10" t="s">
+        <v>803</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B45" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B46" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B47" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B51" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="12" t="s">
-        <v>828</v>
+      <c r="A57" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
-      <c r="A58" s="12" t="s">
-        <v>830</v>
+      <c r="A58" s="5" t="s">
+        <v>831</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
-      <c r="A59" s="12" t="s">
-        <v>832</v>
+      <c r="A59" s="5" t="s">
+        <v>833</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>835</v>
+      </c>
+      <c r="B60" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" ht="115.2" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="62" ht="57.6" spans="1:2">
+      <c r="A62" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="63" ht="28.8" spans="1:2">
+      <c r="A63" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="8747" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="845">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12187,6 +12187,58 @@
   </si>
   <si>
     <r>
+      <t>I can stand</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your bad temper.            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I can stand to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work more hours.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我可以忍受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你的坏脾气。       
+我可以忍住再去工作几小时。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -13619,6 +13671,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If the seller </t>
     </r>
     <r>
@@ -13643,6 +13701,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卖方</t>
     </r>
     <r>
@@ -13668,6 +13733,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Each of the two parties in </t>
     </r>
     <r>
@@ -13700,10 +13772,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13802,6 +13874,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -13810,14 +13943,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13839,103 +14005,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14004,7 +14076,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14016,25 +14118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14052,13 +14142,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14070,55 +14190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14130,13 +14208,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14148,19 +14226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14178,7 +14244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14198,11 +14270,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14222,17 +14342,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14251,50 +14367,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14303,10 +14375,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14315,137 +14387,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14473,20 +14545,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -14882,10 +14948,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14896,7 +14962,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15050,7 +15116,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15102,7 +15168,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -15144,7 +15210,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -15186,10 +15252,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -15242,10 +15308,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -15669,7 +15735,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -16037,7 +16103,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -16045,7 +16111,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -16220,7 +16286,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="24" t="s">
+      <c r="A128" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -16262,20 +16328,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16610,7 +16676,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16636,7 +16702,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16668,7 +16734,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -16962,7 +17028,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -17209,7 +17275,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -17355,7 +17421,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -17656,7 +17722,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -17699,8 +17765,8 @@
   <sheetPr/>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17762,10 +17828,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17877,419 +17943,425 @@
         <v>739</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" ht="28.8" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>740</v>
       </c>
       <c r="B11" t="s">
         <v>741</v>
       </c>
+      <c r="C11" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B12" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B16" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B20" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B21" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B24" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B25" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B26" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>797</v>
+      <c r="A40" s="10" t="s">
+        <v>799</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B41" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>803</v>
+      <c r="A43" s="11" t="s">
+        <v>805</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B45" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B46" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B47" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B51" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B60" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
-      <c r="A62" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>840</v>
+      <c r="A62" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
-      <c r="A63" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>842</v>
+      <c r="A63" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="23256" windowHeight="9647" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="862">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12151,6 +12151,9 @@
     </r>
   </si>
   <si>
+    <t>月下飞天镜，云生结海楼</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12187,6 +12190,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I can stand</t>
     </r>
     <r>
@@ -12223,6 +12233,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我可以忍受</t>
     </r>
     <r>
@@ -12271,6 +12288,56 @@
   </si>
   <si>
     <t>今天上午你怎么笨手笨脚的！</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> something/doing something.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擅长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
   </si>
   <si>
     <t>Wise up, please.</t>
@@ -13766,16 +13833,123 @@
   <si>
     <t>违约双方各承担民事责任。</t>
   </si>
+  <si>
+    <t>电影全面flop：</t>
+  </si>
+  <si>
+    <t>poor guy：港式英语“扑街”，寓意凉凉
+flop：失败</t>
+  </si>
+  <si>
+    <t>The acting of male teen heartthrobs does not measure up. The plot is bad.</t>
+  </si>
+  <si>
+    <t>流量小生演技不达标，电影情节也很糟糕。</t>
+  </si>
+  <si>
+    <t>When pop idols reign over the market，all the resources will go to young, handsome and pretty faces. How can those with real acting ability succeed in such an environment?</t>
+  </si>
+  <si>
+    <t>当流量逻辑绑架整个市场，各种资源都奔着“鲜肉”“小花”去，那些靠真本事吃饭的演技派又何谈出头？</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>philosophical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about losing and said that he'd be back next year to try again.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他对失败处之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泰然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，声称来年将再来一试身手。                    意思是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“超然达观，看淡一切”，也可以表示“哲学的”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>Today people online are saying The Wandering Earth opened a door to Chinese science-fiction, but the door was closed by Shanghai Fortress. I was very saddened.</t>
+  </si>
+  <si>
+    <t>大家都评论说《流浪地球》打开了中国科幻的门，而《上海堡垒》又把它关上了，听到这样的话，我很伤心。</t>
+  </si>
+  <si>
+    <t>This showed not only their dissatisfaction with the movie, but that their hopes for Chinese sci-fi movies were dashed. As a director, I have an unshirkable responsibility. I am very sorry.</t>
+  </si>
+  <si>
+    <t>这不仅仅是对电影不满意，也是对中国科幻电影的期待落空了，作为导演，我有着不可推卸的责任，真的很抱歉。</t>
+  </si>
+  <si>
+    <t>sea dog</t>
+  </si>
+  <si>
+    <t>航海方面有经验的人，老练的水手。                                英语俚语中，dog除了指狗，还可以指人，有经验的人，重要的人。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -13867,16 +14041,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13890,18 +14057,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13913,7 +14073,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -13921,15 +14081,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13958,6 +14119,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -13965,25 +14134,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13996,16 +14169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14076,7 +14250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14088,7 +14280,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14100,19 +14340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14124,61 +14382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14190,25 +14400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14220,13 +14412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14238,25 +14430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14270,17 +14444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14309,11 +14483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14327,17 +14507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14353,17 +14527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14375,10 +14549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14387,137 +14561,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14545,14 +14719,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -14948,10 +15125,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14962,7 +15139,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15116,7 +15293,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15168,7 +15345,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -15210,7 +15387,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -15252,10 +15429,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -15308,10 +15485,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -15735,7 +15912,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -16103,7 +16280,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -16111,7 +16288,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -16286,7 +16463,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="23" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -16328,20 +16505,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16676,7 +16853,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16702,7 +16879,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -16734,7 +16911,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>444</v>
       </c>
     </row>
@@ -17028,7 +17205,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -17275,7 +17452,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -17421,7 +17598,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -17722,7 +17899,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="16" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -17763,10 +17940,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -17828,10 +18005,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17929,7 +18106,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:4">
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>736</v>
       </c>
@@ -17942,426 +18119,491 @@
       <c r="D10" s="3" t="s">
         <v>739</v>
       </c>
+      <c r="F10" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="11" ht="28.8" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B11" t="s">
-        <v>741</v>
-      </c>
-      <c r="C11" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B12" t="s">
-        <v>745</v>
+        <v>746</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="13" ht="57.6" spans="1:2">
       <c r="A13" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B16" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B18" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B20" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B21" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B22" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B24" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B25" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B26" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>799</v>
+      <c r="A40" s="9" t="s">
+        <v>802</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B41" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>805</v>
+      <c r="A43" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B45" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B46" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B47" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B51" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B60" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>844</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="64" ht="28.8" spans="1:2">
+      <c r="A64" t="s">
+        <v>848</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="65" ht="28.8" spans="1:2">
+      <c r="A65" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B65" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="66" ht="72" spans="1:2">
+      <c r="A66" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="67" ht="28.8" spans="1:2">
+      <c r="A67" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="68" ht="57.6" spans="1:2">
+      <c r="A68" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="69" ht="72" spans="1:2">
+      <c r="A69" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="70" ht="28.8" spans="1:2">
+      <c r="A70" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647" activeTab="3"/>
+    <workbookView windowWidth="21000" windowHeight="8484" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="875">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12255,6 +12255,9 @@
     </r>
   </si>
   <si>
+    <t>缥缈神仙海上，飘零图画人间</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12291,6 +12294,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I am </t>
     </r>
     <r>
@@ -12316,6 +12326,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我很</t>
     </r>
     <r>
@@ -12402,6 +12419,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>尾音拉长一点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount of my friends，I am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">best at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teaching English.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在我众多朋友里，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最擅长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
     </r>
   </si>
   <si>
@@ -13854,6 +13921,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He was </t>
     </r>
     <r>
@@ -13879,6 +13953,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他对失败处之</t>
     </r>
     <r>
@@ -13939,6 +14020,298 @@
   </si>
   <si>
     <t>航海方面有经验的人，老练的水手。                                英语俚语中，dog除了指狗，还可以指人，有经验的人，重要的人。</t>
+  </si>
+  <si>
+    <t>no zuo no die</t>
+  </si>
+  <si>
+    <t>urban dictionary中文译名为“城市词典”，是一个美国在线俚语词典，已被该词典收录</t>
+  </si>
+  <si>
+    <t>华为研究6G、未雨绸缪的说法：</t>
+  </si>
+  <si>
+    <r>
+      <t>1、在英语中，该如何表达“未雨绸缪”呢？有个非常地道的说法：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>better safe than sorry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这是一句谚语，意思是“安全总比遗憾好”，也可以表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人或者事物有前瞻性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，能够未雨绸缪。               2、还有一个习语，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>save for a rainy day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也可以来表示“未雨绸缪”。但是它的意思倾向于“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做两手准备，即便有意外发生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从容应对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">强调应对未知的危机                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、与“未雨绸缪”相对应的一个成语，是“亡羊补牢”。前者强调提前做好准备，后者则强调失败后及时弥补。
+习语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就可以理解为“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亡羊补牢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。
+damage意思是损坏，而control是控制。damage control，就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">采取一些措施，将失败降低到最小。                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、 圈里还有一个常用的词叫做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crisis management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也就是我们所说的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>危机公关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为在生活口语中不常见，所以这个词大家了解下就好~</t>
+    </r>
+  </si>
+  <si>
+    <t>It's better to be safe than sorry.</t>
+  </si>
+  <si>
+    <t>未雨绸缪嘛。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>save for a rainy day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>你该存点钱，以备不时之需。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Our first priority would be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damage control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, not privacy.</t>
+    </r>
+  </si>
+  <si>
+    <t>我们现在的首要任务是降低损失，而不是保护隐私。</t>
   </si>
 </sst>
 </file>
@@ -13946,10 +14319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -14041,9 +14414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14051,7 +14423,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14066,7 +14475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14074,9 +14483,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14096,8 +14505,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14110,60 +14528,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14177,11 +14543,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14250,7 +14623,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14262,7 +14713,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14274,7 +14767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14298,139 +14803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14444,17 +14817,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14474,15 +14876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -14498,11 +14891,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14515,32 +14914,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14549,10 +14922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14561,133 +14934,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14719,6 +15092,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -14726,9 +15102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16288,7 +16661,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -16853,7 +17226,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16879,7 +17252,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -17452,7 +17825,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -17598,7 +17971,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -17940,10 +18313,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18123,7 +18496,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:4">
+    <row r="11" ht="28.8" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>741</v>
       </c>
@@ -18136,474 +18509,523 @@
       <c r="D11" s="5" t="s">
         <v>744</v>
       </c>
+      <c r="F11" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="13" ht="57.6" spans="1:2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" spans="1:4">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="14" ht="86.4" spans="1:2">
       <c r="A14" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>754</v>
+        <v>756</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B16" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B18" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B22" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B24" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B25" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B26" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="9" t="s">
-        <v>802</v>
+      <c r="A40" s="10" t="s">
+        <v>805</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B41" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>808</v>
+      <c r="A43" s="11" t="s">
+        <v>811</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B45" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B46" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B47" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B51" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B60" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:2">
       <c r="A64" t="s">
-        <v>848</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>849</v>
+        <v>851</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
-      <c r="A65" s="11" t="s">
-        <v>850</v>
+      <c r="A65" s="6" t="s">
+        <v>853</v>
       </c>
       <c r="B65" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
-      <c r="A66" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>853</v>
+      <c r="A66" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
-      <c r="A67" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>855</v>
+      <c r="A67" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
-      <c r="A68" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>857</v>
+      <c r="A68" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
-      <c r="A69" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>859</v>
+      <c r="A69" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>861</v>
+        <v>863</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="71" ht="28.8" spans="1:2">
+      <c r="A71" t="s">
+        <v>865</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="72" ht="187.2" spans="1:2">
+      <c r="A72" t="s">
+        <v>867</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>869</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B74" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" ht="28.8" spans="1:2">
+      <c r="A75" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B75" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="891">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12357,6 +12357,9 @@
     </r>
   </si>
   <si>
+    <t>三更灯火五更鸡，正是男儿读书时</t>
+  </si>
+  <si>
     <t>Wise up, please.</t>
   </si>
   <si>
@@ -12423,6 +12426,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Amount of my friends，I am </t>
     </r>
     <r>
@@ -12448,6 +12458,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在我众多朋友里，我</t>
     </r>
     <r>
@@ -12476,6 +12493,36 @@
   </si>
   <si>
     <t>BS：美国的小仙女们是不喜欢说 shit 这个不雅的词的，所以她们会用shoot或者是BS（bull shit）来彰显自己还是很有气质和气度的。      Cut the crap，相当于中文中的“少说废话多做事”，“请停止你的表演”。                                                        尤其是遇到类似这种情况：“诶呀，这个logo能不能在放大的同时缩小一点呢？”你就可以说：Put up or shut up！</t>
+  </si>
+  <si>
+    <r>
+      <t>I forget to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tie my hair up.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我忘记做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...  我忘记梳起头发了。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -14032,6 +14079,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1、在英语中，该如何表达“未雨绸缪”呢？有个非常地道的说法：</t>
     </r>
     <r>
@@ -14259,6 +14313,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">You should </t>
     </r>
     <r>
@@ -14287,6 +14348,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Our first priority would be </t>
     </r>
     <r>
@@ -14312,6 +14380,156 @@
   </si>
   <si>
     <t>我们现在的首要任务是降低损失，而不是保护隐私。</t>
+  </si>
+  <si>
+    <t>1、Fat Chance2、good chance</t>
+  </si>
+  <si>
+    <t>1、一件事情不太可能发生，发生机会渺茫；2、一件事情发生机会很大</t>
+  </si>
+  <si>
+    <t>I am a chicken.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我好菜啊！ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chicken菜鸟</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm so difficult.或I'm so hard. 不是“我太难了”</t>
+  </si>
+  <si>
+    <r>
+      <t>difficult和hard只有在修饰事物的时候表示“困难的，艰难的”；形容人表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性格挑剔以及铁石心肠</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bend the truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I'll kill you.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果你敢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>颠倒黑白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我就杀了你。                                
+To say something that is not completely true，弯曲事实。</t>
+    </r>
+  </si>
+  <si>
+    <t>Any attempt to play with fire will only backfire.</t>
+  </si>
+  <si>
+    <t>玩火者自焚。</t>
+  </si>
+  <si>
+    <t>废青们常用的口号是："No rioters, only tyranny."也就是“没有暴徒，只有暴政”，这也是一种极为盲目的偏见。</t>
+  </si>
+  <si>
+    <t>废青，指的是那些无理想、不奋斗对社会毫无奉献，却盲目指责社会报复社会的青年人，在香港用的比较多。</t>
+  </si>
+  <si>
+    <r>
+      <t>外媒在提到“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>废青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”这个词的时候，多用的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the obsolete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示。Obsolete：废弃，废物</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14414,70 +14632,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14489,17 +14648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14515,7 +14666,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14529,17 +14680,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14550,11 +14769,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14623,7 +14841,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14635,25 +14943,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14665,145 +15021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14819,20 +15037,65 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14856,52 +15119,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14922,10 +15140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14934,133 +15152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15092,14 +15310,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -16661,7 +16879,7 @@
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -17226,7 +17444,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>430</v>
       </c>
     </row>
@@ -17252,7 +17470,7 @@
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -17825,7 +18043,7 @@
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="9" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -17971,7 +18189,7 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>613</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -18313,10 +18531,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18513,7 +18731,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>746</v>
       </c>
@@ -18526,507 +18744,572 @@
       <c r="D12" s="2" t="s">
         <v>749</v>
       </c>
+      <c r="F12" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="13" ht="57.6" spans="1:4">
       <c r="A13" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C13" s="9" t="s">
         <v>752</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="14" ht="86.4" spans="1:2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:4">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B16" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B18" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B21" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B22" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B24" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B25" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B26" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>805</v>
+      <c r="A40" s="9" t="s">
+        <v>808</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B41" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>811</v>
+      <c r="A43" s="10" t="s">
+        <v>814</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B45" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B46" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B47" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B51" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B60" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:2">
       <c r="A64" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B65" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="71" ht="28.8" spans="1:2">
       <c r="A71" t="s">
-        <v>865</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>866</v>
+        <v>868</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="72" ht="187.2" spans="1:2">
       <c r="A72" t="s">
-        <v>867</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>868</v>
+        <v>870</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>869</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>870</v>
+        <v>872</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B74" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
-      <c r="A75" s="9" t="s">
-        <v>873</v>
+      <c r="A75" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="B75" t="s">
-        <v>874</v>
-      </c>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>878</v>
+      </c>
+      <c r="B76" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>880</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78" ht="28.8" spans="1:2">
+      <c r="A78" t="s">
+        <v>882</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="1:2">
+      <c r="A79" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="80" ht="28.8" spans="1:2">
+      <c r="A80" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="B80" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="82" ht="43.2" spans="1:2">
+      <c r="A82" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="15264" windowHeight="8484" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="897">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12496,6 +12496,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>I forget to</t>
     </r>
     <r>
@@ -12511,6 +12518,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我忘记做</t>
     </r>
     <r>
@@ -12558,6 +12572,25 @@
   </si>
   <si>
     <t>我受够你的废话了，可以停止了吗？</t>
+  </si>
+  <si>
+    <r>
+      <t>You look good in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> green.                 
+You look good in this shirt.</t>
+    </r>
+  </si>
+  <si>
+    <t>你穿什么真好看。你穿绿色真好看。</t>
   </si>
   <si>
     <t>Put up or shut up.</t>
@@ -14392,6 +14425,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">我好菜啊！ </t>
     </r>
     <r>
@@ -14410,6 +14450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>difficult和hard只有在修饰事物的时候表示“困难的，艰难的”；形容人表示</t>
     </r>
     <r>
@@ -14425,6 +14472,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you </t>
     </r>
     <r>
@@ -14450,6 +14504,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果你敢</t>
     </r>
     <r>
@@ -14488,6 +14549,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>外媒在提到“</t>
     </r>
     <r>
@@ -14530,6 +14598,18 @@
       </rPr>
       <t>来表示。Obsolete：废弃，废物</t>
     </r>
+  </si>
+  <si>
+    <t>I have things to do.                    更地道的 I've got stuff.</t>
+  </si>
+  <si>
+    <t>我有事。</t>
+  </si>
+  <si>
+    <t>I have things.</t>
+  </si>
+  <si>
+    <t>1、我有东西 2、我要拿一些东西</t>
   </si>
 </sst>
 </file>
@@ -14537,10 +14617,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -14632,19 +14712,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14656,24 +14767,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14700,14 +14795,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -14722,9 +14809,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14733,37 +14844,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14841,7 +14921,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14853,109 +15005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14973,7 +15023,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14985,7 +15065,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15009,19 +15101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15039,7 +15119,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15059,6 +15163,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -15070,21 +15183,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15114,24 +15212,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -15140,10 +15220,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15152,137 +15232,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15313,14 +15393,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -15716,10 +15793,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
@@ -15730,7 +15807,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15884,7 +15961,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15936,7 +16013,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -15978,7 +16055,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -16020,10 +16097,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -16076,10 +16153,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -16503,7 +16580,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -16871,7 +16948,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -17054,7 +17131,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -17096,20 +17173,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -17502,7 +17579,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>444</v>
       </c>
     </row>
@@ -17796,7 +17873,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -18490,7 +18567,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="15" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -18531,10 +18608,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18596,10 +18673,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -18776,540 +18853,559 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:2">
+    <row r="15" ht="28.8" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>759</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>760</v>
       </c>
+      <c r="C15" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B16" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
       <c r="A17" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B21" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" ht="100.8" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B25" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B41" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>814</v>
+      <c r="A43" s="11" t="s">
+        <v>816</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B45" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B46" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B47" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B51" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B60" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:2">
       <c r="A64" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B65" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="71" ht="28.8" spans="1:2">
       <c r="A71" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="72" ht="187.2" spans="1:2">
       <c r="A72" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B74" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B75" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B76" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="78" ht="28.8" spans="1:2">
       <c r="A78" t="s">
-        <v>882</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>883</v>
+        <v>884</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="79" ht="28.8" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>885</v>
+        <v>886</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:2">
-      <c r="A80" s="12" t="s">
-        <v>886</v>
+      <c r="A80" s="6" t="s">
+        <v>888</v>
       </c>
       <c r="B80" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="82" ht="43.2" spans="1:2">
-      <c r="A82" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="11"/>
+      <c r="A82" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B83" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>895</v>
+      </c>
+      <c r="B84" t="s">
+        <v>896</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15264" windowHeight="8484" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1016">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12489,6 +12489,9 @@
     </r>
   </si>
   <si>
+    <t>江头橘树君自种，那不长系木兰船</t>
+  </si>
+  <si>
     <t>骂人作：</t>
   </si>
   <si>
@@ -12539,6 +12542,9 @@
     </r>
   </si>
   <si>
+    <t>卧看牵牛织女星，月转过梧桐树影</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -12575,6 +12581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>You look good in</t>
     </r>
     <r>
@@ -12593,28 +12606,122 @@
     <t>你穿什么真好看。你穿绿色真好看。</t>
   </si>
   <si>
+    <t>溪云初起日沉阁，山雨欲来风满楼</t>
+  </si>
+  <si>
     <t>Put up or shut up.</t>
   </si>
   <si>
     <t>要么你就去做，不然就请闭嘴。</t>
   </si>
   <si>
+    <t>You'd better do something.</t>
+  </si>
+  <si>
+    <t>你最好做某事。</t>
+  </si>
+  <si>
+    <t>此时相望不相闻，愿逐月华流照君</t>
+  </si>
+  <si>
     <t>回怼：</t>
   </si>
   <si>
     <t>那么，如果被别人diss了，该如何优雅反击呢？可以尝试一下“以不变应万变”来一句：</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">It's possible to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">have a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>slow paced life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> here.</t>
+    </r>
+  </si>
+  <si>
+    <t>在这里过慢生活是有可能的。有可能去做某事</t>
+  </si>
+  <si>
+    <t>满堂花醉三千客，一剑霜寒十四州</t>
+  </si>
+  <si>
     <t>You are another.</t>
   </si>
   <si>
     <t>你还不是一样。</t>
   </si>
   <si>
+    <r>
+      <t>It seems that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> everyone is taking a nap.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看起来好像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有人都在睡午觉。</t>
+    </r>
+  </si>
+  <si>
+    <t>一帘新雨后，与你遇浅秋</t>
+  </si>
+  <si>
     <t>If I am a fool, you are another.</t>
   </si>
   <si>
     <t>如果我是一个傻子，你还不是一样？</t>
+  </si>
+  <si>
+    <t>My train/flight is 90 mins(多久) late.</t>
+  </si>
+  <si>
+    <t>我的火车/航班晚了90分钟。</t>
+  </si>
+  <si>
+    <t>青山一道同云雨，明月何曾是两乡</t>
   </si>
   <si>
     <t>I'm off.走啦                               
@@ -12625,16 +12732,52 @@
     <t>good bye有点正式 日常再见可以这么说</t>
   </si>
   <si>
+    <t>Is there any discount for ___？</t>
+  </si>
+  <si>
+    <t>能不能打折呀？                Is there any discount for good looking？长得好看能不能打折呀？</t>
+  </si>
+  <si>
+    <t>梨花院落溶溶月，柳絮池塘淡淡风</t>
+  </si>
+  <si>
     <t>Do bird == to spend time in prison</t>
   </si>
   <si>
     <t>坐牢  像鸟儿一样被关在笼子里</t>
   </si>
   <si>
+    <t>It occurs to me that (顿悟).</t>
+  </si>
+  <si>
+    <t>自己突然有顿悟，突然有什么想法的时候。                  It occurs to me that life is similarity as the running track.</t>
+  </si>
+  <si>
+    <t>枕上诗书闲处好，门前风景雨来佳</t>
+  </si>
+  <si>
     <t>delicious</t>
   </si>
   <si>
     <t>本身就是一个强烈的形容词。very delicious 加个very就多余了</t>
+  </si>
+  <si>
+    <r>
+      <t>Can you get me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an icecream？</t>
+    </r>
+  </si>
+  <si>
+    <t>你能帮我带个冰淇淋吗？</t>
   </si>
   <si>
     <t>结婚的表达：</t>
@@ -12672,6 +12815,12 @@
       <t xml:space="preserve">
 像I want to marry这类的中式英语，真的很不地道哦~</t>
     </r>
+  </si>
+  <si>
+    <t>It's hard to do something.</t>
+  </si>
+  <si>
+    <t>It's hard to do lose weight.</t>
   </si>
   <si>
     <t>I will get married.</t>
@@ -13946,36 +14095,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Each of the two parties in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>breach of contract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> shall bear his civil liability.</t>
-    </r>
+    <t>Each of the two parties in breach of contract shall bear his civil liability.</t>
   </si>
   <si>
     <t>违约双方各承担民事责任。</t>
@@ -14000,77 +14120,513 @@
     <t>当流量逻辑绑架整个市场，各种资源都奔着“鲜肉”“小花”去，那些靠真本事吃饭的演技派又何谈出头？</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">He was </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>philosophical</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> about losing and said that he'd be back next year to try again.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他对失败处之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>泰然</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，声称来年将再来一试身手。                    意思是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“超然达观，看淡一切”，也可以表示“哲学的”</t>
+    <t>He was philosophical about losing and said that he'd be back next year to try again.</t>
+  </si>
+  <si>
+    <t>他对失败处之泰然，声称来年将再来一试身手。                    意思是“超然达观，看淡一切”，也可以表示“哲学的”。</t>
+  </si>
+  <si>
+    <t>Today people online are saying The Wandering Earth opened a door to Chinese science-fiction, but the door was closed by Shanghai Fortress. I was very saddened.</t>
+  </si>
+  <si>
+    <t>大家都评论说《流浪地球》打开了中国科幻的门，而《上海堡垒》又把它关上了，听到这样的话，我很伤心。</t>
+  </si>
+  <si>
+    <t>This showed not only their dissatisfaction with the movie, but that their hopes for Chinese sci-fi movies were dashed. As a director, I have an unshirkable responsibility. I am very sorry.</t>
+  </si>
+  <si>
+    <t>这不仅仅是对电影不满意，也是对中国科幻电影的期待落空了，作为导演，我有着不可推卸的责任，真的很抱歉。</t>
+  </si>
+  <si>
+    <t>sea dog</t>
+  </si>
+  <si>
+    <t>航海方面有经验的人，老练的水手。                                英语俚语中，dog除了指狗，还可以指人，有经验的人，重要的人。</t>
+  </si>
+  <si>
+    <t>no zuo no die</t>
+  </si>
+  <si>
+    <t>urban dictionary中文译名为“城市词典”，是一个美国在线俚语词典，已被该词典收录</t>
+  </si>
+  <si>
+    <t>华为研究6G、未雨绸缪的说法：</t>
+  </si>
+  <si>
+    <t>1、在英语中，该如何表达“未雨绸缪”呢？有个非常地道的说法：better safe than sorry，这是一句谚语，意思是“安全总比遗憾好”，也可以表示人或者事物有前瞻性，能够未雨绸缪。               2、还有一个习语，save for a rainy day，也可以来表示“未雨绸缪”。但是它的意思倾向于“做两手准备，即便有意外发生，也可以从容应对”。强调应对未知的危机                                       3、与“未雨绸缪”相对应的一个成语，是“亡羊补牢”。前者强调提前做好准备，后者则强调失败后及时弥补。
+习语damage control就可以理解为“亡羊补牢”。
+damage意思是损坏，而control是控制。damage control，就是采取一些措施，将失败降低到最小。                                    4、 圈里还有一个常用的词叫做crisis management，也就是我们所说的危机公关，因为在生活口语中不常见，所以这个词大家了解下就好~</t>
+  </si>
+  <si>
+    <t>It's better to be safe than sorry.</t>
+  </si>
+  <si>
+    <t>未雨绸缪嘛。</t>
+  </si>
+  <si>
+    <t>You should save for a rainy day.</t>
+  </si>
+  <si>
+    <t>你该存点钱，以备不时之需。</t>
+  </si>
+  <si>
+    <t>Our first priority would be damage control, not privacy.</t>
+  </si>
+  <si>
+    <t>我们现在的首要任务是降低损失，而不是保护隐私。</t>
+  </si>
+  <si>
+    <t>1、Fat Chance2、good chance</t>
+  </si>
+  <si>
+    <t>1、一件事情不太可能发生，发生机会渺茫；2、一件事情发生机会很大</t>
+  </si>
+  <si>
+    <t>I am a chicken.</t>
+  </si>
+  <si>
+    <t>我好菜啊！ chicken菜鸟</t>
+  </si>
+  <si>
+    <t>I'm so difficult.或I'm so hard. 不是“我太难了”</t>
+  </si>
+  <si>
+    <t>difficult和hard只有在修饰事物的时候表示“困难的，艰难的”；形容人表示性格挑剔以及铁石心肠</t>
+  </si>
+  <si>
+    <t>If you bend the truth, I'll kill you.</t>
+  </si>
+  <si>
+    <t>如果你敢颠倒黑白，我就杀了你。                                
+To say something that is not completely true，弯曲事实。</t>
+  </si>
+  <si>
+    <t>Any attempt to play with fire will only backfire.</t>
+  </si>
+  <si>
+    <t>玩火者自焚。</t>
+  </si>
+  <si>
+    <t>废青们常用的口号是："No rioters, only tyranny."也就是“没有暴徒，只有暴政”，这也是一种极为盲目的偏见。</t>
+  </si>
+  <si>
+    <t>废青，指的是那些无理想、不奋斗对社会毫无奉献，却盲目指责社会报复社会的青年人，在香港用的比较多。</t>
+  </si>
+  <si>
+    <t>外媒在提到“废青”这个词的时候，多用的是the obsolete来表示。Obsolete：废弃，废物</t>
+  </si>
+  <si>
+    <t>I have things to do.                    更地道的 I've got stuff.</t>
+  </si>
+  <si>
+    <t>我有事。</t>
+  </si>
+  <si>
+    <t>I have things.</t>
+  </si>
+  <si>
+    <t>1、我有东西 2、我要拿一些东西</t>
+  </si>
+  <si>
+    <t>buy vegetable</t>
+  </si>
+  <si>
+    <t>买蔬菜</t>
+  </si>
+  <si>
+    <t>get groceries或go grocery shopping</t>
+  </si>
+  <si>
+    <t>买蔬果 生鲜 肉蛋等各种菜类</t>
+  </si>
+  <si>
+    <t>carry the can</t>
+  </si>
+  <si>
+    <t>背黑锅。英语俚语原本指‘帮士兵们抗啤酒的人’，can易拉罐，指啤酒容器，后延伸出‘代人受过’</t>
+  </si>
+  <si>
+    <t>霸道总裁</t>
+  </si>
+  <si>
+    <t>overbearing adj. 傲慢的，霸道的
+domineering adj. 专横的，盛气凌人的
+overbear的意思是“在精神上压倒、否决”，而overbearing则有“专横的、飞扬跋扈的”的意思，很适合形容邪魅狂狷的霸道总裁。</t>
+  </si>
+  <si>
+    <t>《霸道总裁爱上我》</t>
+  </si>
+  <si>
+    <t>The overbearing executive fell in love with me.</t>
+  </si>
+  <si>
+    <t>He's so overbearing that no one wants to work for him.</t>
+  </si>
+  <si>
+    <t>他那么傲慢，没人愿为他工作。</t>
+  </si>
+  <si>
+    <t>He spoke in an overbearing manner.</t>
+  </si>
+  <si>
+    <t>他说话时的神气极为霸道。</t>
+  </si>
+  <si>
+    <t>换位思考</t>
+  </si>
+  <si>
+    <t>一个流行的俚语叫做put oneself in someone else's shoes，但可不能仅仅理解字面上的意思，它实际的意思就是“换位思考”。
+还有一个常用词组strike a chord，意思就是“感同身受”。      如果觉得词组太过麻烦，可以使用considerate这个单词，这是一个初级词汇，意思是“体贴的，体谅的”。
+Considerate [kənˈsɪdərət] 体贴的</t>
+  </si>
+  <si>
+    <t>She is always polite and considerate towards her employees.</t>
+  </si>
+  <si>
+    <t>她对待员工总是客客气气，关心体谅。</t>
+  </si>
+  <si>
+    <t>Mandarin普通话</t>
+  </si>
+  <si>
+    <t>mandarin橘子</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">网红词 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁憨憨</t>
+    </r>
+  </si>
+  <si>
+    <t>源于重庆话，意思是“头很铁的傻子，傻乎乎的愣头青”。
+本来是骂人的话，但经过了网络的软化，增加了那么一丝可爱的意味。</t>
+  </si>
+  <si>
+    <t>Do you know anything about these knuckleheads that got caught allegedly stealing?</t>
+  </si>
+  <si>
+    <r>
+      <t>你知道那些因为涉嫌偷东西被抓的二货吗？                      在韦氏词典(Merriam-Webster Dictionary)里，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>knucklehead的含义是dumbbell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可别把dumbbell理解成了“哑铃”，它在这里的意思其实是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>榆木疙瘩，愣头青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”。</t>
+    </r>
+  </si>
+  <si>
+    <t>I'm sorry if this knucklehead scared you.</t>
+  </si>
+  <si>
+    <t>要是这个憨憨吓着你了，我很抱歉。</t>
+  </si>
+  <si>
+    <t>Not really. he's kind of a knucklehead.</t>
+  </si>
+  <si>
+    <t>也不算，他是那种很铁的憨憨</t>
+  </si>
+  <si>
+    <t>各种“傻瓜”</t>
+  </si>
+  <si>
+    <t>还有哪些单词可以委婉的表示某个人很“傻”呢？
+Dunce [dʌns] 
+这个词的意思是“蠢笨得人”，做老师的可能会用的多，因为它可以特指“不开窍的学生”。
+They're all wrong, you dunce!
+全错了，你这个笨蛋！
+Dullard [ˈdʌlɑːrd] 
+多指在“思维上愚钝”的人，没有想象力，无趣且愚钝。            
+Klutz [klʌts] 
+与上面几个单词不同的是，Klutz指那些在反应能力上笨拙的人，也就是我们所说的“笨手笨脚”。并不一定是智力上的笨拙。
+Dumbo [ˈdʌmboʊ] 
+从美国1941年迪士尼电影《小飞象》延伸出来的一个单词，Dumbo本是小飞象的名字，但因为其蠢笨的形象，Dumbo便成了“傻瓜”的代名词。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chosen one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>天选之子，上帝的选择</t>
+  </si>
+  <si>
+    <t>fresh meat</t>
+  </si>
+  <si>
+    <t>小鲜肉，已经是外国人耳熟能详的词汇，也是为数不多的转正的中式英语之一</t>
+  </si>
+  <si>
+    <t>In the money</t>
+  </si>
+  <si>
+    <t>1、有钱的，富有的 2、处于优胜地位，领先</t>
+  </si>
+  <si>
+    <t>New money
+Old money</t>
+  </si>
+  <si>
+    <t>要知道，new money作为一个英语中的俗语，指的不是钱，而是拥有钱的人。同样的，old money也是如此。
+New money：发家致富的人
+Old money：家底雄厚的人</t>
+  </si>
+  <si>
+    <t>The west end is full of hedge funds, oil barons and old money.</t>
+  </si>
+  <si>
+    <t>伦敦西区到处是对冲基金、石油大亨和旧富们。</t>
+  </si>
+  <si>
+    <t>英语口语中的金钱</t>
+  </si>
+  <si>
+    <t>Moola
+Moola是美国人常用的俚语，用法与money基本一致。
+Dough
+Dough的常用意思是“生面团”，但还有个意思是金钱。日常生活中需要放在语境中去判断它的意思。
+Buck
+用法几乎和dollar一样，口语中十分常用。但需要注意的是，如果是复数，需要加上s，
+例句：This one is 10 bucks. 这个十美元。
+Greenback
+代指美钞（美元是绿的），这个词只在特定的场合用，一般是外汇市场。</t>
+  </si>
+  <si>
+    <t>有关钱的词组：</t>
+  </si>
+  <si>
+    <t>smuggled money 黑钱
+hard-earned  money 辛苦赚来的钱
+easy money 钱来的容易/非正当收入                          throw money at sth 在……上投钱
+throw money around 大手大脚花钱
+splash out 挥霍
+pay off sth 付清
+dip into sth 花费部分积蓄
+fork out sth 不情愿地花了一大笔钱</t>
+  </si>
+  <si>
+    <t>HongKong Dollar 港币</t>
+  </si>
+  <si>
+    <t>New Taiwan Dollar 新台币</t>
+  </si>
+  <si>
+    <t>营销圈 缩写词：</t>
+  </si>
+  <si>
+    <t>KOL：Key Opinion Leader 意见领袖</t>
+  </si>
+  <si>
+    <t>KOS：Key Opinion Spreader 关键意见传播者</t>
+  </si>
+  <si>
+    <t>KOC（Key Opinion Consumer）关键消费者</t>
+  </si>
+  <si>
+    <t>KOF：Key Opinion Followers 关键意见追随者</t>
+  </si>
+  <si>
+    <t>互联网营销圈：</t>
+  </si>
+  <si>
+    <t>SOHO
+Small Office Home Office
+自由职业者，代表一种自由、弹性而新型的工作方式。</t>
+  </si>
+  <si>
+    <t>SEO
+Search Engine Optimization
+搜索引擎优化</t>
+  </si>
+  <si>
+    <t>CRM
+Customer Relationship Management
+客户关系管理，它是一种以客户为中心以信息技术为手段的“经营”策略。</t>
+  </si>
+  <si>
+    <t>Slogan
+口号/标语/广告语
+Slogan（品牌口号、广告语）对消费者的意义在于其所传递的公司的产品理念，它所强调的是一家公司和它的产品最为突出的特点。</t>
+  </si>
+  <si>
+    <t>BD
+Business Development
+商务拓展，“BD”可以理解为“广义的Marketing”，或者是“战略Marketing” 。</t>
+  </si>
+  <si>
+    <t>UV
+Unique Visitor
+指访问某个站点或点击某条新闻的不同IP地址的人数。在同一天内，uv只记录第一次进入网站的具有独立IP的访问者，在同一天内再次访问该网站则不计数。</t>
+  </si>
+  <si>
+    <t>UGC
+User Generated Content
+用户原创内容</t>
+  </si>
+  <si>
+    <t>PGC
+Professional Generated Content
+专业生产内容</t>
+  </si>
+  <si>
+    <t>PV
+Pageview
+页面浏览量/点击量，是衡量一个网络新闻频道、网站、网络新闻的主要指标；</t>
+  </si>
+  <si>
+    <t>PR
+Publicrelations
+公关</t>
+  </si>
+  <si>
+    <t>sasaeng fan</t>
+  </si>
+  <si>
+    <t>私生饭：狂热到不理智甚至跟偷拍的粉丝。 源于韩语，也是韩语发音</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Look at this video！Omgggg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm dead！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm dead!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快看这个视频，哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笑死我了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笑死我了！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have finished all the work in advance. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm dead.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我已经提前完成了所有的工作，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累死我了</t>
     </r>
     <r>
       <rPr>
@@ -14084,132 +14640,222 @@
     </r>
   </si>
   <si>
-    <t>Today people online are saying The Wandering Earth opened a door to Chinese science-fiction, but the door was closed by Shanghai Fortress. I was very saddened.</t>
-  </si>
-  <si>
-    <t>大家都评论说《流浪地球》打开了中国科幻的门，而《上海堡垒》又把它关上了，听到这样的话，我很伤心。</t>
-  </si>
-  <si>
-    <t>This showed not only their dissatisfaction with the movie, but that their hopes for Chinese sci-fi movies were dashed. As a director, I have an unshirkable responsibility. I am very sorry.</t>
-  </si>
-  <si>
-    <t>这不仅仅是对电影不满意，也是对中国科幻电影的期待落空了，作为导演，我有着不可推卸的责任，真的很抱歉。</t>
-  </si>
-  <si>
-    <t>sea dog</t>
-  </si>
-  <si>
-    <t>航海方面有经验的人，老练的水手。                                英语俚语中，dog除了指狗，还可以指人，有经验的人，重要的人。</t>
-  </si>
-  <si>
-    <t>no zuo no die</t>
-  </si>
-  <si>
-    <t>urban dictionary中文译名为“城市词典”，是一个美国在线俚语词典，已被该词典收录</t>
-  </si>
-  <si>
-    <t>华为研究6G、未雨绸缪的说法：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1、在英语中，该如何表达“未雨绸缪”呢？有个非常地道的说法：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>better safe than sorry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，这是一句谚语，意思是“安全总比遗憾好”，也可以表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人或者事物有前瞻性</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，能够未雨绸缪。               2、还有一个习语，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>save for a rainy day</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，也可以来表示“未雨绸缪”。但是它的意思倾向于“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>做两手准备，即便有意外发生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，也可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>从容应对</t>
+    <t>I'm dead inside</t>
+  </si>
+  <si>
+    <r>
+      <t>它的实际意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我是一个冷血的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，当一个老外向你说I'm dead inside的时候，他可能想表达的是：
+“我的内心毫无波澜，甚至有点想笑。”</t>
+    </r>
+  </si>
+  <si>
+    <t>No, don't tell me that I fell love with him. I'm dead inside！</t>
+  </si>
+  <si>
+    <t>不，不要告诉我我爱上了他！我的心已经死了！</t>
+  </si>
+  <si>
+    <t>Over my dead body！</t>
+  </si>
+  <si>
+    <r>
+      <t>直译过来就是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跨过我的尸体！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”真正要表达的意思是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想都别想，没门，除非我死了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，表示强烈反对，比no way更加激烈！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop-dead gorgeous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> woman you'll ever see.</t>
+    </r>
+  </si>
+  <si>
+    <t>绝对是你可能见过最华丽的女人。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I don’t want a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dead-end job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我不想做没有前途的工作。                                      口语表达中，有的时候还会说某些没有生命的物体dead，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>my cellphone battery's dead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.在这里，dead的意思是“不能工作了”，表明自己的手机电池没电了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cut me dead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the street.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>她在街上的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无视了我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。                                      Cut someone dead真不是“砍死”，而是“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不理睬某人，无视</t>
     </r>
     <r>
       <rPr>
@@ -14221,149 +14867,68 @@
       </rPr>
       <t>”。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">强调应对未知的危机                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3、与“未雨绸缪”相对应的一个成语，是“亡羊补牢”。前者强调提前做好准备，后者则强调失败后及时弥补。
-习语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damage control</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>就可以理解为“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亡羊补牢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”。
-damage意思是损坏，而control是控制。damage control，就是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">采取一些措施，将失败降低到最小。                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4、 圈里还有一个常用的词叫做</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>crisis management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，也就是我们所说的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>危机公关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，因为在生活口语中不常见，所以这个词大家了解下就好~</t>
-    </r>
-  </si>
-  <si>
-    <t>It's better to be safe than sorry.</t>
-  </si>
-  <si>
-    <t>未雨绸缪嘛。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">You should </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>save for a rainy day</t>
+  </si>
+  <si>
+    <t>dead有关的用法汇总：</t>
+  </si>
+  <si>
+    <t>I'm dead inside：我的内心毫无波澜
+Over my dead body！想都别想，没门！
+drop-dead gorgeous：非常迷人的
+dead-end job：没有前途的工作
+Cut someone dead：不理睬某人</t>
+  </si>
+  <si>
+    <t>You bet == Yes,Certainly，Of course</t>
+  </si>
+  <si>
+    <t>当然，的确</t>
+  </si>
+  <si>
+    <t>缩略词：</t>
+  </si>
+  <si>
+    <t>ISO：国际标准化组织 International Organization for Standardization
+iOS：苹果操作系统
+IOS：印度洋卫星、台站、舰船                                    
+PM2.5：细颗粒物
+PM10：可吸入颗粒物
+PE：体育Physical Education
+P/E：价格利润比Port of Embarkation
+PR：公关，公共关系，全写为public relations
+P&amp;R：停车换乘，Park and Ride</t>
+  </si>
+  <si>
+    <t>hate-like</t>
+  </si>
+  <si>
+    <r>
+      <t>虽然讨厌，但还是礼貌的点赞或嫉妒的点赞。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>like点赞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you need a driver, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm your man</t>
     </r>
     <r>
       <rPr>
@@ -14377,239 +14942,109 @@
     </r>
   </si>
   <si>
-    <t>你该存点钱，以备不时之需。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Our first priority would be </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damage control</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, not privacy.</t>
-    </r>
-  </si>
-  <si>
-    <t>我们现在的首要任务是降低损失，而不是保护隐私。</t>
-  </si>
-  <si>
-    <t>1、Fat Chance2、good chance</t>
-  </si>
-  <si>
-    <t>1、一件事情不太可能发生，发生机会渺茫；2、一件事情发生机会很大</t>
-  </si>
-  <si>
-    <t>I am a chicken.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">我好菜啊！ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chicken菜鸟</t>
-    </r>
-  </si>
-  <si>
-    <t>I'm so difficult.或I'm so hard. 不是“我太难了”</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>difficult和hard只有在修饰事物的时候表示“困难的，艰难的”；形容人表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>性格挑剔以及铁石心肠</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">If you </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bend the truth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, I'll kill you.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果你敢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>颠倒黑白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，我就杀了你。                                
-To say something that is not completely true，弯曲事实。</t>
-    </r>
-  </si>
-  <si>
-    <t>Any attempt to play with fire will only backfire.</t>
-  </si>
-  <si>
-    <t>玩火者自焚。</t>
-  </si>
-  <si>
-    <t>废青们常用的口号是："No rioters, only tyranny."也就是“没有暴徒，只有暴政”，这也是一种极为盲目的偏见。</t>
-  </si>
-  <si>
-    <t>废青，指的是那些无理想、不奋斗对社会毫无奉献，却盲目指责社会报复社会的青年人，在香港用的比较多。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外媒在提到“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>废青</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”这个词的时候，多用的是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the obsolete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来表示。Obsolete：废弃，废物</t>
-    </r>
-  </si>
-  <si>
-    <t>I have things to do.                    更地道的 I've got stuff.</t>
-  </si>
-  <si>
-    <t>我有事。</t>
-  </si>
-  <si>
-    <t>I have things.</t>
-  </si>
-  <si>
-    <t>1、我有东西 2、我要拿一些东西</t>
+    <r>
+      <t>你要是需要司机，我当最合适。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“我就是你需要的人”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's enough! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I'm my own man！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>够了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我自有主张！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                      一句委婉的拒绝别人意见的句子，可以理解为“我有我自己的想法，我自有主张。”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He's a typical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>man's man</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>他真是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男人中的男人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！ “男人中的男人，更受男人欢迎的男人”</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14617,8 +15052,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -14712,9 +15147,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14728,29 +15177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -14759,23 +15185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14789,13 +15201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -14803,7 +15208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14825,9 +15230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14842,6 +15261,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -14849,8 +15283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14921,7 +15356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14933,7 +15386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14951,7 +15416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14963,19 +15434,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14993,13 +15506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15011,19 +15524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15035,73 +15536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15115,35 +15550,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15166,23 +15583,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15194,6 +15620,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15220,10 +15655,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15232,137 +15667,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15396,8 +15831,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -15793,10 +16237,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -15807,7 +16251,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -15961,7 +16405,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16013,7 +16457,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -16055,7 +16499,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -16097,10 +16541,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -16153,10 +16597,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -16580,7 +17024,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="24" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -16948,7 +17392,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="16" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -17131,7 +17575,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="25" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -17160,7 +17604,7 @@
   <sheetPr/>
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A178" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A166" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -17173,20 +17617,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="15" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -17579,7 +18023,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="16" t="s">
         <v>444</v>
       </c>
     </row>
@@ -17873,7 +18317,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="17" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -18567,7 +19011,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="18" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -18608,10 +19052,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -18673,10 +19117,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -18825,7 +19269,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="13" ht="57.6" spans="1:4">
+    <row r="13" ht="57.6" spans="1:6">
       <c r="A13" t="s">
         <v>751</v>
       </c>
@@ -18838,573 +19282,1026 @@
       <c r="D13" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="14" ht="86.4" spans="1:4">
+      <c r="F13" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="14" ht="86.4" spans="1:6">
       <c r="A14" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:4">
+        <v>759</v>
+      </c>
+      <c r="F14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="D15" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>764</v>
+      </c>
+      <c r="F15" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B16" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:2">
+        <v>767</v>
+      </c>
+      <c r="C16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" t="s">
+        <v>769</v>
+      </c>
+      <c r="F16" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:6">
       <c r="A17" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>772</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="F17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B18" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>777</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="20" ht="43.2" spans="1:2">
+        <v>782</v>
+      </c>
+      <c r="C19" t="s">
+        <v>783</v>
+      </c>
+      <c r="D19" t="s">
+        <v>784</v>
+      </c>
+      <c r="F19" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" ht="57.6" spans="1:6">
       <c r="A20" s="6" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="B20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>787</v>
+      </c>
+      <c r="C20" t="s">
+        <v>788</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="F20" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" ht="72" spans="1:6">
       <c r="A21" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>792</v>
+      </c>
+      <c r="C21" t="s">
+        <v>793</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="F21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
       <c r="B22" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="23" ht="100.8" spans="1:2">
+        <v>797</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D22" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="23" ht="100.8" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>778</v>
+        <v>801</v>
+      </c>
+      <c r="C23" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="B24" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="B25" t="s">
-        <v>782</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>808</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>785</v>
+        <v>810</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>799</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>801</v>
+        <v>826</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>803</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="B41" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
-        <v>816</v>
+      <c r="A43" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="B45" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="B46" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="B47" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="B51" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
       <c r="B60" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:2">
       <c r="A64" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="B65" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>865</v>
+        <v>890</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>867</v>
+        <v>892</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>868</v>
+        <v>893</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>869</v>
+        <v>894</v>
       </c>
     </row>
     <row r="71" ht="28.8" spans="1:2">
       <c r="A71" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
     </row>
     <row r="72" ht="187.2" spans="1:2">
       <c r="A72" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>875</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>876</v>
+        <v>901</v>
       </c>
       <c r="B74" t="s">
-        <v>877</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>878</v>
+        <v>903</v>
       </c>
       <c r="B75" t="s">
-        <v>879</v>
+        <v>904</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>880</v>
+        <v>905</v>
       </c>
       <c r="B76" t="s">
-        <v>881</v>
+        <v>906</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>883</v>
+        <v>908</v>
       </c>
     </row>
     <row r="78" ht="28.8" spans="1:2">
       <c r="A78" t="s">
-        <v>884</v>
+        <v>909</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="79" ht="28.8" spans="1:2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="79" ht="28" customHeight="1" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>887</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="B80" t="s">
-        <v>889</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>890</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" ht="43.2" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>892</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" ht="28.8" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>893</v>
+        <v>918</v>
       </c>
       <c r="B83" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="B84" t="s">
-        <v>896</v>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>922</v>
+      </c>
+      <c r="B85" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="B86" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="87" ht="28.8" spans="1:2">
+      <c r="A87" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="88" ht="72" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>930</v>
+      </c>
+      <c r="B89" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="90" ht="28.8" spans="1:2">
+      <c r="A90" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B90" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>934</v>
+      </c>
+      <c r="B91" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" ht="115.2" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="93" ht="28.8" spans="1:2">
+      <c r="A93" s="11" t="s">
+        <v>938</v>
+      </c>
+      <c r="B93" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>940</v>
+      </c>
+      <c r="B94" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="95" ht="43.2" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="96" ht="57.6" spans="1:2">
+      <c r="A96" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>946</v>
+      </c>
+      <c r="B97" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>948</v>
+      </c>
+      <c r="B98" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="99" ht="259.2" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B100" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>954</v>
+      </c>
+      <c r="B101" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>956</v>
+      </c>
+      <c r="B102" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="103" ht="57.6" spans="1:2">
+      <c r="A103" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="104" ht="28.8" spans="1:2">
+      <c r="A104" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="B104" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="105" ht="230.4" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="106" ht="144" spans="1:2">
+      <c r="A106" t="s">
+        <v>964</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>966</v>
+      </c>
+      <c r="B107" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>969</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>971</v>
+      </c>
+      <c r="B110" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="112" ht="57.6" spans="1:2">
+      <c r="A112" s="11" t="s">
+        <v>974</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="113" ht="57.6" spans="1:2">
+      <c r="A113" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="114" ht="72" spans="1:2">
+      <c r="A114" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="115" ht="43.2" spans="1:2">
+      <c r="A115" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="116" ht="57.6" spans="1:2">
+      <c r="A116" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="B117" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="118" ht="28.8" spans="1:2">
+      <c r="A118" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="119" ht="28.8" spans="1:2">
+      <c r="A119" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="120" ht="43.2" spans="1:2">
+      <c r="A120" t="s">
+        <v>990</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="121" ht="28.8" spans="1:2">
+      <c r="A121" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="B121" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="122" ht="28.8" spans="1:2">
+      <c r="A122" t="s">
+        <v>994</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="123" ht="28.8" spans="1:2">
+      <c r="A123" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B123" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="124" ht="57.6" spans="1:2">
+      <c r="A124" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="125" ht="28.8" spans="1:2">
+      <c r="A125" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="126" ht="72" spans="1:2">
+      <c r="A126" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="128" ht="187.2" spans="1:2">
+      <c r="A128" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="131" ht="43.2" spans="1:2">
+      <c r="A131" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="3"/>
+    <workbookView windowWidth="17711" windowHeight="8484" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1019">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -12631,6 +12631,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">It's possible to </t>
     </r>
     <r>
@@ -12678,6 +12685,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>It seems that</t>
     </r>
     <r>
@@ -12692,6 +12706,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>看起来好像</t>
     </r>
     <r>
@@ -12763,6 +12784,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Can you get me</t>
     </r>
     <r>
@@ -12778,6 +12806,9 @@
   </si>
   <si>
     <t>你能帮我带个冰淇淋吗？</t>
+  </si>
+  <si>
+    <t>玲珑骰子安红豆，入骨相思知不知</t>
   </si>
   <si>
     <t>结婚的表达：</t>
@@ -14293,6 +14324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">网红词 </t>
     </r>
     <r>
@@ -14316,6 +14354,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你知道那些因为涉嫌偷东西被抓的二货吗？                      在韦氏词典(Merriam-Webster Dictionary)里，</t>
     </r>
     <r>
@@ -14389,6 +14434,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I am the </t>
     </r>
     <r>
@@ -14551,6 +14603,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Look at this video！Omgggg </t>
     </r>
     <r>
@@ -14576,6 +14635,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>快看这个视频，哈哈</t>
     </r>
     <r>
@@ -14601,6 +14667,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">I have finished all the work in advance. </t>
     </r>
     <r>
@@ -14616,6 +14689,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我已经提前完成了所有的工作，</t>
     </r>
     <r>
@@ -14644,6 +14724,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>它的实际意思是“</t>
     </r>
     <r>
@@ -14679,6 +14766,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>直译过来就是“</t>
     </r>
     <r>
@@ -14724,6 +14818,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The most </t>
     </r>
     <r>
@@ -14751,18 +14852,6 @@
     <t>绝对是你可能见过最华丽的女人。</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">I don’t want a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>dead-end job</t>
-    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -14770,11 +14859,36 @@
         <rFont val="Microsoft YaHei UI"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">I don’t want a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dead-end job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF595959"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我不想做没有前途的工作。                                      口语表达中，有的时候还会说某些没有生命的物体dead，比如</t>
     </r>
     <r>
@@ -14800,6 +14914,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">She </t>
     </r>
     <r>
@@ -14825,6 +14946,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>她在街上的时候</t>
     </r>
     <r>
@@ -14903,6 +15031,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>虽然讨厌，但还是礼貌的点赞或嫉妒的点赞。</t>
     </r>
     <r>
@@ -14918,6 +15053,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">If you need a driver, </t>
     </r>
     <r>
@@ -14943,6 +15085,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你要是需要司机，我当最合适。</t>
     </r>
     <r>
@@ -14958,6 +15107,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">That's enough! </t>
     </r>
     <r>
@@ -14973,6 +15129,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>够了！</t>
     </r>
     <r>
@@ -14998,6 +15161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">He's a typical </t>
     </r>
     <r>
@@ -15023,6 +15193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他真是</t>
     </r>
     <r>
@@ -15045,6 +15222,12 @@
       </rPr>
       <t>！ “男人中的男人，更受男人欢迎的男人”</t>
     </r>
+  </si>
+  <si>
+    <t>How long has she been seeing him?</t>
+  </si>
+  <si>
+    <t>be seeing someone "和。。。谈恋爱"                            In a relationship表示某人处于恋爱之中</t>
   </si>
 </sst>
 </file>
@@ -15053,8 +15236,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -15147,6 +15330,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -15163,7 +15378,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15171,30 +15439,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15214,78 +15467,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15356,7 +15539,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15368,7 +15581,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15380,37 +15683,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15428,115 +15713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15547,21 +15730,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -15580,11 +15748,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15600,6 +15774,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15624,26 +15807,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15655,10 +15838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15667,137 +15850,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15828,19 +16011,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16237,10 +16414,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -16251,7 +16428,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16405,7 +16582,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16457,7 +16634,7 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -16499,7 +16676,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -16541,10 +16718,10 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -16597,10 +16774,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -17024,7 +17201,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="22" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -17392,7 +17569,7 @@
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="14" t="s">
         <v>296</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -17575,7 +17752,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="23" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -17617,20 +17794,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -18023,7 +18200,7 @@
       <c r="A42" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>444</v>
       </c>
     </row>
@@ -18317,7 +18494,7 @@
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="15" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -19011,7 +19188,7 @@
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="18" t="s">
+      <c r="A170" s="16" t="s">
         <v>688</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -19052,10 +19229,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -19117,10 +19294,10 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>708</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -19344,10 +19521,10 @@
       <c r="B17" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>774</v>
       </c>
       <c r="F17" t="s">
@@ -19398,7 +19575,7 @@
       <c r="C20" t="s">
         <v>788</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="6" t="s">
         <v>789</v>
       </c>
       <c r="F20" t="s">
@@ -19415,14 +19592,14 @@
       <c r="C21" t="s">
         <v>793</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="6" t="s">
         <v>794</v>
       </c>
       <c r="F21" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>796</v>
       </c>
@@ -19435,873 +19612,884 @@
       <c r="D22" t="s">
         <v>799</v>
       </c>
+      <c r="F22" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="23" ht="100.8" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D23" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B24" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B25" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" ht="57.6" spans="1:2">
       <c r="A31" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" ht="72" spans="1:2">
       <c r="A32" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" ht="57.6" spans="1:2">
       <c r="A33" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" ht="57.6" spans="1:2">
       <c r="A35" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" ht="28.8" spans="1:2">
       <c r="A37" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" ht="201.6" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" ht="43.2" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B41" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" ht="201.6" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>841</v>
+      <c r="A43" s="10" t="s">
+        <v>842</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="44" ht="388.8" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B45" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B46" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B47" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48" ht="28.8" spans="1:2">
       <c r="A48" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B51" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B60" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="61" ht="115.2" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
       <c r="A62" s="8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="64" ht="28.8" spans="1:2">
       <c r="A64" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B65" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="71" ht="28.8" spans="1:2">
       <c r="A71" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="72" ht="187.2" spans="1:2">
       <c r="A72" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B74" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B75" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B76" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="78" ht="28.8" spans="1:2">
       <c r="A78" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="79" ht="28" customHeight="1" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B80" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" ht="43.2" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" ht="28.8" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B83" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B84" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B85" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B86" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87" ht="28.8" spans="1:2">
       <c r="A87" s="6" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="88" ht="72" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="B88" s="11" t="s">
         <v>929</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B89" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="11" t="s">
-        <v>932</v>
+      <c r="A90" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B90" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B91" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="92" ht="115.2" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="B92" s="13" t="s">
         <v>937</v>
       </c>
+      <c r="B92" s="4" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="93" ht="28.8" spans="1:2">
-      <c r="A93" s="11" t="s">
-        <v>938</v>
+      <c r="A93" s="6" t="s">
+        <v>939</v>
       </c>
       <c r="B93" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B94" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="95" ht="43.2" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="B95" s="11" t="s">
         <v>943</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="96" ht="57.6" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B97" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B98" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="99" ht="259.2" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B99" s="13" t="s">
         <v>951</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B100" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B101" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B102" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="103" ht="57.6" spans="1:2">
-      <c r="A103" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="B103" s="11" t="s">
+      <c r="A103" s="11" t="s">
         <v>959</v>
       </c>
+      <c r="B103" s="6" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="104" ht="28.8" spans="1:2">
-      <c r="A104" s="11" t="s">
-        <v>960</v>
+      <c r="A104" s="6" t="s">
+        <v>961</v>
       </c>
       <c r="B104" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="105" ht="230.4" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="B105" s="11" t="s">
         <v>963</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="106" ht="144" spans="1:2">
       <c r="A106" t="s">
-        <v>964</v>
-      </c>
-      <c r="B106" s="11" t="s">
         <v>965</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B107" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>969</v>
-      </c>
-      <c r="B109" s="11" t="s">
         <v>970</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B110" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="112" ht="57.6" spans="1:2">
-      <c r="A112" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="A112" s="6" t="s">
         <v>975</v>
       </c>
+      <c r="B112" s="6" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="113" ht="57.6" spans="1:2">
-      <c r="A113" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="A113" s="6" t="s">
         <v>977</v>
       </c>
+      <c r="B113" s="6" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="114" ht="72" spans="1:2">
-      <c r="A114" s="11" t="s">
-        <v>978</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>979</v>
       </c>
+      <c r="B114" s="6" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="115" ht="43.2" spans="1:2">
-      <c r="A115" s="11" t="s">
-        <v>980</v>
-      </c>
-      <c r="B115" s="11" t="s">
+      <c r="A115" s="6" t="s">
         <v>981</v>
       </c>
+      <c r="B115" s="6" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="116" ht="57.6" spans="1:2">
-      <c r="A116" s="11" t="s">
-        <v>982</v>
-      </c>
-      <c r="B116" s="11" t="s">
+      <c r="A116" s="6" t="s">
         <v>983</v>
       </c>
+      <c r="B116" s="6" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="11" t="s">
-        <v>984</v>
+      <c r="A117" s="6" t="s">
+        <v>985</v>
       </c>
       <c r="B117" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="118" ht="28.8" spans="1:2">
-      <c r="A118" s="13" t="s">
-        <v>986</v>
+      <c r="A118" s="4" t="s">
+        <v>987</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="119" ht="28.8" spans="1:2">
-      <c r="A119" s="13" t="s">
-        <v>988</v>
+      <c r="A119" s="4" t="s">
+        <v>989</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="120" ht="43.2" spans="1:2">
       <c r="A120" t="s">
-        <v>990</v>
-      </c>
-      <c r="B120" s="13" t="s">
         <v>991</v>
       </c>
+      <c r="B120" s="4" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="121" ht="28.8" spans="1:2">
-      <c r="A121" s="11" t="s">
-        <v>992</v>
+      <c r="A121" s="6" t="s">
+        <v>993</v>
       </c>
       <c r="B121" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="122" ht="28.8" spans="1:2">
       <c r="A122" t="s">
-        <v>994</v>
-      </c>
-      <c r="B122" s="13" t="s">
         <v>995</v>
       </c>
+      <c r="B122" s="4" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
-      <c r="A123" s="13" t="s">
-        <v>996</v>
+      <c r="A123" s="4" t="s">
+        <v>997</v>
       </c>
       <c r="B123" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="124" ht="57.6" spans="1:2">
       <c r="A124" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="B124" s="13" t="s">
         <v>999</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="125" ht="28.8" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B125" s="13" t="s">
         <v>1001</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="126" ht="72" spans="1:2">
       <c r="A126" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B126" s="11" t="s">
         <v>1003</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B127" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="128" ht="187.2" spans="1:2">
       <c r="A128" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B128" s="11" t="s">
         <v>1007</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="131" ht="43.2" spans="1:2">
       <c r="A131" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B131" s="13" t="s">
         <v>1013</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="133" ht="28.8" spans="1:2">
+      <c r="A133" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17711" windowHeight="8484" activeTab="3"/>
+    <workbookView windowWidth="14628" windowHeight="8484" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
     <sheet name="6月" sheetId="1" r:id="rId2"/>
     <sheet name="7月" sheetId="3" r:id="rId3"/>
     <sheet name="8月" sheetId="4" r:id="rId4"/>
+    <sheet name="9月" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1045">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -15229,6 +15230,431 @@
   <si>
     <t>be seeing someone "和。。。谈恋爱"                            In a relationship表示某人处于恋爱之中</t>
   </si>
+  <si>
+    <r>
+      <t>By retirement，they had saved up quite a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nest egg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>储备金，留作备用的钱，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>私房钱</t>
+    </r>
+  </si>
+  <si>
+    <t>山有扶苏，隰有荷华。不见子都，乃见狂且。
+山有桥松，隰有游龙。不见子充，乃见狡童。</t>
+  </si>
+  <si>
+    <t>open book</t>
+  </si>
+  <si>
+    <r>
+      <t>简单纯粹的人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一件开诚布公的事情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。是美剧中的地道美语</t>
+    </r>
+  </si>
+  <si>
+    <t>有约不来过夜半，闲敲棋子落灯花</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You`re so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你真是个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>戏精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！你太过分了！ extra最近很火的网络释义，'作，浮夸，戏精'</t>
+    </r>
+  </si>
+  <si>
+    <t>时有落花至，远闻流水香</t>
+  </si>
+  <si>
+    <t>blackmail</t>
+  </si>
+  <si>
+    <r>
+      <t>碰瓷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是北京方言，黑邮件与碰瓷有异曲同工之妙。'敲诈、勒索、要挟、胁迫'</t>
+    </r>
+  </si>
+  <si>
+    <t>一溪烟柳万丝垂，无因系得兰舟住</t>
+  </si>
+  <si>
+    <t>苹果公司的iCEO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">说起苹果最著名的CEO乔布斯，还有一段典故，当年他回归苹果的时候，头衔也很有苹果的特色，并非是CEO，而是iCEO.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乔布斯头衔里的“i”，其实是interne的意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，虽说与Internet只差了一个字母，但意思却天差地别。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interne：实习，实习生
+Internet：网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+乔布斯当时对工作也没有把握，只答应当一个临时的iCEO，一年只拿一美元工资。若是一年之后公司不见起色，他就辞职。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，the speech has been tape-recorded.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>老板，这场演讲已经录下来了。
+在英语中，直接称呼人头衔，是不太礼貌的行为。如果你不熟悉的，或者是不知道领导的姓氏，要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>称呼Sir或者Madame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，熟悉的可以叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mr或者Ms（+对方的姓氏）</t>
+    </r>
+  </si>
+  <si>
+    <t>职位用英语表达</t>
+  </si>
+  <si>
+    <r>
+      <t>首先是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>司长、厅长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等，在英语中可以说成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chief，chief of the⋯Department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，也可以直接说成：
+处长：division chief
+科长：section chief                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主席、院长、理事长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>president</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示，                大学的院长、系主任、村长、县长等可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>head</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示，            工作小组的组长、队长则可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来表示。</t>
+    </r>
+  </si>
+  <si>
+    <t>世界上最长的地名：在英国</t>
+  </si>
+  <si>
+    <t>Llanfairpwllgwyngyllgogerychwyrndrobwllllantysiliogogogoch   这个具有58个字母的地名在世界上真实存在，它的意思是：红岩洞附近的圣田西路教堂的湍流旋涡附近的白榛树林山谷中的圣马利亚教堂。  
+卡卡有位福州的同学，他们家乡那里就有一条路，叫做“套路”。
+官方还标上了英文标牌，Tao road，从此这小小的一条“套路”，便成了外地人去当地打卡的必经风景线。</t>
+  </si>
+  <si>
+    <t>道路的表达</t>
+  </si>
+  <si>
+    <t>在美国，只有农村以及荒郊野外的路，才被叫做road，而在城市，“道路”一般用street和avenue来表示。
+Road：路
+Street：街道，与avenue垂直，以作区分
+Avenue：大道，与street垂直，以作区分
+而郊区或者是野外的那种纵横交错的小路，都可以用road来代指。Highway：公路，干道                                     high-speed railway：高铁                                  小弄：alley
+小巷：lane
+小径：path</t>
+  </si>
+  <si>
+    <t>This is a smooth, strongly built highway.</t>
+  </si>
+  <si>
+    <t>这条公路坚实平整。</t>
+  </si>
+  <si>
+    <t>How can I get to...?</t>
+  </si>
+  <si>
+    <t>去那里该怎么走？
+这应该是是最常用的口语问路方式了。</t>
+  </si>
 </sst>
 </file>
 
@@ -15237,8 +15663,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -15331,10 +15757,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -15346,9 +15787,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15356,14 +15811,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15385,28 +15833,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -15421,40 +15855,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15467,8 +15892,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15539,13 +15965,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15557,67 +16121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15629,97 +16145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15734,16 +16160,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15763,17 +16204,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15787,11 +16222,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15806,30 +16256,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -15838,10 +16264,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15850,137 +16276,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15990,8 +16416,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -16015,9 +16447,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -16414,10 +16843,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -16428,12 +16857,12 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16446,15 +16875,15 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="72" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -16462,18 +16891,18 @@
       </c>
     </row>
     <row r="10" ht="57.6" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" ht="86.4" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -16494,15 +16923,15 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -16510,26 +16939,26 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" ht="57.6" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" ht="86.4" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -16550,10 +16979,10 @@
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -16582,7 +17011,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="8:8">
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -16598,13 +17027,13 @@
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -16634,13 +17063,13 @@
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
@@ -16648,7 +17077,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -16662,13 +17091,13 @@
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
@@ -16676,7 +17105,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -16693,7 +17122,7 @@
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -16718,13 +17147,13 @@
       </c>
     </row>
     <row r="12" ht="43.2" spans="1:8">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H12" t="s">
@@ -16738,7 +17167,7 @@
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>80</v>
       </c>
       <c r="H13" t="s">
@@ -16746,13 +17175,13 @@
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
@@ -16763,7 +17192,7 @@
       <c r="A15" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
@@ -16774,10 +17203,10 @@
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C16" t="s">
@@ -16794,7 +17223,7 @@
       <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>96</v>
       </c>
       <c r="H17" t="s">
@@ -16805,10 +17234,10 @@
       <c r="A18" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>100</v>
       </c>
       <c r="H18" t="s">
@@ -16819,7 +17248,7 @@
       <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C19" t="s">
@@ -16833,7 +17262,7 @@
       <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C20" t="s">
@@ -16847,10 +17276,10 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -16858,13 +17287,13 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>116</v>
       </c>
       <c r="H22" t="s">
@@ -16875,10 +17304,10 @@
       <c r="A23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>120</v>
       </c>
       <c r="H23" t="s">
@@ -16889,21 +17318,21 @@
       <c r="A24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B25" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16933,15 +17362,15 @@
       <c r="A28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B29" t="s">
@@ -16952,21 +17381,21 @@
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C31" t="s">
@@ -16980,7 +17409,7 @@
       <c r="B32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16999,7 +17428,7 @@
       <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
@@ -17010,10 +17439,10 @@
       <c r="A35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -17024,18 +17453,18 @@
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" ht="43.2" spans="1:3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -17045,7 +17474,7 @@
       </c>
     </row>
     <row r="39" ht="28.8" spans="1:3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B39" t="s">
@@ -17056,18 +17485,18 @@
       </c>
     </row>
     <row r="40" ht="86.4" spans="1:3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" ht="43.2" spans="1:3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B41" t="s">
@@ -17081,10 +17510,10 @@
       <c r="A42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -17095,20 +17524,20 @@
       <c r="B43" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="44" ht="72" spans="2:2">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" ht="43.2" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -17116,7 +17545,7 @@
       <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -17124,7 +17553,7 @@
       <c r="A47" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -17137,23 +17566,23 @@
       </c>
     </row>
     <row r="49" ht="43.2" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B51" t="s">
@@ -17161,18 +17590,18 @@
       </c>
     </row>
     <row r="52" ht="86.4" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" ht="273.6" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -17180,7 +17609,7 @@
       <c r="A54" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17201,7 +17630,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -17228,7 +17657,7 @@
       <c r="A60" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>212</v>
       </c>
     </row>
@@ -17236,7 +17665,7 @@
       <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>214</v>
       </c>
     </row>
@@ -17249,47 +17678,47 @@
       </c>
     </row>
     <row r="63" ht="100.8" spans="1:2">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="64" ht="158.4" spans="1:2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" ht="244.8" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="66" ht="129.6" spans="1:2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="67" ht="172.8" spans="1:2">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="68" ht="28.8" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B68" t="s">
@@ -17297,34 +17726,34 @@
       </c>
     </row>
     <row r="69" ht="86.4" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:2">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="72" ht="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -17332,23 +17761,23 @@
       <c r="A73" t="s">
         <v>237</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="74" ht="43.2" spans="1:2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="75" ht="57.6" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="6" t="s">
         <v>242</v>
       </c>
     </row>
@@ -17356,7 +17785,7 @@
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>244</v>
       </c>
     </row>
@@ -17364,21 +17793,21 @@
       <c r="A77" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" ht="100.8" spans="1:2">
       <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" ht="100.8" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="6" t="s">
         <v>249</v>
       </c>
     </row>
@@ -17386,7 +17815,7 @@
       <c r="A80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -17394,7 +17823,7 @@
       <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -17402,7 +17831,7 @@
       <c r="A82" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -17410,7 +17839,7 @@
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -17418,7 +17847,7 @@
       <c r="A84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="6" t="s">
         <v>259</v>
       </c>
     </row>
@@ -17426,7 +17855,7 @@
       <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="8" t="s">
         <v>261</v>
       </c>
     </row>
@@ -17434,7 +17863,7 @@
       <c r="A86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="8" t="s">
         <v>263</v>
       </c>
     </row>
@@ -17442,7 +17871,7 @@
       <c r="A87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -17450,7 +17879,7 @@
       <c r="A88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="6" t="s">
         <v>267</v>
       </c>
     </row>
@@ -17458,12 +17887,12 @@
       <c r="A89" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="6" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B90" t="s">
@@ -17471,10 +17900,10 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="7" t="s">
         <v>273</v>
       </c>
     </row>
@@ -17482,17 +17911,17 @@
       <c r="A92" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" ht="158.4" spans="1:1">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B94" t="s">
@@ -17500,7 +17929,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -17524,10 +17953,10 @@
       </c>
     </row>
     <row r="98" ht="72" spans="1:2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="8" t="s">
         <v>286</v>
       </c>
     </row>
@@ -17548,36 +17977,36 @@
       </c>
     </row>
     <row r="101" ht="115.2" spans="1:1">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="102" ht="57.6" spans="1:2">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" ht="72" spans="1:2">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="8" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -17585,10 +18014,10 @@
       </c>
     </row>
     <row r="106" ht="72" spans="1:2">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="8" t="s">
         <v>301</v>
       </c>
     </row>
@@ -17604,15 +18033,15 @@
       <c r="A108" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="6" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="109" ht="86.4" spans="1:2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="6" t="s">
         <v>307</v>
       </c>
     </row>
@@ -17620,7 +18049,7 @@
       <c r="A110" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>309</v>
       </c>
     </row>
@@ -17646,7 +18075,7 @@
       </c>
     </row>
     <row r="114" ht="72" spans="1:1">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -17654,7 +18083,7 @@
       <c r="A115" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="6" t="s">
         <v>317</v>
       </c>
     </row>
@@ -17670,7 +18099,7 @@
       <c r="A117" t="s">
         <v>320</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="6" t="s">
         <v>321</v>
       </c>
     </row>
@@ -17686,7 +18115,7 @@
       <c r="A119" t="s">
         <v>324</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="6" t="s">
         <v>325</v>
       </c>
     </row>
@@ -17694,7 +18123,7 @@
       <c r="A120" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -17718,7 +18147,7 @@
       <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="6" t="s">
         <v>333</v>
       </c>
     </row>
@@ -17726,12 +18155,12 @@
       <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="6" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="125" ht="28.8" spans="1:1">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="6" t="s">
         <v>336</v>
       </c>
     </row>
@@ -17752,7 +18181,7 @@
       </c>
     </row>
     <row r="128" ht="28.8" spans="1:2">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="24" t="s">
         <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -17760,12 +18189,12 @@
       </c>
     </row>
     <row r="150" ht="201.6" spans="1:1">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="8" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="151" ht="144" spans="1:1">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -17794,20 +18223,20 @@
     <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="25.8" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="14" customFormat="1" ht="25.8" spans="1:5">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -17845,10 +18274,10 @@
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>355</v>
       </c>
       <c r="E5" t="s">
@@ -17870,7 +18299,7 @@
       <c r="A7" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>360</v>
       </c>
       <c r="E7" t="s">
@@ -17985,31 +18414,31 @@
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
       <c r="E18" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
       <c r="E19" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:5">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="6"/>
       <c r="E20" t="s">
         <v>397</v>
       </c>
@@ -18027,13 +18456,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="7"/>
       <c r="E22" t="s">
         <v>403</v>
       </c>
@@ -18064,7 +18493,7 @@
       <c r="C25" t="s">
         <v>409</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>410</v>
       </c>
     </row>
@@ -18072,24 +18501,24 @@
       <c r="A26" t="s">
         <v>411</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="27" ht="72" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C27" t="s">
         <v>416</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>417</v>
       </c>
     </row>
@@ -18110,10 +18539,10 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>423</v>
       </c>
     </row>
@@ -18126,7 +18555,7 @@
       </c>
     </row>
     <row r="32" ht="72" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>426</v>
       </c>
     </row>
@@ -18142,7 +18571,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>430</v>
       </c>
     </row>
@@ -18150,7 +18579,7 @@
       <c r="A35" t="s">
         <v>431</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>432</v>
       </c>
     </row>
@@ -18158,17 +18587,17 @@
       <c r="A36" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" ht="100.8" spans="1:1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="6" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -18184,7 +18613,7 @@
       </c>
     </row>
     <row r="40" ht="43.2" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>440</v>
       </c>
     </row>
@@ -18197,10 +18626,10 @@
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>444</v>
       </c>
     </row>
@@ -18213,10 +18642,10 @@
       </c>
     </row>
     <row r="44" ht="57.6" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>448</v>
       </c>
     </row>
@@ -18232,15 +18661,15 @@
       <c r="A46" t="s">
         <v>451</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="6" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>454</v>
       </c>
     </row>
@@ -18277,10 +18706,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>464</v>
       </c>
     </row>
@@ -18293,20 +18722,20 @@
       </c>
     </row>
     <row r="54" ht="28.8" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="55" ht="86.4" spans="1:1">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>470</v>
       </c>
       <c r="B56" t="s">
@@ -18314,7 +18743,7 @@
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>472</v>
       </c>
       <c r="B57" t="s">
@@ -18330,7 +18759,7 @@
       </c>
     </row>
     <row r="59" ht="115.2" spans="1:1">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="6" t="s">
         <v>476</v>
       </c>
     </row>
@@ -18343,10 +18772,10 @@
       </c>
     </row>
     <row r="61" ht="28.8" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="6" t="s">
         <v>480</v>
       </c>
     </row>
@@ -18391,7 +18820,7 @@
       </c>
     </row>
     <row r="67" ht="57.6" spans="1:1">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="8" t="s">
         <v>491</v>
       </c>
     </row>
@@ -18404,20 +18833,20 @@
       </c>
     </row>
     <row r="69" ht="28.8" spans="1:1">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="6" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="70" ht="57.6" spans="1:1">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="6" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="71" ht="43.2" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="8" t="s">
         <v>497</v>
       </c>
     </row>
@@ -18462,7 +18891,7 @@
       </c>
     </row>
     <row r="77" ht="28.8" spans="1:2">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="8" t="s">
         <v>508</v>
       </c>
       <c r="B77" t="s">
@@ -18486,15 +18915,15 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>516</v>
       </c>
       <c r="B81" t="s">
@@ -18537,7 +18966,7 @@
       <c r="A86" t="s">
         <v>526</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="8" t="s">
         <v>527</v>
       </c>
     </row>
@@ -18574,23 +19003,23 @@
       </c>
     </row>
     <row r="91" ht="72" spans="1:2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="6" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="92" ht="57.6" spans="1:1">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="6" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="93" ht="57.6" spans="1:2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="6" t="s">
         <v>540</v>
       </c>
     </row>
@@ -18598,7 +19027,7 @@
       <c r="A94" t="s">
         <v>541</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="6" t="s">
         <v>542</v>
       </c>
     </row>
@@ -18611,7 +19040,7 @@
       </c>
     </row>
     <row r="96" ht="28.8" spans="1:2">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="8" t="s">
         <v>545</v>
       </c>
       <c r="B96" t="s">
@@ -18619,10 +19048,10 @@
       </c>
     </row>
     <row r="97" ht="100.8" spans="1:2">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="6" t="s">
         <v>548</v>
       </c>
     </row>
@@ -18635,18 +19064,18 @@
       </c>
     </row>
     <row r="99" ht="100.8" spans="1:2">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="8" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="100" ht="100.8" spans="1:2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="7" t="s">
         <v>554</v>
       </c>
     </row>
@@ -18654,15 +19083,15 @@
       <c r="A101" t="s">
         <v>555</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="102" ht="28.8" spans="1:2">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="6" t="s">
         <v>558</v>
       </c>
     </row>
@@ -18672,18 +19101,18 @@
       </c>
     </row>
     <row r="104" ht="100.8" spans="1:2">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="8" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="105" ht="28.8" spans="1:2">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -18704,28 +19133,28 @@
       </c>
     </row>
     <row r="108" ht="57.6" spans="1:1">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="6" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="109" ht="72" spans="1:2">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="110" ht="86.4" spans="1:2">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="6" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="8" t="s">
         <v>573</v>
       </c>
       <c r="B111" t="s">
@@ -18733,15 +19162,15 @@
       </c>
     </row>
     <row r="112" ht="72" spans="1:2">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="6" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:2">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="11" t="s">
         <v>577</v>
       </c>
       <c r="B113" t="s">
@@ -18749,15 +19178,15 @@
       </c>
     </row>
     <row r="114" ht="57.6" spans="1:2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="115" ht="28.8" spans="1:2">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="8" t="s">
         <v>581</v>
       </c>
       <c r="B115" t="s">
@@ -18765,18 +19194,18 @@
       </c>
     </row>
     <row r="116" ht="43.2" spans="1:2">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="6" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="117" ht="57.6" spans="1:2">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="7" t="s">
         <v>586</v>
       </c>
     </row>
@@ -18824,7 +19253,7 @@
       <c r="A123" t="s">
         <v>597</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="8" t="s">
         <v>598</v>
       </c>
     </row>
@@ -18861,12 +19290,12 @@
       </c>
     </row>
     <row r="128" ht="57.6" spans="1:1">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="6" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="129" ht="28.8" spans="1:2">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="8" t="s">
         <v>608</v>
       </c>
       <c r="B129" t="s">
@@ -18874,7 +19303,7 @@
       </c>
     </row>
     <row r="130" ht="72" spans="1:1">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="6" t="s">
         <v>610</v>
       </c>
     </row>
@@ -18887,18 +19316,18 @@
       </c>
     </row>
     <row r="132" ht="57.6" spans="1:2">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="133" ht="57.6" spans="1:2">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="7" t="s">
         <v>616</v>
       </c>
     </row>
@@ -18906,7 +19335,7 @@
       <c r="A134" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="8" t="s">
         <v>618</v>
       </c>
     </row>
@@ -18914,7 +19343,7 @@
       <c r="A135" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="8" t="s">
         <v>620</v>
       </c>
     </row>
@@ -18922,7 +19351,7 @@
       <c r="A136" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="6" t="s">
         <v>622</v>
       </c>
     </row>
@@ -18935,23 +19364,23 @@
       </c>
     </row>
     <row r="138" ht="28.8" spans="1:1">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="139" ht="57.6" spans="1:2">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="8" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="140" ht="28.8" spans="1:2">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="8" t="s">
         <v>629</v>
       </c>
     </row>
@@ -18964,18 +19393,18 @@
       </c>
     </row>
     <row r="142" ht="43.2" spans="1:2">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="143" ht="28.8" spans="1:2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="8" t="s">
         <v>635</v>
       </c>
     </row>
@@ -18996,10 +19425,10 @@
       </c>
     </row>
     <row r="146" ht="28.8" spans="1:2">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="8" t="s">
         <v>641</v>
       </c>
     </row>
@@ -19007,7 +19436,7 @@
       <c r="A147" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>643</v>
       </c>
     </row>
@@ -19052,10 +19481,10 @@
       </c>
     </row>
     <row r="153" ht="28.8" spans="1:2">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="6" t="s">
         <v>655</v>
       </c>
     </row>
@@ -19063,7 +19492,7 @@
       <c r="A154" t="s">
         <v>656</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="6" t="s">
         <v>657</v>
       </c>
     </row>
@@ -19071,15 +19500,15 @@
       <c r="A155" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="6" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="156" ht="72" spans="1:2">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="6" t="s">
         <v>661</v>
       </c>
     </row>
@@ -19095,7 +19524,7 @@
       <c r="A158" t="s">
         <v>664</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="6" t="s">
         <v>665</v>
       </c>
     </row>
@@ -19108,10 +19537,10 @@
       </c>
     </row>
     <row r="160" ht="129.6" spans="1:2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="8" t="s">
         <v>669</v>
       </c>
     </row>
@@ -19119,7 +19548,7 @@
       <c r="A161" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="7" t="s">
         <v>671</v>
       </c>
     </row>
@@ -19127,7 +19556,7 @@
       <c r="A162" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="6" t="s">
         <v>673</v>
       </c>
     </row>
@@ -19135,15 +19564,15 @@
       <c r="A163" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="6" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="164" ht="86.4" spans="1:2">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="6" t="s">
         <v>677</v>
       </c>
     </row>
@@ -19151,7 +19580,7 @@
       <c r="A165" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="6" t="s">
         <v>679</v>
       </c>
     </row>
@@ -19167,7 +19596,7 @@
       <c r="A167" t="s">
         <v>682</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="8" t="s">
         <v>683</v>
       </c>
     </row>
@@ -19175,7 +19604,7 @@
       <c r="A168" t="s">
         <v>684</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="6" t="s">
         <v>685</v>
       </c>
     </row>
@@ -19183,15 +19612,15 @@
       <c r="A169" t="s">
         <v>686</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="6" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="170" ht="60" customHeight="1" spans="1:2">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="8" t="s">
         <v>689</v>
       </c>
     </row>
@@ -19204,10 +19633,10 @@
       </c>
     </row>
     <row r="172" ht="57.6" spans="1:2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="6" t="s">
         <v>693</v>
       </c>
     </row>
@@ -19215,7 +19644,7 @@
       <c r="A173" t="s">
         <v>694</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="8" t="s">
         <v>695</v>
       </c>
     </row>
@@ -19231,8 +19660,8 @@
   <sheetPr/>
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -19263,13 +19692,13 @@
       <c r="A2" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>700</v>
       </c>
       <c r="F2" t="s">
@@ -19277,16 +19706,16 @@
       </c>
     </row>
     <row r="3" ht="129.6" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>705</v>
       </c>
       <c r="F3" t="s">
@@ -19294,16 +19723,16 @@
       </c>
     </row>
     <row r="4" ht="129.6" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>710</v>
       </c>
       <c r="F4" t="s">
@@ -19311,16 +19740,16 @@
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>714</v>
       </c>
       <c r="F5" t="s">
@@ -19351,10 +19780,10 @@
       <c r="B7" t="s">
         <v>722</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>724</v>
       </c>
       <c r="F7" t="s">
@@ -19365,13 +19794,13 @@
       <c r="A8" t="s">
         <v>726</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>729</v>
       </c>
       <c r="F8" t="s">
@@ -19382,13 +19811,13 @@
       <c r="A9" t="s">
         <v>731</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>734</v>
       </c>
       <c r="F9" t="s">
@@ -19402,10 +19831,10 @@
       <c r="B10" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>739</v>
       </c>
       <c r="F10" t="s">
@@ -19419,10 +19848,10 @@
       <c r="B11" t="s">
         <v>742</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>744</v>
       </c>
       <c r="F11" t="s">
@@ -19450,10 +19879,10 @@
       <c r="A13" t="s">
         <v>751</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>753</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -19467,13 +19896,13 @@
       <c r="A14" t="s">
         <v>756</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>759</v>
       </c>
       <c r="F14" t="s">
@@ -19484,10 +19913,10 @@
       <c r="A15" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>763</v>
       </c>
       <c r="D15" t="s">
@@ -19518,13 +19947,13 @@
       <c r="A17" t="s">
         <v>771</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>774</v>
       </c>
       <c r="F17" t="s">
@@ -19538,10 +19967,10 @@
       <c r="B18" t="s">
         <v>777</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>779</v>
       </c>
       <c r="F18" t="s">
@@ -19552,7 +19981,7 @@
       <c r="A19" t="s">
         <v>781</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>782</v>
       </c>
       <c r="C19" t="s">
@@ -19566,7 +19995,7 @@
       </c>
     </row>
     <row r="20" ht="57.6" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>786</v>
       </c>
       <c r="B20" t="s">
@@ -19575,7 +20004,7 @@
       <c r="C20" t="s">
         <v>788</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="8" t="s">
         <v>789</v>
       </c>
       <c r="F20" t="s">
@@ -19592,7 +20021,7 @@
       <c r="C21" t="s">
         <v>793</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>794</v>
       </c>
       <c r="F21" t="s">
@@ -19606,7 +20035,7 @@
       <c r="B22" t="s">
         <v>797</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>798</v>
       </c>
       <c r="D22" t="s">
@@ -19620,7 +20049,7 @@
       <c r="A23" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>802</v>
       </c>
       <c r="C23" t="s">
@@ -19655,18 +20084,18 @@
       </c>
     </row>
     <row r="27" ht="43.2" spans="1:2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="28" ht="230.4" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>814</v>
       </c>
     </row>
@@ -19676,10 +20105,10 @@
       </c>
     </row>
     <row r="30" ht="43.2" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>817</v>
       </c>
     </row>
@@ -19687,7 +20116,7 @@
       <c r="A31" t="s">
         <v>818</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>819</v>
       </c>
     </row>
@@ -19695,7 +20124,7 @@
       <c r="A32" t="s">
         <v>820</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>821</v>
       </c>
     </row>
@@ -19703,15 +20132,15 @@
       <c r="A33" t="s">
         <v>822</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="34" ht="115.2" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>825</v>
       </c>
     </row>
@@ -19719,15 +20148,15 @@
       <c r="A35" t="s">
         <v>826</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="36" ht="72" spans="1:2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>829</v>
       </c>
     </row>
@@ -19735,7 +20164,7 @@
       <c r="A37" t="s">
         <v>830</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>831</v>
       </c>
     </row>
@@ -19743,7 +20172,7 @@
       <c r="A38" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>833</v>
       </c>
     </row>
@@ -19751,15 +20180,15 @@
       <c r="A39" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="1:2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>837</v>
       </c>
     </row>
@@ -19775,15 +20204,15 @@
       <c r="A42" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>843</v>
       </c>
     </row>
@@ -19791,7 +20220,7 @@
       <c r="A44" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>845</v>
       </c>
     </row>
@@ -19823,7 +20252,7 @@
       <c r="A48" t="s">
         <v>852</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>853</v>
       </c>
     </row>
@@ -19833,15 +20262,15 @@
       </c>
     </row>
     <row r="50" ht="43.2" spans="1:2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="51" ht="28.8" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="6" t="s">
         <v>857</v>
       </c>
       <c r="B51" t="s">
@@ -19849,18 +20278,18 @@
       </c>
     </row>
     <row r="52" ht="72" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="6" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="53" ht="86.4" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="6" t="s">
         <v>862</v>
       </c>
     </row>
@@ -19878,34 +20307,34 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="57" ht="28.8" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="58" ht="28.8" spans="1:2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="59" ht="28.8" spans="1:2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>873</v>
       </c>
     </row>
@@ -19921,23 +20350,23 @@
       <c r="A61" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="62" ht="57.6" spans="1:2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>881</v>
       </c>
     </row>
@@ -19945,12 +20374,12 @@
       <c r="A64" t="s">
         <v>882</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="65" ht="28.8" spans="1:2">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="8" t="s">
         <v>884</v>
       </c>
       <c r="B65" t="s">
@@ -19958,42 +20387,42 @@
       </c>
     </row>
     <row r="66" ht="72" spans="1:2">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="67" ht="28.8" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="6" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="68" ht="57.6" spans="1:2">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="8" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="69" ht="72" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="8" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="70" ht="28.8" spans="1:2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="8" t="s">
         <v>895</v>
       </c>
     </row>
@@ -20001,7 +20430,7 @@
       <c r="A71" t="s">
         <v>896</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="8" t="s">
         <v>897</v>
       </c>
     </row>
@@ -20009,7 +20438,7 @@
       <c r="A72" t="s">
         <v>898</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="6" t="s">
         <v>899</v>
       </c>
     </row>
@@ -20017,7 +20446,7 @@
       <c r="A73" t="s">
         <v>900</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="6" t="s">
         <v>901</v>
       </c>
     </row>
@@ -20030,7 +20459,7 @@
       </c>
     </row>
     <row r="75" ht="28.8" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="6" t="s">
         <v>904</v>
       </c>
       <c r="B75" t="s">
@@ -20057,7 +20486,7 @@
       <c r="A78" t="s">
         <v>910</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="6" t="s">
         <v>911</v>
       </c>
     </row>
@@ -20065,12 +20494,12 @@
       <c r="A79" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="6" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="80" ht="28.8" spans="1:2">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="8" t="s">
         <v>914</v>
       </c>
       <c r="B80" t="s">
@@ -20083,15 +20512,15 @@
       </c>
     </row>
     <row r="82" ht="43.2" spans="1:2">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="6" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="83" ht="28.8" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="6" t="s">
         <v>919</v>
       </c>
       <c r="B83" t="s">
@@ -20115,7 +20544,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="8" t="s">
         <v>925</v>
       </c>
       <c r="B86" t="s">
@@ -20123,10 +20552,10 @@
       </c>
     </row>
     <row r="87" ht="28.8" spans="1:2">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="8" t="s">
         <v>928</v>
       </c>
     </row>
@@ -20134,7 +20563,7 @@
       <c r="A88" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="8" t="s">
         <v>930</v>
       </c>
     </row>
@@ -20147,7 +20576,7 @@
       </c>
     </row>
     <row r="90" ht="28.8" spans="1:2">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="8" t="s">
         <v>933</v>
       </c>
       <c r="B90" t="s">
@@ -20166,12 +20595,12 @@
       <c r="A92" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="6" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="93" ht="28.8" spans="1:2">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="8" t="s">
         <v>939</v>
       </c>
       <c r="B93" t="s">
@@ -20187,18 +20616,18 @@
       </c>
     </row>
     <row r="95" ht="43.2" spans="1:2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="8" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="96" ht="57.6" spans="1:2">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="6" t="s">
         <v>946</v>
       </c>
     </row>
@@ -20222,7 +20651,7 @@
       <c r="A99" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="6" t="s">
         <v>952</v>
       </c>
     </row>
@@ -20251,15 +20680,15 @@
       </c>
     </row>
     <row r="103" ht="57.6" spans="1:2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="8" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="104" ht="28.8" spans="1:2">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="8" t="s">
         <v>961</v>
       </c>
       <c r="B104" t="s">
@@ -20270,7 +20699,7 @@
       <c r="A105" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="8" t="s">
         <v>964</v>
       </c>
     </row>
@@ -20278,7 +20707,7 @@
       <c r="A106" t="s">
         <v>965</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="8" t="s">
         <v>966</v>
       </c>
     </row>
@@ -20299,7 +20728,7 @@
       <c r="A109" t="s">
         <v>970</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>971</v>
       </c>
     </row>
@@ -20317,47 +20746,47 @@
       </c>
     </row>
     <row r="112" ht="57.6" spans="1:2">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="113" ht="57.6" spans="1:2">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="8" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="114" ht="72" spans="1:2">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="115" ht="43.2" spans="1:2">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="116" ht="57.6" spans="1:2">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="8" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>985</v>
       </c>
       <c r="B117" t="s">
@@ -20365,7 +20794,7 @@
       </c>
     </row>
     <row r="118" ht="28.8" spans="1:2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="6" t="s">
         <v>987</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -20373,7 +20802,7 @@
       </c>
     </row>
     <row r="119" ht="28.8" spans="1:2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="6" t="s">
         <v>989</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -20384,12 +20813,12 @@
       <c r="A120" t="s">
         <v>991</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="6" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="121" ht="28.8" spans="1:2">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="8" t="s">
         <v>993</v>
       </c>
       <c r="B121" t="s">
@@ -20400,12 +20829,12 @@
       <c r="A122" t="s">
         <v>995</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="6" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="123" ht="28.8" spans="1:2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="6" t="s">
         <v>997</v>
       </c>
       <c r="B123" t="s">
@@ -20413,10 +20842,10 @@
       </c>
     </row>
     <row r="124" ht="57.6" spans="1:2">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="6" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -20424,7 +20853,7 @@
       <c r="A125" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="6" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -20432,7 +20861,7 @@
       <c r="A126" t="s">
         <v>1003</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -20448,7 +20877,7 @@
       <c r="A128" t="s">
         <v>1007</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="8" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -20472,7 +20901,7 @@
       <c r="A131" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="6" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -20488,8 +20917,146 @@
       <c r="A133" t="s">
         <v>1017</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="8" t="s">
         <v>1018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="52.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="63.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="5" width="8.88888888888889" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="41.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" ht="129.6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" ht="115.2" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="9" ht="100.8" spans="1:2">
+      <c r="A9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="10" ht="187.2" spans="1:2">
+      <c r="A10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:2">
+      <c r="A12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1044</v>
       </c>
     </row>
   </sheetData>

--- a/2019.xlsx
+++ b/2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14628" windowHeight="8484" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1051">
   <si>
     <t>好词好句/collection</t>
   </si>
@@ -15232,6 +15232,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>By retirement，they had saved up quite a</t>
     </r>
     <r>
@@ -15257,6 +15264,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>储备金，留作备用的钱，</t>
     </r>
     <r>
@@ -15269,6 +15283,24 @@
       </rPr>
       <t>私房钱</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thank you for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getting me the breakfast.</t>
+    </r>
+  </si>
+  <si>
+    <t>-Thank you for the breakfast.         -It`s my pleasure.</t>
   </si>
   <si>
     <t>山有扶苏，隰有荷华。不见子都，乃见狂且。
@@ -15279,6 +15311,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>简单纯粹的人</t>
     </r>
     <r>
@@ -15313,10 +15352,107 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">The tattoo sticker is </t>
+    </r>
+    <r>
+    